--- a/R/data/literacy_230925.xlsx
+++ b/R/data/literacy_230925.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3207D951-FA0F-4B4E-B2D4-0747D82D99B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12862AA9-93E0-6347-AE40-91A7C68EF57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36480" yWindow="600" windowWidth="34020" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36440" yWindow="2980" windowWidth="34020" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6294" uniqueCount="658">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7104" uniqueCount="724">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1996,6 +1996,204 @@
   </si>
   <si>
     <t>유설진</t>
+  </si>
+  <si>
+    <t>0319dy@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터학과</t>
+  </si>
+  <si>
+    <t>김도연</t>
+  </si>
+  <si>
+    <t>lsk8424@naver.com</t>
+  </si>
+  <si>
+    <t>이상기</t>
+  </si>
+  <si>
+    <t>limjs1006@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌학부</t>
+  </si>
+  <si>
+    <t>임진서</t>
+  </si>
+  <si>
+    <t>ehgus4597@gmail.com</t>
+  </si>
+  <si>
+    <t>김도현</t>
+  </si>
+  <si>
+    <t>tibbit2@naver.com</t>
+  </si>
+  <si>
+    <t>AI의료융합전공</t>
+  </si>
+  <si>
+    <t>정윤재</t>
+  </si>
+  <si>
+    <t>hhuning8814@gmaill.com</t>
+  </si>
+  <si>
+    <t>임지우</t>
+  </si>
+  <si>
+    <t>bill916@naver.com</t>
+  </si>
+  <si>
+    <t>의약신소재</t>
+  </si>
+  <si>
+    <t>신대철</t>
+  </si>
+  <si>
+    <t>rjfrh11@naver.com</t>
+  </si>
+  <si>
+    <t>반도체전공</t>
+  </si>
+  <si>
+    <t>서무혁</t>
+  </si>
+  <si>
+    <t>steve0711@naver.com</t>
+  </si>
+  <si>
+    <t>이승준</t>
+  </si>
+  <si>
+    <t>meldek98@gmail.com</t>
+  </si>
+  <si>
+    <t>강비성</t>
+  </si>
+  <si>
+    <t>yoo040128@naver.com</t>
+  </si>
+  <si>
+    <t>유승주</t>
+  </si>
+  <si>
+    <t>rlaekdp1505@naver.com</t>
+  </si>
+  <si>
+    <t>김다예</t>
+  </si>
+  <si>
+    <t>vivace3990@gmail.com</t>
+  </si>
+  <si>
+    <t>김정현</t>
+  </si>
+  <si>
+    <t>tlsrkdms12345@naver.com</t>
+  </si>
+  <si>
+    <t>신가은</t>
+  </si>
+  <si>
+    <t>sshs0206@naver.com</t>
+  </si>
+  <si>
+    <t>최지민</t>
+  </si>
+  <si>
+    <t>kimcr0678@gmail.com</t>
+  </si>
+  <si>
+    <t>김채령</t>
+  </si>
+  <si>
+    <t>wnyuna04@gmail.com</t>
+  </si>
+  <si>
+    <t>주윤아</t>
+  </si>
+  <si>
+    <t>whgdktlfgdj2@naver.com</t>
+  </si>
+  <si>
+    <t>변용찬</t>
+  </si>
+  <si>
+    <t>sun21cc2@naver.com</t>
+  </si>
+  <si>
+    <t>이민규</t>
+  </si>
+  <si>
+    <t>xpjungwoo0518@kakao.com</t>
+  </si>
+  <si>
+    <t>이정우</t>
+  </si>
+  <si>
+    <t>psp528500@gmail.com</t>
+  </si>
+  <si>
+    <t>박준형</t>
+  </si>
+  <si>
+    <t>memo0103@naver.com</t>
+  </si>
+  <si>
+    <t>안현서</t>
+  </si>
+  <si>
+    <t>implibra88@gmail.com</t>
+  </si>
+  <si>
+    <t>김유진</t>
+  </si>
+  <si>
+    <t>02c06c@naver.com</t>
+  </si>
+  <si>
+    <t>김채현</t>
+  </si>
+  <si>
+    <t>lceda1011@naver.com</t>
+  </si>
+  <si>
+    <t>이채은</t>
+  </si>
+  <si>
+    <t>catboom5329@gmail.com</t>
+  </si>
+  <si>
+    <t>박주현</t>
+  </si>
+  <si>
+    <t>amy001031@naver.com</t>
+  </si>
+  <si>
+    <t>전예림</t>
+  </si>
+  <si>
+    <t>minzero523@naver.com</t>
+  </si>
+  <si>
+    <t>동민영</t>
+  </si>
+  <si>
+    <t>psjj3840@gmail.com</t>
+  </si>
+  <si>
+    <t>박서진</t>
+  </si>
+  <si>
+    <t>cheis11@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT</t>
+  </si>
+  <si>
+    <t>김찬호</t>
   </si>
 </sst>
 </file>
@@ -2269,11 +2467,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD233"/>
+  <dimension ref="A1:AD263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K239" sqref="K239"/>
+      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D254" sqref="D254"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23717,6 +23915,2766 @@
         <v>56</v>
       </c>
     </row>
+    <row r="234" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="2">
+        <v>45197.337045810185</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D234" s="1">
+        <v>20225116</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F234" s="1">
+        <v>3</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I234" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K234" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L234" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M234" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N234" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O234" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P234" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q234" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R234" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S234" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T234" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U234" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V234" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W234" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X234" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y234" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z234" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA234" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB234" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC234" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD234" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="235" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A235" s="2">
+        <v>45197.403582511572</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D235" s="1">
+        <v>20172428</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="F235" s="1">
+        <v>3</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I235" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K235" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L235" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M235" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N235" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O235" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P235" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q235" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R235" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S235" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T235" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U235" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V235" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W235" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X235" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y235" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z235" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA235" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB235" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC235" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD235" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="236" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="2">
+        <v>45197.445842696761</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D236" s="1">
+        <v>20236424</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F236" s="1">
+        <v>3</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I236" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J236" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K236" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L236" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M236" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N236" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O236" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P236" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q236" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R236" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S236" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T236" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U236" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V236" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W236" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X236" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y236" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z236" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA236" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB236" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC236" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD236" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="237" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A237" s="2">
+        <v>45197.469231377312</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D237" s="1">
+        <v>20223208</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F237" s="1">
+        <v>3</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I237" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K237" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L237" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M237" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N237" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O237" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P237" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q237" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R237" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S237" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T237" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U237" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V237" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W237" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X237" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y237" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z237" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA237" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB237" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC237" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD237" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="238" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="2">
+        <v>45197.497819537035</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D238" s="1">
+        <v>20216750</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F238" s="1">
+        <v>3</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I238" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J238" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K238" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L238" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M238" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N238" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O238" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P238" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q238" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R238" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S238" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T238" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U238" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V238" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W238" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X238" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y238" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z238" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA238" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB238" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC238" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD238" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="239" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="2">
+        <v>45197.514693495366</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D239" s="1">
+        <v>20236635</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="F239" s="1">
+        <v>3</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I239" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J239" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K239" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L239" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M239" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N239" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O239" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P239" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q239" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R239" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S239" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T239" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U239" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V239" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W239" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X239" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y239" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z239" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA239" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB239" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC239" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD239" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="240" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A240" s="2">
+        <v>45197.518269942128</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="D240" s="1">
+        <v>20196621</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F240" s="1">
+        <v>3</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I240" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J240" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K240" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L240" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M240" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N240" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O240" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P240" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q240" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R240" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S240" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T240" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U240" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V240" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W240" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X240" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y240" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z240" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA240" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB240" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC240" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD240" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="241" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="2">
+        <v>45197.520009583328</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D241" s="1">
+        <v>20193328</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="F241" s="1">
+        <v>3</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I241" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J241" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K241" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L241" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M241" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N241" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O241" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P241" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q241" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R241" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S241" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T241" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U241" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V241" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W241" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X241" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y241" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z241" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA241" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB241" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC241" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD241" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="242" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A242" s="2">
+        <v>45197.525664247689</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D242" s="1">
+        <v>20183831</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="F242" s="1">
+        <v>3</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I242" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K242" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L242" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M242" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N242" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O242" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P242" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q242" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R242" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S242" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T242" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U242" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V242" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W242" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X242" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y242" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z242" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA242" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB242" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC242" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD242" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="243" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A243" s="2">
+        <v>45197.528570243056</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D243" s="1">
+        <v>20235102</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="F243" s="1">
+        <v>1</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I243" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J243" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="K243" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L243" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M243" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N243" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O243" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P243" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q243" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R243" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S243" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T243" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U243" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V243" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W243" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X243" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y243" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z243" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA243" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB243" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC243" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD243" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="244" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A244" s="2">
+        <v>45197.56399623843</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D244" s="1">
+        <v>20232622</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="F244" s="1">
+        <v>3</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I244" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K244" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L244" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M244" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N244" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O244" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P244" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q244" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R244" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S244" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T244" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U244" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V244" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W244" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X244" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y244" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z244" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA244" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB244" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC244" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD244" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="245" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="2">
+        <v>45197.577371898151</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D245" s="1">
+        <v>20222908</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="F245" s="1">
+        <v>3</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I245" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J245" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="K245" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L245" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M245" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N245" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O245" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P245" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q245" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R245" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S245" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T245" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U245" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V245" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W245" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X245" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y245" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z245" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA245" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB245" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC245" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD245" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="246" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A246" s="2">
+        <v>45197.577838807869</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D246" s="1">
+        <v>20171605</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F246" s="1">
+        <v>3</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I246" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J246" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K246" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L246" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M246" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N246" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O246" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P246" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q246" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R246" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S246" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T246" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U246" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V246" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W246" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X246" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y246" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z246" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA246" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB246" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC246" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD246" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="247" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="2">
+        <v>45197.586445740744</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D247" s="1">
+        <v>20217037</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F247" s="1">
+        <v>3</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I247" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K247" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L247" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M247" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N247" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O247" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P247" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q247" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R247" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S247" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T247" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U247" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V247" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W247" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X247" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y247" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z247" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA247" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB247" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC247" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD247" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="248" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A248" s="2">
+        <v>45197.610826319447</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D248" s="1">
+        <v>20236174</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="F248" s="1">
+        <v>3</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I248" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J248" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K248" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M248" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N248" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O248" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P248" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q248" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R248" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S248" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T248" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U248" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V248" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W248" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X248" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y248" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z248" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA248" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB248" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC248" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD248" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="249" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A249" s="2">
+        <v>45197.611038599542</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D249" s="1">
+        <v>20236230</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F249" s="1">
+        <v>3</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I249" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J249" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K249" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L249" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M249" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N249" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O249" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P249" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q249" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R249" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S249" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T249" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U249" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V249" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W249" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X249" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y249" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z249" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA249" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB249" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC249" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD249" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="250" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A250" s="2">
+        <v>45197.643188969909</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D250" s="1">
+        <v>20236294</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="F250" s="1">
+        <v>3</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I250" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K250" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L250" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M250" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N250" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O250" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P250" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q250" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R250" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S250" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T250" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U250" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V250" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W250" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X250" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y250" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z250" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA250" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB250" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC250" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD250" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="251" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="2">
+        <v>45197.646701597223</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D251" s="1">
+        <v>20181051</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F251" s="1">
+        <v>3</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I251" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K251" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L251" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M251" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N251" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O251" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P251" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q251" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R251" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S251" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T251" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U251" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V251" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W251" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X251" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y251" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z251" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA251" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB251" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC251" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD251" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="252" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A252" s="2">
+        <v>45197.656495671297</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D252" s="1">
+        <v>20235229</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="F252" s="1">
+        <v>3</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I252" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J252" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K252" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L252" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M252" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N252" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O252" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P252" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q252" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R252" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S252" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T252" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U252" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V252" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W252" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X252" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y252" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z252" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA252" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB252" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC252" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD252" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="253" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A253" s="2">
+        <v>45197.682471493055</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D253" s="1">
+        <v>20231626</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F253" s="1">
+        <v>3</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K253" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L253" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M253" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N253" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O253" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P253" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q253" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R253" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S253" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T253" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U253" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V253" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W253" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X253" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y253" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z253" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA253" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB253" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC253" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD253" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="254" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A254" s="2">
+        <v>45197.689620023149</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D254" s="1">
+        <v>20232960</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F254" s="1">
+        <v>3</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I254" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K254" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L254" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M254" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N254" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O254" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P254" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q254" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R254" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S254" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T254" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U254" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V254" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W254" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X254" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y254" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z254" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA254" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB254" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC254" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD254" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="255" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A255" s="2">
+        <v>45197.699414629635</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D255" s="1">
+        <v>20236142</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="F255" s="1">
+        <v>3</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I255" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K255" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L255" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M255" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N255" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O255" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P255" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q255" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R255" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S255" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T255" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U255" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V255" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W255" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X255" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y255" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z255" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA255" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB255" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC255" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD255" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="256" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A256" s="2">
+        <v>45197.717475289348</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D256" s="1">
+        <v>20233711</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="F256" s="1">
+        <v>3</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I256" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J256" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K256" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L256" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M256" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N256" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O256" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P256" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q256" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R256" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S256" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T256" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U256" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V256" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W256" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X256" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y256" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z256" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA256" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB256" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC256" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD256" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="257" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A257" s="2">
+        <v>45197.730411203709</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D257" s="1">
+        <v>20217055</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="F257" s="1">
+        <v>3</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I257" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J257" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K257" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L257" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M257" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N257" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O257" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P257" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q257" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R257" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S257" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T257" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U257" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V257" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W257" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X257" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y257" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z257" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA257" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB257" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC257" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD257" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="258" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A258" s="2">
+        <v>45197.736139629633</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D258" s="1">
+        <v>20233955</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="F258" s="1">
+        <v>3</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I258" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J258" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K258" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L258" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M258" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N258" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O258" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P258" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q258" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R258" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S258" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T258" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U258" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V258" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W258" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X258" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y258" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z258" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA258" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB258" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC258" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD258" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="259" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="2">
+        <v>45197.758970578703</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D259" s="1">
+        <v>20234121</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="F259" s="1">
+        <v>3</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I259" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J259" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K259" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L259" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M259" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N259" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O259" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P259" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q259" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R259" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S259" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T259" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U259" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V259" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W259" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X259" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y259" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z259" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA259" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB259" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC259" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD259" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="260" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A260" s="2">
+        <v>45197.76175153935</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D260" s="1">
+        <v>20193426</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="F260" s="1">
+        <v>3</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I260" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J260" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K260" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L260" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M260" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N260" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O260" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P260" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q260" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R260" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S260" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T260" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U260" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V260" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W260" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X260" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y260" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z260" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA260" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB260" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC260" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD260" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="261" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A261" s="2">
+        <v>45197.777641319444</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D261" s="1">
+        <v>20212945</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="F261" s="1">
+        <v>3</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I261" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J261" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K261" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L261" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M261" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N261" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O261" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P261" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q261" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R261" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S261" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T261" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U261" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V261" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W261" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X261" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y261" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z261" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA261" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB261" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC261" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD261" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="262" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A262" s="2">
+        <v>45197.796859351853</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D262" s="1">
+        <v>20215154</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="F262" s="1">
+        <v>3</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I262" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J262" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K262" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L262" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M262" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N262" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O262" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P262" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q262" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R262" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="S262" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T262" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U262" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V262" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W262" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X262" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y262" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z262" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA262" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB262" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC262" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD262" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="263" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A263" s="2">
+        <v>45197.799992488421</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D263" s="1">
+        <v>20195143</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F263" s="1">
+        <v>3</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I263" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J263" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K263" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L263" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M263" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N263" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O263" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P263" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q263" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R263" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S263" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T263" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U263" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V263" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W263" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X263" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y263" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z263" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA263" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB263" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC263" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD263" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_230925.xlsx
+++ b/R/data/literacy_230925.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12862AA9-93E0-6347-AE40-91A7C68EF57C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67695AD-86A1-B44E-843B-6DE5A5995F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36440" yWindow="2980" windowWidth="34020" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36340" yWindow="500" windowWidth="34020" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7104" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7212" uniqueCount="734">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2194,6 +2194,36 @@
   </si>
   <si>
     <t>김찬호</t>
+  </si>
+  <si>
+    <t>wotmddl3947@gmail.com</t>
+  </si>
+  <si>
+    <t>콘텐츠 IT</t>
+  </si>
+  <si>
+    <t>류재승</t>
+  </si>
+  <si>
+    <t>choeunland@gmail.com</t>
+  </si>
+  <si>
+    <t>철학과</t>
+  </si>
+  <si>
+    <t>송민혁</t>
+  </si>
+  <si>
+    <t>jyn10131@naver.com</t>
+  </si>
+  <si>
+    <t>정예나</t>
+  </si>
+  <si>
+    <t>rlatjdnjs000@gmail.com</t>
+  </si>
+  <si>
+    <t>김서원</t>
   </si>
 </sst>
 </file>
@@ -2467,11 +2497,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD263"/>
+  <dimension ref="A1:AD267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D254" sqref="D254"/>
+      <selection pane="bottomLeft" activeCell="D271" sqref="D271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -26675,6 +26705,374 @@
         <v>56</v>
       </c>
     </row>
+    <row r="264" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A264" s="2">
+        <v>45197.836697407409</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="D264" s="1">
+        <v>20195157</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="F264" s="1">
+        <v>3</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I264" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K264" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L264" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M264" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N264" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O264" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P264" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q264" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R264" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S264" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T264" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U264" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V264" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W264" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X264" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y264" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z264" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA264" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB264" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC264" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD264" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="265" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="2">
+        <v>45197.865288738423</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D265" s="1">
+        <v>20181054</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="F265" s="1">
+        <v>3</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I265" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J265" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K265" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L265" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M265" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N265" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O265" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P265" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q265" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R265" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S265" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T265" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U265" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V265" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W265" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X265" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y265" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z265" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA265" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB265" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC265" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD265" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="266" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A266" s="2">
+        <v>45197.868458993056</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D266" s="1">
+        <v>20233847</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="F266" s="1">
+        <v>3</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I266" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K266" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L266" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M266" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N266" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O266" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P266" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q266" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R266" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S266" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T266" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U266" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V266" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W266" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X266" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y266" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z266" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA266" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB266" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC266" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD266" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="267" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="2">
+        <v>45197.883526874997</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D267" s="1">
+        <v>20202604</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="F267" s="1">
+        <v>3</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I267" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K267" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L267" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M267" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N267" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O267" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P267" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q267" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R267" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S267" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T267" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U267" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V267" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W267" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X267" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y267" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z267" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA267" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB267" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC267" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD267" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_230925.xlsx
+++ b/R/data/literacy_230925.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Dropbox/내 Mac (Kee-Won의 MacBook Air)/Documents/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67695AD-86A1-B44E-843B-6DE5A5995F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4244B1-ECAA-CE4A-B7E6-3DAB4AA613D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36340" yWindow="500" windowWidth="34020" windowHeight="18620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7212" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8427" uniqueCount="822">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2224,6 +2224,271 @@
   </si>
   <si>
     <t>김서원</t>
+  </si>
+  <si>
+    <t>seraphic_0913@naver.com</t>
+  </si>
+  <si>
+    <t>배윤서</t>
+  </si>
+  <si>
+    <t>sysy050300@naver.com</t>
+  </si>
+  <si>
+    <t>고서연</t>
+  </si>
+  <si>
+    <t>qkrwnsdud1019@gmail.com</t>
+  </si>
+  <si>
+    <t>suin207846@naver.com</t>
+  </si>
+  <si>
+    <t>안수인</t>
+  </si>
+  <si>
+    <t>sexytaegeun@gmail.com</t>
+  </si>
+  <si>
+    <t>성태근</t>
+  </si>
+  <si>
+    <t>teo48253@gmail.com</t>
+  </si>
+  <si>
+    <t>이수혁</t>
+  </si>
+  <si>
+    <t>judy030427@naver.com</t>
+  </si>
+  <si>
+    <t>오주영</t>
+  </si>
+  <si>
+    <t>hayeong206@gmail.com</t>
+  </si>
+  <si>
+    <t>조하영</t>
+  </si>
+  <si>
+    <t>dpwls040103@naver.com</t>
+  </si>
+  <si>
+    <t>pig6832@naver.com</t>
+  </si>
+  <si>
+    <t>junhvn1@gmail.com</t>
+  </si>
+  <si>
+    <t>박준한</t>
+  </si>
+  <si>
+    <t>hyj1141@naver.com</t>
+  </si>
+  <si>
+    <t>한예지</t>
+  </si>
+  <si>
+    <t>csnoi@naver.com</t>
+  </si>
+  <si>
+    <t>원현서</t>
+  </si>
+  <si>
+    <t>eugene3551@gmail.com</t>
+  </si>
+  <si>
+    <t>유수영</t>
+  </si>
+  <si>
+    <t>20233825@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>엄서현</t>
+  </si>
+  <si>
+    <t>ssb060333@gmail.com</t>
+  </si>
+  <si>
+    <t>신수빈</t>
+  </si>
+  <si>
+    <t>yewoshine@naver.com</t>
+  </si>
+  <si>
+    <t>허예원</t>
+  </si>
+  <si>
+    <t>rhksan324@naver.com</t>
+  </si>
+  <si>
+    <t>이관무</t>
+  </si>
+  <si>
+    <t>wkdqls9988@gmail.com</t>
+  </si>
+  <si>
+    <t>스마트 IOT</t>
+  </si>
+  <si>
+    <t>장현빈</t>
+  </si>
+  <si>
+    <t>back8028@naver.com</t>
+  </si>
+  <si>
+    <t>백재영</t>
+  </si>
+  <si>
+    <t>bin85288@daum.net</t>
+  </si>
+  <si>
+    <t>김수빈</t>
+  </si>
+  <si>
+    <t>dltmdxo0123@naver.com</t>
+  </si>
+  <si>
+    <t>이승태</t>
+  </si>
+  <si>
+    <t>thomas1114@naver.com</t>
+  </si>
+  <si>
+    <t>이재석</t>
+  </si>
+  <si>
+    <t>dltndus004@naver.com</t>
+  </si>
+  <si>
+    <t>pgw0814@gmail.com</t>
+  </si>
+  <si>
+    <t>박지우</t>
+  </si>
+  <si>
+    <t>sjb081235@naver.com</t>
+  </si>
+  <si>
+    <t>신종범</t>
+  </si>
+  <si>
+    <t>smat0403p@naver.com</t>
+  </si>
+  <si>
+    <t>dbwlgns1307@naver.com</t>
+  </si>
+  <si>
+    <t>유지훈</t>
+  </si>
+  <si>
+    <t>homelearn04@naver.com</t>
+  </si>
+  <si>
+    <t>박종욱</t>
+  </si>
+  <si>
+    <t>aissipar3@naver.com</t>
+  </si>
+  <si>
+    <t>김현채</t>
+  </si>
+  <si>
+    <t>hogin0912@naver.com</t>
+  </si>
+  <si>
+    <t>신호진</t>
+  </si>
+  <si>
+    <t>aoa0226@naver.com</t>
+  </si>
+  <si>
+    <t>강문원</t>
+  </si>
+  <si>
+    <t>dutmddus1219@naver.com</t>
+  </si>
+  <si>
+    <t>영어영문</t>
+  </si>
+  <si>
+    <t>여승연</t>
+  </si>
+  <si>
+    <t>0310cherry@naver.com</t>
+  </si>
+  <si>
+    <t>이재원</t>
+  </si>
+  <si>
+    <t>yoonsm4538@gmail.com</t>
+  </si>
+  <si>
+    <t>윤상민</t>
+  </si>
+  <si>
+    <t>daeun8937@naver.com</t>
+  </si>
+  <si>
+    <t>최다은</t>
+  </si>
+  <si>
+    <t>tlaaldhktlaa@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광고홍보학과 </t>
+  </si>
+  <si>
+    <t>박심미</t>
+  </si>
+  <si>
+    <t>kimkitty040510@gmail.com</t>
+  </si>
+  <si>
+    <t>yeshin05@naver.com</t>
+  </si>
+  <si>
+    <t>최예원</t>
+  </si>
+  <si>
+    <t>hyeoni8635@daum.net</t>
+  </si>
+  <si>
+    <t>임서현</t>
+  </si>
+  <si>
+    <t>123qazwsx12@naver.com</t>
+  </si>
+  <si>
+    <t>전예진</t>
+  </si>
+  <si>
+    <t>kilucas45@gmail.com</t>
+  </si>
+  <si>
+    <t>김동건</t>
+  </si>
+  <si>
+    <t>pjuns502@gmail.com</t>
+  </si>
+  <si>
+    <t>박준현</t>
+  </si>
+  <si>
+    <t>hyunseo4370@gmail.com</t>
+  </si>
+  <si>
+    <t>장현서</t>
+  </si>
+  <si>
+    <t>alscoco100@gmail.com</t>
+  </si>
+  <si>
+    <t>김민채</t>
+  </si>
+  <si>
+    <t>심리학과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2497,11 +2762,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD267"/>
+  <dimension ref="A1:AD312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A232" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D271" sqref="D271"/>
+      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F269" sqref="F269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -27073,6 +27338,4146 @@
         <v>91</v>
       </c>
     </row>
+    <row r="268" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A268" s="2">
+        <v>45197.948747037037</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D268" s="1">
+        <v>20232720</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="F268" s="1">
+        <v>3</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I268" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K268" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L268" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M268" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N268" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O268" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P268" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q268" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R268" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S268" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T268" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U268" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V268" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W268" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X268" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y268" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z268" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA268" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB268" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC268" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD268" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="269" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A269" s="2">
+        <v>45197.960943148151</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>736</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D269" s="1">
+        <v>20232101</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="F269" s="1">
+        <v>3</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I269" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J269" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K269" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L269" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M269" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N269" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O269" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P269" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q269" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R269" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S269" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T269" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U269" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V269" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W269" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X269" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y269" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z269" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA269" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB269" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC269" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD269" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="270" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A270" s="2">
+        <v>45197.993234884256</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D270" s="1">
+        <v>20235172</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F270" s="1">
+        <v>2</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I270" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J270" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K270" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L270" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M270" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N270" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O270" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P270" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q270" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R270" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S270" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T270" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U270" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V270" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W270" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X270" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y270" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z270" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA270" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB270" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC270" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD270" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="271" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="2">
+        <v>45198.015022916668</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D271" s="1">
+        <v>20222977</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="F271" s="1">
+        <v>3</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I271" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K271" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L271" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M271" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N271" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O271" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P271" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q271" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R271" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S271" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T271" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U271" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V271" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W271" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X271" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y271" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z271" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA271" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB271" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC271" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD271" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="272" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="2">
+        <v>45198.042514768516</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D272" s="1">
+        <v>20232118</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="F272" s="1">
+        <v>3</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I272" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K272" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L272" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M272" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N272" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O272" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P272" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q272" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R272" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S272" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T272" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U272" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V272" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W272" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X272" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y272" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z272" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA272" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB272" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC272" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD272" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="273" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A273" s="2">
+        <v>45198.044708240741</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D273" s="1">
+        <v>20233420</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="F273" s="1">
+        <v>3</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I273" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K273" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L273" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M273" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N273" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O273" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P273" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q273" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R273" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S273" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T273" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U273" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V273" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W273" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X273" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y273" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z273" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA273" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB273" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC273" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD273" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="274" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A274" s="2">
+        <v>45198.089469432874</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D274" s="1">
+        <v>20236263</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="F274" s="1">
+        <v>3</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I274" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K274" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L274" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M274" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N274" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O274" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P274" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q274" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R274" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S274" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T274" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U274" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V274" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W274" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X274" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y274" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z274" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA274" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB274" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC274" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD274" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="275" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A275" s="2">
+        <v>45198.091987581021</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D275" s="1">
+        <v>20233430</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="F275" s="1">
+        <v>3</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I275" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J275" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K275" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L275" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M275" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N275" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O275" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P275" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q275" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R275" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S275" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T275" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U275" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V275" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W275" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X275" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y275" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z275" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA275" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB275" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC275" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD275" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="276" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A276" s="2">
+        <v>45198.14850059028</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D276" s="1">
+        <v>20236758</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F276" s="1">
+        <v>3</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I276" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K276" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L276" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M276" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N276" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O276" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P276" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q276" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R276" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S276" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T276" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U276" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V276" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W276" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X276" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y276" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z276" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA276" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB276" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC276" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD276" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="277" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A277" s="2">
+        <v>45198.472628969903</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D277" s="1">
+        <v>20232740</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F277" s="1">
+        <v>3</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I277" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J277" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K277" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L277" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M277" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N277" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O277" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P277" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q277" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R277" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S277" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T277" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U277" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V277" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W277" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X277" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y277" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z277" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA277" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB277" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC277" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD277" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="278" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A278" s="2">
+        <v>45198.530161539355</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D278" s="1">
+        <v>20192614</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="F278" s="1">
+        <v>3</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I278" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K278" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L278" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M278" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N278" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O278" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P278" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q278" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R278" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S278" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T278" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U278" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V278" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W278" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X278" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y278" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z278" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA278" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB278" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC278" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD278" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="279" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A279" s="2">
+        <v>45198.553714537033</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D279" s="1">
+        <v>20217095</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="F279" s="1">
+        <v>3</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I279" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J279" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K279" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L279" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M279" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N279" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O279" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P279" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q279" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R279" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S279" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T279" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U279" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V279" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W279" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X279" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y279" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z279" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA279" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB279" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC279" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD279" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="280" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A280" s="2">
+        <v>45198.588878090275</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D280" s="1">
+        <v>20202992</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F280" s="1">
+        <v>3</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I280" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K280" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L280" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M280" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N280" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O280" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P280" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q280" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R280" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S280" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T280" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U280" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V280" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W280" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X280" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y280" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z280" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA280" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB280" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC280" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD280" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="281" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A281" s="2">
+        <v>45198.613191412034</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D281" s="1">
+        <v>20235214</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>758</v>
+      </c>
+      <c r="F281" s="1">
+        <v>3</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K281" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L281" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M281" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N281" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O281" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P281" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q281" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R281" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S281" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T281" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U281" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V281" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W281" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X281" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y281" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z281" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA281" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB281" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC281" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD281" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="282" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A282" s="2">
+        <v>45198.634725451389</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D282" s="1">
+        <v>20233825</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="F282" s="1">
+        <v>3</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K282" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L282" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M282" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N282" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O282" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P282" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q282" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R282" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S282" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T282" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U282" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V282" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W282" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X282" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y282" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z282" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA282" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB282" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC282" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD282" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="283" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A283" s="2">
+        <v>45198.636006006942</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D283" s="1">
+        <v>20222614</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="F283" s="1">
+        <v>3</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I283" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K283" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L283" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M283" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N283" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O283" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P283" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q283" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R283" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S283" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T283" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U283" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V283" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W283" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X283" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y283" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z283" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA283" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB283" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC283" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD283" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="284" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A284" s="2">
+        <v>45198.687678171293</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D284" s="1">
+        <v>20217122</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>764</v>
+      </c>
+      <c r="F284" s="1">
+        <v>3</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I284" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J284" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K284" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L284" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M284" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N284" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O284" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P284" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q284" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R284" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S284" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T284" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U284" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V284" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W284" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X284" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y284" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z284" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA284" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB284" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC284" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD284" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="285" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A285" s="2">
+        <v>45198.698848553242</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>765</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D285" s="1">
+        <v>20203001</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="F285" s="1">
+        <v>3</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K285" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L285" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M285" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N285" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O285" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P285" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q285" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R285" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S285" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T285" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U285" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V285" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W285" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X285" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y285" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z285" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA285" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB285" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC285" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD285" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="286" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A286" s="2">
+        <v>45198.71610513889</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="D286" s="1">
+        <v>20185288</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="F286" s="1">
+        <v>3</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I286" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J286" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K286" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L286" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M286" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N286" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O286" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P286" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q286" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R286" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S286" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T286" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U286" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V286" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W286" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X286" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y286" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z286" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA286" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB286" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC286" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD286" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="287" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A287" s="2">
+        <v>45198.717150590281</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>770</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D287" s="1">
+        <v>20202972</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="F287" s="1">
+        <v>3</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I287" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J287" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K287" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L287" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M287" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N287" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O287" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P287" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q287" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R287" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S287" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T287" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U287" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V287" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W287" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X287" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y287" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z287" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA287" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB287" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC287" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD287" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="288" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A288" s="2">
+        <v>45198.722368796298</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>772</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D288" s="1">
+        <v>20231016</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="F288" s="1">
+        <v>3</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I288" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J288" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K288" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L288" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M288" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N288" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O288" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P288" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q288" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R288" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S288" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T288" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U288" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V288" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W288" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X288" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y288" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z288" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA288" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB288" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC288" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD288" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="289" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A289" s="2">
+        <v>45198.760136655095</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D289" s="1">
+        <v>20202837</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>775</v>
+      </c>
+      <c r="F289" s="1">
+        <v>3</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I289" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J289" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K289" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L289" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M289" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N289" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O289" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P289" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q289" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R289" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S289" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T289" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U289" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V289" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W289" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X289" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y289" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z289" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA289" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB289" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC289" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD289" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="290" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A290" s="2">
+        <v>45198.770451446762</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>776</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D290" s="1">
+        <v>20201627</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="F290" s="1">
+        <v>3</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I290" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K290" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L290" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M290" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N290" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O290" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P290" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q290" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R290" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S290" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T290" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U290" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V290" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W290" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X290" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y290" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z290" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA290" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB290" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC290" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD290" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="291" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A291" s="2">
+        <v>45198.785353784726</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D291" s="1">
+        <v>20232627</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F291" s="1">
+        <v>3</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J291" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K291" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L291" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M291" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N291" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O291" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P291" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q291" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R291" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S291" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T291" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U291" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V291" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W291" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X291" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y291" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z291" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA291" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB291" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC291" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD291" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="292" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A292" s="2">
+        <v>45198.888717604168</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D292" s="1">
+        <v>20203409</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="F292" s="1">
+        <v>3</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I292" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J292" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K292" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L292" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M292" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N292" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O292" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P292" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q292" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R292" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S292" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T292" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U292" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V292" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W292" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X292" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y292" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z292" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA292" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB292" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC292" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD292" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="293" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A293" s="2">
+        <v>45198.904231759254</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D293" s="1">
+        <v>20232334</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="F293" s="1">
+        <v>3</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H293" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J293" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K293" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L293" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M293" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N293" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O293" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P293" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q293" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R293" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S293" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T293" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U293" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V293" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W293" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X293" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y293" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z293" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA293" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB293" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC293" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD293" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="294" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A294" s="2">
+        <v>45198.911684398146</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D294" s="1">
+        <v>20232719</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F294" s="1">
+        <v>3</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H294" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I294" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J294" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K294" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L294" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M294" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N294" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O294" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P294" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q294" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R294" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S294" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T294" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U294" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V294" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W294" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X294" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y294" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z294" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA294" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB294" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC294" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD294" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="295" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A295" s="2">
+        <v>45198.969981851857</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>784</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D295" s="1">
+        <v>20194132</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="F295" s="1">
+        <v>3</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H295" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I295" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J295" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K295" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L295" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M295" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N295" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O295" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P295" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q295" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R295" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S295" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T295" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U295" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V295" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W295" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X295" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y295" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z295" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA295" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB295" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC295" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD295" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="296" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A296" s="2">
+        <v>45198.972563969903</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D296" s="1">
+        <v>20235170</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="F296" s="1">
+        <v>2</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I296" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J296" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K296" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L296" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M296" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N296" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O296" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P296" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q296" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R296" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="S296" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="T296" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U296" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V296" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W296" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X296" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y296" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z296" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA296" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB296" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC296" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD296" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="297" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A297" s="2">
+        <v>45198.977923356477</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>788</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D297" s="1">
+        <v>20232609</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="F297" s="1">
+        <v>3</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H297" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I297" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J297" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K297" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L297" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M297" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N297" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O297" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P297" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q297" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R297" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S297" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T297" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U297" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V297" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W297" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X297" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y297" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z297" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA297" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB297" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC297" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD297" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="298" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A298" s="2">
+        <v>45199.00158921296</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D298" s="1">
+        <v>20232829</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="F298" s="1">
+        <v>3</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H298" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I298" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="J298" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K298" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L298" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M298" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N298" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O298" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P298" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q298" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R298" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S298" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T298" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U298" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V298" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W298" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X298" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y298" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z298" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA298" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB298" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC298" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD298" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="299" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A299" s="2">
+        <v>45199.018980567125</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D299" s="1">
+        <v>20201601</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="F299" s="1">
+        <v>3</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H299" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I299" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J299" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K299" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L299" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M299" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N299" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O299" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P299" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q299" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R299" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S299" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T299" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U299" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V299" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W299" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X299" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y299" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z299" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA299" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB299" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC299" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD299" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="300" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A300" s="2">
+        <v>45199.020821620376</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D300" s="1">
+        <v>20201217</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="F300" s="1">
+        <v>3</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H300" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I300" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J300" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K300" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L300" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M300" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N300" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O300" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P300" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q300" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R300" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S300" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T300" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U300" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V300" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W300" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X300" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y300" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z300" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA300" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB300" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC300" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD300" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="301" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A301" s="2">
+        <v>45199.021584317132</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D301" s="1">
+        <v>20191530</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="F301" s="1">
+        <v>3</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H301" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I301" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J301" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K301" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L301" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M301" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N301" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O301" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P301" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q301" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R301" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S301" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T301" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U301" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V301" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W301" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X301" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y301" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z301" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA301" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB301" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC301" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD301" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="302" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A302" s="2">
+        <v>45199.033813437505</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D302" s="1">
+        <v>20221626</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="F302" s="1">
+        <v>3</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H302" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I302" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="J302" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="K302" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L302" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M302" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N302" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O302" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P302" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q302" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R302" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S302" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="T302" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U302" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V302" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W302" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X302" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y302" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z302" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA302" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB302" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC302" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD302" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="303" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A303" s="2">
+        <v>45199.058153101854</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D303" s="1">
+        <v>20232753</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="F303" s="1">
+        <v>3</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H303" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I303" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J303" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K303" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L303" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M303" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N303" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O303" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P303" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q303" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R303" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S303" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T303" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U303" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V303" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W303" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X303" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y303" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z303" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA303" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB303" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC303" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD303" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="304" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A304" s="2">
+        <v>45199.060494826394</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D304" s="1">
+        <v>20217069</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="F304" s="1">
+        <v>3</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H304" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I304" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J304" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K304" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L304" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M304" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N304" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O304" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P304" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q304" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R304" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S304" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T304" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U304" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V304" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W304" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X304" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y304" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z304" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA304" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB304" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC304" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD304" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="305" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A305" s="2">
+        <v>45199.061213831017</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D305" s="1">
+        <v>20232707</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F305" s="1">
+        <v>3</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H305" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I305" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J305" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K305" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L305" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M305" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N305" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O305" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P305" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q305" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R305" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S305" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T305" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U305" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V305" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W305" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X305" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y305" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z305" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA305" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB305" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC305" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD305" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="306" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A306" s="2">
+        <v>45199.077871423608</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D306" s="1">
+        <v>20236639</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="F306" s="1">
+        <v>3</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H306" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I306" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J306" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K306" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L306" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M306" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N306" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O306" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P306" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q306" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R306" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S306" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T306" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U306" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V306" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W306" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X306" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y306" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z306" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA306" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB306" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC306" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD306" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="307" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A307" s="2">
+        <v>45199.084935844905</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D307" s="1">
+        <v>20233426</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="F307" s="1">
+        <v>3</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H307" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I307" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J307" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K307" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L307" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M307" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N307" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O307" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P307" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q307" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R307" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S307" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T307" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U307" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V307" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W307" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X307" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y307" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z307" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA307" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB307" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC307" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD307" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="308" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A308" s="2">
+        <v>45199.085205115742</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D308" s="1">
+        <v>20233029</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>812</v>
+      </c>
+      <c r="F308" s="1">
+        <v>3</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H308" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I308" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J308" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K308" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L308" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M308" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N308" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O308" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P308" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q308" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R308" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S308" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T308" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U308" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V308" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W308" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X308" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y308" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z308" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA308" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB308" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC308" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD308" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="309" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A309" s="2">
+        <v>45199.087598958329</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D309" s="1">
+        <v>20236604</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="F309" s="1">
+        <v>3</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H309" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I309" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J309" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K309" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L309" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M309" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N309" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O309" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P309" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q309" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R309" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S309" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T309" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U309" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V309" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W309" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X309" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y309" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z309" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA309" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB309" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC309" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD309" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="310" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A310" s="2">
+        <v>45199.088487152781</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D310" s="1">
+        <v>20236617</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>816</v>
+      </c>
+      <c r="F310" s="1">
+        <v>3</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I310" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J310" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K310" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L310" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M310" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N310" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O310" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P310" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q310" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R310" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S310" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T310" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U310" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V310" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W310" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X310" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y310" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z310" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA310" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB310" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC310" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD310" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="311" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A311" s="2">
+        <v>45199.108860324079</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D311" s="1">
+        <v>20236636</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="F311" s="1">
+        <v>3</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I311" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J311" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K311" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L311" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M311" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N311" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O311" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P311" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q311" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R311" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S311" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T311" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U311" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V311" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W311" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X311" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y311" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z311" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA311" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB311" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC311" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD311" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="312" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A312" s="2">
+        <v>45199.217862743055</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D312" s="1">
+        <v>20223806</v>
+      </c>
+      <c r="E312" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="F312" s="1">
+        <v>3</v>
+      </c>
+      <c r="G312" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H312" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I312" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="J312" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K312" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L312" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M312" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N312" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O312" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P312" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q312" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R312" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S312" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T312" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U312" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V312" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W312" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X312" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y312" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z312" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA312" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB312" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC312" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD312" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_230925.xlsx
+++ b/R/data/literacy_230925.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/Dropbox/내 Mac (Kee-Won의 MacBook Air)/Documents/class202302/R/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C4244B1-ECAA-CE4A-B7E6-3DAB4AA613D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A443005-D65A-5443-AF02-EDE4D50F44D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33880" yWindow="580" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8427" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10277" uniqueCount="1002">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2489,6 +2489,546 @@
   <si>
     <t>심리학과</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sungjuwon1@gmail.com</t>
+  </si>
+  <si>
+    <t>컨텐츠IT전공</t>
+  </si>
+  <si>
+    <t>성주원</t>
+  </si>
+  <si>
+    <t>qasw0529@naver.com</t>
+  </si>
+  <si>
+    <t>phyi0915@naver.com</t>
+  </si>
+  <si>
+    <t>백승진</t>
+  </si>
+  <si>
+    <t>iamjjum@naver.com</t>
+  </si>
+  <si>
+    <t>roy041108@gmail.com</t>
+  </si>
+  <si>
+    <t>신영훈</t>
+  </si>
+  <si>
+    <t>1004eunsei@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌 비즈니스학과</t>
+  </si>
+  <si>
+    <t>조은세</t>
+  </si>
+  <si>
+    <t>athboy3@gmail.com</t>
+  </si>
+  <si>
+    <t>안태현</t>
+  </si>
+  <si>
+    <t>wkdtngus2001@naver.com</t>
+  </si>
+  <si>
+    <t>장수현</t>
+  </si>
+  <si>
+    <t>sarah04113@naver.com</t>
+  </si>
+  <si>
+    <t>박사랑</t>
+  </si>
+  <si>
+    <t>bluessin0312@naver.com</t>
+  </si>
+  <si>
+    <t>신혜빈</t>
+  </si>
+  <si>
+    <t>rhdskrud123@naver.com</t>
+  </si>
+  <si>
+    <t>공나경</t>
+  </si>
+  <si>
+    <t>mu3218712@naver.com</t>
+  </si>
+  <si>
+    <t>이무원</t>
+  </si>
+  <si>
+    <t>im3790@naver.com</t>
+  </si>
+  <si>
+    <t>반도체학과</t>
+  </si>
+  <si>
+    <t>임진형</t>
+  </si>
+  <si>
+    <t>hyelinj27@gmail.com</t>
+  </si>
+  <si>
+    <t>진혜린</t>
+  </si>
+  <si>
+    <t>ggr1042@naver.com</t>
+  </si>
+  <si>
+    <t>중국</t>
+  </si>
+  <si>
+    <t>김경록</t>
+  </si>
+  <si>
+    <t>jimin040719@naver.com</t>
+  </si>
+  <si>
+    <t>박지민</t>
+  </si>
+  <si>
+    <t>mhw040414@naver.com</t>
+  </si>
+  <si>
+    <t>문희원</t>
+  </si>
+  <si>
+    <t>amielee1997@naver.com</t>
+  </si>
+  <si>
+    <t>이지수</t>
+  </si>
+  <si>
+    <t>ysa8659@gmail.com</t>
+  </si>
+  <si>
+    <t>조성목</t>
+  </si>
+  <si>
+    <t>minjeong7432@gmail.com</t>
+  </si>
+  <si>
+    <t>김민정</t>
+  </si>
+  <si>
+    <t>qodnwnop@naver.com</t>
+  </si>
+  <si>
+    <t>이우주</t>
+  </si>
+  <si>
+    <t>woojin984778@gmail.com</t>
+  </si>
+  <si>
+    <t>이우진</t>
+  </si>
+  <si>
+    <t>dongwoo2869@naver.com</t>
+  </si>
+  <si>
+    <t>남동우</t>
+  </si>
+  <si>
+    <t>jaejae7070@naver.com</t>
+  </si>
+  <si>
+    <t>이재빈</t>
+  </si>
+  <si>
+    <t>nic0903930@gmail.com</t>
+  </si>
+  <si>
+    <t>나임채</t>
+  </si>
+  <si>
+    <t>wooyj0817@naver.com</t>
+  </si>
+  <si>
+    <t>우연정</t>
+  </si>
+  <si>
+    <t>9.30.2023 18:12:57</t>
+  </si>
+  <si>
+    <t>dong9mi24k@naver.com</t>
+  </si>
+  <si>
+    <t>이동금</t>
+  </si>
+  <si>
+    <t>9.30.2023 18:20:40</t>
+  </si>
+  <si>
+    <t>0218mun@naver.com</t>
+  </si>
+  <si>
+    <t>강문희</t>
+  </si>
+  <si>
+    <t>9.30.2023 18:29:00</t>
+  </si>
+  <si>
+    <t>1004soeun@naver.com</t>
+  </si>
+  <si>
+    <t>김소은</t>
+  </si>
+  <si>
+    <t>9.30.2023 18:45:04</t>
+  </si>
+  <si>
+    <t>ryan.jin1005@gmail.com</t>
+  </si>
+  <si>
+    <t>진승재</t>
+  </si>
+  <si>
+    <t>9.30.2023 20:24:41</t>
+  </si>
+  <si>
+    <t>odh4743@naver.com</t>
+  </si>
+  <si>
+    <t>오동훈</t>
+  </si>
+  <si>
+    <t>9.30.2023 20:40:20</t>
+  </si>
+  <si>
+    <t>kfic0221@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융합부</t>
+  </si>
+  <si>
+    <t>서동욱</t>
+  </si>
+  <si>
+    <t>9.30.2023 20:52:29</t>
+  </si>
+  <si>
+    <t>yantaijin1@naver.com</t>
+  </si>
+  <si>
+    <t>박종진</t>
+  </si>
+  <si>
+    <t>9.30.2023 20:57:10</t>
+  </si>
+  <si>
+    <t>ntkrud0221@naver.com</t>
+  </si>
+  <si>
+    <t>노태경</t>
+  </si>
+  <si>
+    <t>9.30.2023 21:03:20</t>
+  </si>
+  <si>
+    <t>seoj07070@gmail.com</t>
+  </si>
+  <si>
+    <t>동택초</t>
+  </si>
+  <si>
+    <t>9.30.2023 21:44:29</t>
+  </si>
+  <si>
+    <t>sinjisu030426@gmail.com</t>
+  </si>
+  <si>
+    <t>신지수</t>
+  </si>
+  <si>
+    <t>9.30.2023 21:45:16</t>
+  </si>
+  <si>
+    <t>bogus418@naver.com</t>
+  </si>
+  <si>
+    <t>강경일</t>
+  </si>
+  <si>
+    <t>9.30.2023 21:51:10</t>
+  </si>
+  <si>
+    <t>werty1082@naver.com</t>
+  </si>
+  <si>
+    <t>김민석</t>
+  </si>
+  <si>
+    <t>9.30.2023 22:30:11</t>
+  </si>
+  <si>
+    <t>ke64276065@gmail.com</t>
+  </si>
+  <si>
+    <t>김가은</t>
+  </si>
+  <si>
+    <t>9.30.2023 22:34:42</t>
+  </si>
+  <si>
+    <t>africa00788@gmail.com</t>
+  </si>
+  <si>
+    <t>구도희</t>
+  </si>
+  <si>
+    <t>9.30.2023 22:37:17</t>
+  </si>
+  <si>
+    <t>jinho2066@naver.com</t>
+  </si>
+  <si>
+    <t>염진호</t>
+  </si>
+  <si>
+    <t>9.30.2023 22:49:14</t>
+  </si>
+  <si>
+    <t>kimeunjin829@naver.com</t>
+  </si>
+  <si>
+    <t>김은진</t>
+  </si>
+  <si>
+    <t>9.30.2023 22:57:00</t>
+  </si>
+  <si>
+    <t>hanbin0308@naver.com</t>
+  </si>
+  <si>
+    <t>한빈</t>
+  </si>
+  <si>
+    <t>9.30.2023 22:59:52</t>
+  </si>
+  <si>
+    <t>sc4153349@gmail.com</t>
+  </si>
+  <si>
+    <t>차승윤</t>
+  </si>
+  <si>
+    <t>9.30.2023 23:03:36</t>
+  </si>
+  <si>
+    <t>u01022994088@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어용합학과</t>
+  </si>
+  <si>
+    <t>구광모</t>
+  </si>
+  <si>
+    <t>9.30.2023 23:12:02</t>
+  </si>
+  <si>
+    <t>clara9398@naver.com</t>
+  </si>
+  <si>
+    <t>양은지</t>
+  </si>
+  <si>
+    <t>9.30.2023 23:13:21</t>
+  </si>
+  <si>
+    <t>dnjsdnuni@gmail.com</t>
+  </si>
+  <si>
+    <t>홍희선</t>
+  </si>
+  <si>
+    <t>9.30.2023 23:25:18</t>
+  </si>
+  <si>
+    <t>kwakyeeun624@naver.com</t>
+  </si>
+  <si>
+    <t>곽예은</t>
+  </si>
+  <si>
+    <t>9.30.2023 23:42:48</t>
+  </si>
+  <si>
+    <t>minjae0812@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학부 빅데이터전공</t>
+  </si>
+  <si>
+    <t>주민재</t>
+  </si>
+  <si>
+    <t>9.30.2023 23:48:54</t>
+  </si>
+  <si>
+    <t>ee2243@naver.com</t>
+  </si>
+  <si>
+    <t>정주연</t>
+  </si>
+  <si>
+    <t>9.30.2023 23:57:56</t>
+  </si>
+  <si>
+    <t>ehgnsdl5110312@naver.com</t>
+  </si>
+  <si>
+    <t>김도훈</t>
+  </si>
+  <si>
+    <t>10.1.2023 0:09:45</t>
+  </si>
+  <si>
+    <t>huijeongj019@gmail.com</t>
+  </si>
+  <si>
+    <t>조희정</t>
+  </si>
+  <si>
+    <t>10.1.2023 0:11:53</t>
+  </si>
+  <si>
+    <t>ai20233638@gmail.com</t>
+  </si>
+  <si>
+    <t>장예은</t>
+  </si>
+  <si>
+    <t>10.1.2023 0:18:07</t>
+  </si>
+  <si>
+    <t>cmsgood99@gmail.com</t>
+  </si>
+  <si>
+    <t>곽동희</t>
+  </si>
+  <si>
+    <t>10.1.2023 0:19:17</t>
+  </si>
+  <si>
+    <t>yoon04817@gmail.com</t>
+  </si>
+  <si>
+    <t>장윤서</t>
+  </si>
+  <si>
+    <t>10.1.2023 0:35:21</t>
+  </si>
+  <si>
+    <t>m.kwak2018@gmail.com</t>
+  </si>
+  <si>
+    <t>곽민수</t>
+  </si>
+  <si>
+    <t>10.1.2023 0:43:53</t>
+  </si>
+  <si>
+    <t>emily_2003@naver.com</t>
+  </si>
+  <si>
+    <t>천예령</t>
+  </si>
+  <si>
+    <t>10.1.2023 1:35:36</t>
+  </si>
+  <si>
+    <t>limmh96@gmail.com</t>
+  </si>
+  <si>
+    <t>임민호</t>
+  </si>
+  <si>
+    <t>10.1.2023 1:43:11</t>
+  </si>
+  <si>
+    <t>justin0304299@naver.com</t>
+  </si>
+  <si>
+    <t>박기현</t>
+  </si>
+  <si>
+    <t>10.1.2023 1:48:11</t>
+  </si>
+  <si>
+    <t>heojunhee@naver.com</t>
+  </si>
+  <si>
+    <t>허준희</t>
+  </si>
+  <si>
+    <t>10.1.2023 2:26:48</t>
+  </si>
+  <si>
+    <t>kimyoung4808@gmail.com</t>
+  </si>
+  <si>
+    <t>김승영</t>
+  </si>
+  <si>
+    <t>10.1.2023 2:39:34</t>
+  </si>
+  <si>
+    <t>junchan1223@naver.com</t>
+  </si>
+  <si>
+    <t>최찬현</t>
+  </si>
+  <si>
+    <t>10.1.2023 2:42:46</t>
+  </si>
+  <si>
+    <t>eksqk1234@naver.com</t>
+  </si>
+  <si>
+    <t>김정호</t>
+  </si>
+  <si>
+    <t>10.1.2023 3:28:37</t>
+  </si>
+  <si>
+    <t>biseos4@gmail.com</t>
+  </si>
+  <si>
+    <t>박주영</t>
+  </si>
+  <si>
+    <t>10.1.2023 3:30:05</t>
+  </si>
+  <si>
+    <t>yerin2545717@gmail.com</t>
+  </si>
+  <si>
+    <t>권예린</t>
+  </si>
+  <si>
+    <t>10.1.2023 3:36:19</t>
+  </si>
+  <si>
+    <t>cilly03@naver.com</t>
+  </si>
+  <si>
+    <t>이예랑</t>
+  </si>
+  <si>
+    <t>10.1.2023 5:45:21</t>
+  </si>
+  <si>
+    <t>choe0119@gmail.com</t>
+  </si>
+  <si>
+    <t>최태웅</t>
   </si>
 </sst>
 </file>
@@ -2498,7 +3038,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2517,6 +3057,13 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2540,10 +3087,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2762,11 +3311,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD312"/>
+  <dimension ref="A1:AD379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A241" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F269" sqref="F269"/>
+      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C382" sqref="C382"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -31478,6 +32027,6170 @@
         <v>91</v>
       </c>
     </row>
+    <row r="313" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A313" s="2">
+        <v>45199.430874120371</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="D313" s="1">
+        <v>20215173</v>
+      </c>
+      <c r="E313" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="F313" s="1">
+        <v>3</v>
+      </c>
+      <c r="G313" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H313" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I313" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J313" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K313" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L313" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M313" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N313" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O313" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P313" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q313" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R313" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S313" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T313" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U313" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V313" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W313" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X313" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y313" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z313" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA313" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB313" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC313" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD313" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="314" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A314" s="2">
+        <v>45199.438177581018</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D314" s="1">
+        <v>20232508</v>
+      </c>
+      <c r="E314" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="F314" s="1">
+        <v>3</v>
+      </c>
+      <c r="G314" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H314" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I314" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J314" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K314" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L314" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M314" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N314" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O314" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P314" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q314" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R314" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S314" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T314" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U314" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V314" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W314" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X314" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y314" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z314" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA314" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB314" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC314" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD314" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="315" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A315" s="2">
+        <v>45199.458195115745</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>826</v>
+      </c>
+      <c r="C315" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D315" s="1">
+        <v>20232967</v>
+      </c>
+      <c r="E315" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="F315" s="1">
+        <v>3</v>
+      </c>
+      <c r="G315" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H315" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I315" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J315" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K315" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L315" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M315" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N315" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O315" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P315" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q315" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R315" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S315" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T315" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U315" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V315" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W315" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X315" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y315" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z315" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA315" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB315" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC315" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD315" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="316" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A316" s="2">
+        <v>45199.486184282403</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D316" s="1">
+        <v>20233606</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F316" s="1">
+        <v>3</v>
+      </c>
+      <c r="G316" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H316" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I316" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J316" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K316" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L316" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M316" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N316" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O316" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P316" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q316" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R316" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S316" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T316" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U316" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V316" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W316" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X316" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y316" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z316" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA316" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB316" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC316" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD316" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="317" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A317" s="2">
+        <v>45199.489417777775</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D317" s="1">
+        <v>20235199</v>
+      </c>
+      <c r="E317" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="F317" s="1">
+        <v>3</v>
+      </c>
+      <c r="G317" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H317" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I317" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J317" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K317" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L317" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M317" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N317" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O317" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P317" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q317" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R317" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S317" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T317" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U317" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V317" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W317" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X317" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y317" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z317" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA317" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB317" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC317" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD317" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="318" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A318" s="2">
+        <v>45199.499824155093</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="C318" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="D318" s="1">
+        <v>20226423</v>
+      </c>
+      <c r="E318" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="F318" s="1">
+        <v>3</v>
+      </c>
+      <c r="G318" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H318" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I318" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J318" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K318" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L318" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M318" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N318" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O318" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P318" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q318" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R318" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S318" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T318" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U318" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V318" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W318" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X318" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y318" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z318" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA318" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB318" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC318" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD318" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="319" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A319" s="2">
+        <v>45199.548734166667</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C319" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D319" s="1">
+        <v>20222616</v>
+      </c>
+      <c r="E319" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="F319" s="1">
+        <v>3</v>
+      </c>
+      <c r="G319" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H319" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I319" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J319" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K319" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L319" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M319" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N319" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O319" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P319" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q319" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R319" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S319" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T319" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U319" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V319" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W319" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X319" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y319" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z319" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA319" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB319" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC319" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD319" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="320" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A320" s="2">
+        <v>45199.568555381949</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C320" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D320" s="1">
+        <v>20201090</v>
+      </c>
+      <c r="E320" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="F320" s="1">
+        <v>3</v>
+      </c>
+      <c r="G320" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H320" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I320" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J320" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K320" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L320" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M320" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N320" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O320" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P320" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q320" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R320" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S320" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T320" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U320" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V320" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W320" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X320" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y320" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z320" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA320" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB320" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC320" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD320" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="321" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A321" s="2">
+        <v>45199.594487800925</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D321" s="1">
+        <v>20232532</v>
+      </c>
+      <c r="E321" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="F321" s="1">
+        <v>3</v>
+      </c>
+      <c r="G321" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H321" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I321" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J321" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K321" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L321" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M321" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N321" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O321" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P321" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q321" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R321" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S321" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T321" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U321" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V321" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W321" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X321" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y321" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z321" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA321" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB321" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC321" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD321" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="322" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A322" s="2">
+        <v>45199.606917083336</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C322" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D322" s="1">
+        <v>20221054</v>
+      </c>
+      <c r="E322" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="F322" s="1">
+        <v>3</v>
+      </c>
+      <c r="G322" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H322" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I322" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J322" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K322" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L322" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M322" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N322" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O322" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P322" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q322" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R322" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S322" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T322" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U322" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V322" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W322" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X322" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y322" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z322" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA322" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB322" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC322" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD322" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="323" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A323" s="2">
+        <v>45199.61969201389</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D323" s="1">
+        <v>20231002</v>
+      </c>
+      <c r="E323" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="F323" s="1">
+        <v>3</v>
+      </c>
+      <c r="G323" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H323" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I323" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J323" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K323" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L323" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M323" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N323" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O323" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P323" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q323" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R323" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S323" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T323" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U323" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V323" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W323" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X323" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y323" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z323" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA323" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB323" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC323" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD323" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="324" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A324" s="2">
+        <v>45199.628733206016</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C324" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="D324" s="1">
+        <v>20211061</v>
+      </c>
+      <c r="E324" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="F324" s="1">
+        <v>3</v>
+      </c>
+      <c r="G324" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H324" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I324" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J324" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K324" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L324" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M324" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N324" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O324" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P324" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q324" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R324" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S324" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T324" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U324" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V324" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W324" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X324" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y324" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z324" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA324" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB324" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC324" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD324" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="325" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A325" s="2">
+        <v>45199.642479803239</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C325" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="D325" s="1">
+        <v>20203346</v>
+      </c>
+      <c r="E325" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="F325" s="1">
+        <v>3</v>
+      </c>
+      <c r="G325" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H325" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I325" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J325" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K325" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L325" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M325" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N325" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O325" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P325" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q325" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R325" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S325" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T325" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U325" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V325" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W325" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X325" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y325" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z325" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA325" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB325" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC325" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD325" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="326" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A326" s="2">
+        <v>45199.648075428238</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D326" s="1">
+        <v>20236781</v>
+      </c>
+      <c r="E326" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="F326" s="1">
+        <v>3</v>
+      </c>
+      <c r="G326" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H326" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I326" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J326" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K326" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L326" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M326" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N326" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O326" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P326" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q326" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R326" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S326" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T326" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U326" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V326" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W326" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X326" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y326" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z326" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA326" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB326" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC326" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD326" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="327" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A327" s="2">
+        <v>45199.656111053242</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="D327" s="1">
+        <v>20221542</v>
+      </c>
+      <c r="E327" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="F327" s="1">
+        <v>3</v>
+      </c>
+      <c r="G327" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H327" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I327" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J327" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K327" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L327" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M327" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N327" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O327" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P327" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q327" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R327" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S327" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T327" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U327" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V327" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W327" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X327" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y327" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z327" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA327" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB327" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC327" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD327" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="328" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A328" s="2">
+        <v>45199.65831460648</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C328" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D328" s="1">
+        <v>20232616</v>
+      </c>
+      <c r="E328" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="F328" s="1">
+        <v>3</v>
+      </c>
+      <c r="G328" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H328" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I328" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J328" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K328" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L328" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M328" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N328" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O328" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P328" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q328" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R328" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S328" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T328" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U328" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V328" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W328" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X328" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y328" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z328" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA328" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB328" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC328" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD328" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="329" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A329" s="2">
+        <v>45199.677529143519</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C329" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D329" s="1">
+        <v>20231610</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="F329" s="1">
+        <v>3</v>
+      </c>
+      <c r="G329" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H329" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I329" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J329" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K329" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L329" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M329" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N329" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O329" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P329" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q329" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R329" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S329" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T329" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U329" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V329" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W329" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X329" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y329" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z329" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA329" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB329" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC329" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD329" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="330" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A330" s="2">
+        <v>45199.694805543986</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C330" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D330" s="1">
+        <v>20217159</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="F330" s="1">
+        <v>1</v>
+      </c>
+      <c r="G330" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H330" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I330" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="J330" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="K330" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L330" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M330" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N330" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O330" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P330" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q330" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R330" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="S330" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T330" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U330" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V330" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W330" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X330" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y330" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z330" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA330" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB330" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC330" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD330" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="331" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A331" s="2">
+        <v>45199.700928981481</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="C331" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D331" s="1">
+        <v>20223537</v>
+      </c>
+      <c r="E331" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="F331" s="1">
+        <v>3</v>
+      </c>
+      <c r="G331" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H331" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I331" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J331" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K331" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L331" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M331" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N331" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O331" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P331" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q331" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R331" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S331" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T331" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U331" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V331" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W331" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X331" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y331" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z331" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA331" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB331" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC331" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD331" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="332" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A332" s="2">
+        <v>45199.703690543982</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="C332" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D332" s="1">
+        <v>20236217</v>
+      </c>
+      <c r="E332" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="F332" s="1">
+        <v>3</v>
+      </c>
+      <c r="G332" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H332" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I332" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J332" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K332" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L332" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M332" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N332" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O332" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P332" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q332" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R332" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S332" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T332" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U332" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V332" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W332" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X332" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y332" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z332" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA332" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB332" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC332" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD332" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="333" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A333" s="2">
+        <v>45199.710723703705</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C333" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D333" s="1">
+        <v>20232350</v>
+      </c>
+      <c r="E333" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="F333" s="1">
+        <v>3</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H333" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I333" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J333" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K333" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L333" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M333" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N333" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O333" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P333" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q333" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R333" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S333" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T333" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U333" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V333" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W333" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X333" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y333" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z333" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA333" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB333" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC333" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD333" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="334" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A334" s="2">
+        <v>45199.718024953705</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C334" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D334" s="1">
+        <v>20236759</v>
+      </c>
+      <c r="E334" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="F334" s="1">
+        <v>3</v>
+      </c>
+      <c r="G334" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H334" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I334" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J334" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K334" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L334" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M334" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N334" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O334" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P334" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q334" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R334" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S334" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T334" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U334" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V334" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W334" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X334" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y334" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z334" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA334" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB334" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC334" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD334" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="335" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A335" s="2">
+        <v>45199.719338622686</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C335" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D335" s="1">
+        <v>20202216</v>
+      </c>
+      <c r="E335" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="F335" s="1">
+        <v>3</v>
+      </c>
+      <c r="G335" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H335" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I335" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J335" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K335" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L335" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M335" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N335" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O335" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P335" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q335" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R335" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S335" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T335" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U335" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V335" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W335" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X335" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y335" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z335" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA335" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB335" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC335" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD335" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="336" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A336" s="2">
+        <v>45199.730364884264</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D336" s="1">
+        <v>20221631</v>
+      </c>
+      <c r="E336" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="F336" s="1">
+        <v>3</v>
+      </c>
+      <c r="G336" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H336" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I336" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J336" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K336" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L336" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M336" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N336" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O336" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P336" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q336" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R336" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S336" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T336" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U336" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V336" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W336" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X336" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y336" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z336" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA336" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB336" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC336" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD336" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="337" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A337" s="2">
+        <v>45199.739522488424</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C337" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D337" s="1">
+        <v>20222409</v>
+      </c>
+      <c r="E337" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="F337" s="1">
+        <v>3</v>
+      </c>
+      <c r="G337" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H337" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I337" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J337" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K337" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L337" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M337" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N337" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O337" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P337" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q337" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R337" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S337" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T337" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U337" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V337" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W337" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X337" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y337" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z337" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA337" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB337" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC337" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD337" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="338" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A338" s="2">
+        <v>45199.746359560188</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D338" s="1">
+        <v>20212986</v>
+      </c>
+      <c r="E338" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="F338" s="1">
+        <v>3</v>
+      </c>
+      <c r="G338" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H338" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I338" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J338" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K338" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L338" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M338" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N338" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O338" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P338" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q338" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R338" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S338" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T338" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U338" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V338" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W338" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X338" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y338" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z338" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA338" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB338" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC338" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD338" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="339" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A339" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>877</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D339" s="4">
+        <v>20232426</v>
+      </c>
+      <c r="E339" s="4" t="s">
+        <v>878</v>
+      </c>
+      <c r="F339" s="4">
+        <v>3</v>
+      </c>
+      <c r="G339" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H339" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I339" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J339" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K339" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L339" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M339" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N339" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O339" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P339" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q339" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R339" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S339" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T339" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U339" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V339" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="W339" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X339" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y339" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z339" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA339" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB339" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC339" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD339" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="340" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A340" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>880</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D340" s="4">
+        <v>20193601</v>
+      </c>
+      <c r="E340" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="F340" s="4">
+        <v>3</v>
+      </c>
+      <c r="G340" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H340" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I340" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J340" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K340" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L340" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M340" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N340" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O340" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P340" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q340" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R340" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S340" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T340" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U340" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V340" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W340" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X340" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y340" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z340" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA340" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB340" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC340" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD340" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="341" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A341" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="C341" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D341" s="4">
+        <v>20232514</v>
+      </c>
+      <c r="E341" s="4" t="s">
+        <v>884</v>
+      </c>
+      <c r="F341" s="4">
+        <v>3</v>
+      </c>
+      <c r="G341" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H341" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I341" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J341" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K341" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L341" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M341" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N341" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O341" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P341" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q341" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R341" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S341" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T341" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U341" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V341" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W341" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X341" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y341" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z341" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA341" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB341" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC341" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD341" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="342" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A342" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>886</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D342" s="4">
+        <v>20192999</v>
+      </c>
+      <c r="E342" s="4" t="s">
+        <v>887</v>
+      </c>
+      <c r="F342" s="4">
+        <v>3</v>
+      </c>
+      <c r="G342" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H342" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I342" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J342" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K342" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L342" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M342" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N342" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O342" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P342" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q342" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R342" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S342" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T342" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="U342" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V342" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="W342" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X342" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y342" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z342" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA342" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB342" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC342" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD342" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="343" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A343" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>889</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D343" s="4">
+        <v>20202340</v>
+      </c>
+      <c r="E343" s="4" t="s">
+        <v>890</v>
+      </c>
+      <c r="F343" s="4">
+        <v>3</v>
+      </c>
+      <c r="G343" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H343" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I343" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J343" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K343" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L343" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="M343" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="N343" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O343" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P343" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q343" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R343" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S343" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T343" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="U343" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="V343" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="W343" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X343" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y343" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z343" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA343" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB343" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC343" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD343" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="344" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A344" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>892</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="D344" s="4">
+        <v>20236733</v>
+      </c>
+      <c r="E344" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="F344" s="4">
+        <v>3</v>
+      </c>
+      <c r="G344" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H344" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I344" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J344" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K344" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L344" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M344" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N344" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O344" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P344" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q344" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R344" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S344" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T344" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U344" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="V344" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W344" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="X344" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y344" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z344" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA344" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB344" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC344" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD344" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="345" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A345" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>896</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D345" s="4">
+        <v>20191517</v>
+      </c>
+      <c r="E345" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="F345" s="4">
+        <v>3</v>
+      </c>
+      <c r="G345" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H345" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I345" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J345" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K345" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L345" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M345" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N345" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O345" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P345" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q345" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R345" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S345" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T345" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U345" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V345" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W345" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X345" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y345" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z345" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA345" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB345" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC345" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD345" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="346" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A346" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>899</v>
+      </c>
+      <c r="C346" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D346" s="4">
+        <v>20234118</v>
+      </c>
+      <c r="E346" s="4" t="s">
+        <v>900</v>
+      </c>
+      <c r="F346" s="4">
+        <v>3</v>
+      </c>
+      <c r="G346" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H346" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I346" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J346" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K346" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L346" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M346" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N346" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O346" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P346" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q346" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R346" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S346" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="T346" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="U346" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="V346" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W346" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="X346" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y346" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z346" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA346" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB346" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC346" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD346" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="347" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A347" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>902</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D347" s="4">
+        <v>20218001</v>
+      </c>
+      <c r="E347" s="4" t="s">
+        <v>903</v>
+      </c>
+      <c r="F347" s="4">
+        <v>3</v>
+      </c>
+      <c r="G347" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H347" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I347" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J347" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K347" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L347" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M347" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N347" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O347" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P347" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q347" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R347" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S347" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T347" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U347" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V347" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W347" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X347" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y347" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z347" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA347" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB347" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC347" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD347" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="348" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A348" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>905</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D348" s="4">
+        <v>20222728</v>
+      </c>
+      <c r="E348" s="4" t="s">
+        <v>906</v>
+      </c>
+      <c r="F348" s="4">
+        <v>3</v>
+      </c>
+      <c r="G348" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H348" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I348" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J348" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K348" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L348" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M348" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N348" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O348" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P348" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q348" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R348" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S348" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T348" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U348" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V348" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="W348" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X348" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y348" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z348" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA348" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB348" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC348" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD348" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="349" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A349" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>908</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D349" s="4">
+        <v>20173701</v>
+      </c>
+      <c r="E349" s="4" t="s">
+        <v>909</v>
+      </c>
+      <c r="F349" s="4">
+        <v>3</v>
+      </c>
+      <c r="G349" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H349" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I349" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J349" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K349" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L349" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M349" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N349" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O349" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P349" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q349" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R349" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S349" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T349" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U349" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V349" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W349" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X349" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y349" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z349" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA349" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB349" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC349" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD349" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="350" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A350" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>911</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D350" s="4">
+        <v>20232509</v>
+      </c>
+      <c r="E350" s="4" t="s">
+        <v>912</v>
+      </c>
+      <c r="F350" s="4">
+        <v>3</v>
+      </c>
+      <c r="G350" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H350" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I350" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J350" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K350" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L350" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M350" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N350" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O350" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P350" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q350" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R350" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S350" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T350" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U350" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V350" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W350" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X350" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y350" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z350" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA350" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB350" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC350" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD350" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="351" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A351" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="C351" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D351" s="4">
+        <v>20223705</v>
+      </c>
+      <c r="E351" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="F351" s="4">
+        <v>3</v>
+      </c>
+      <c r="G351" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H351" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I351" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J351" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K351" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L351" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M351" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N351" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O351" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P351" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q351" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R351" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S351" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T351" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U351" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V351" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W351" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X351" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y351" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z351" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA351" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB351" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC351" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD351" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="352" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A352" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="C352" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D352" s="4">
+        <v>20233906</v>
+      </c>
+      <c r="E352" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="F352" s="4">
+        <v>3</v>
+      </c>
+      <c r="G352" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H352" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I352" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J352" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K352" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L352" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M352" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N352" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O352" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="P352" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q352" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R352" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S352" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T352" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U352" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V352" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="W352" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X352" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y352" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z352" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA352" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB352" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC352" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD352" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="353" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A353" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="C353" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D353" s="4">
+        <v>20235207</v>
+      </c>
+      <c r="E353" s="4" t="s">
+        <v>921</v>
+      </c>
+      <c r="F353" s="4">
+        <v>3</v>
+      </c>
+      <c r="G353" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H353" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I353" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J353" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K353" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L353" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M353" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N353" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O353" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P353" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q353" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R353" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S353" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T353" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U353" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V353" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W353" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X353" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y353" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z353" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA353" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB353" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC353" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD353" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="354" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A354" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D354" s="4">
+        <v>20202321</v>
+      </c>
+      <c r="E354" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="F354" s="4">
+        <v>3</v>
+      </c>
+      <c r="G354" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H354" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I354" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J354" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K354" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L354" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M354" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N354" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O354" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P354" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q354" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R354" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S354" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T354" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U354" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V354" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="W354" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X354" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y354" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z354" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA354" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB354" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC354" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD354" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="355" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A355" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D355" s="4">
+        <v>20192441</v>
+      </c>
+      <c r="E355" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="F355" s="4">
+        <v>3</v>
+      </c>
+      <c r="G355" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H355" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I355" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J355" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K355" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L355" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M355" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N355" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O355" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P355" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q355" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R355" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S355" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T355" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U355" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V355" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W355" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X355" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y355" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z355" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA355" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB355" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC355" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD355" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="356" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A356" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="C356" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D356" s="4">
+        <v>20232138</v>
+      </c>
+      <c r="E356" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="F356" s="4">
+        <v>3</v>
+      </c>
+      <c r="G356" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H356" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I356" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J356" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K356" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L356" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M356" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N356" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O356" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P356" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q356" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R356" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S356" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T356" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U356" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V356" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W356" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X356" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y356" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z356" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA356" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB356" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC356" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD356" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="357" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A357" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="C357" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="D357" s="4">
+        <v>20225111</v>
+      </c>
+      <c r="E357" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="F357" s="4">
+        <v>3</v>
+      </c>
+      <c r="G357" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H357" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I357" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J357" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K357" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L357" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M357" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N357" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O357" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="P357" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q357" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R357" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S357" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T357" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U357" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V357" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="W357" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X357" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y357" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z357" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA357" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB357" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC357" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD357" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="358" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A358" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="C358" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D358" s="4">
+        <v>20232552</v>
+      </c>
+      <c r="E358" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="F358" s="4">
+        <v>3</v>
+      </c>
+      <c r="G358" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H358" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I358" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J358" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K358" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L358" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M358" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N358" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O358" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P358" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q358" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R358" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S358" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T358" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="U358" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V358" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W358" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X358" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y358" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z358" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA358" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB358" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC358" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD358" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="359" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A359" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="C359" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D359" s="4">
+        <v>20233969</v>
+      </c>
+      <c r="E359" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="F359" s="4">
+        <v>3</v>
+      </c>
+      <c r="G359" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H359" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I359" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J359" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K359" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L359" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M359" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N359" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O359" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P359" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q359" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R359" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S359" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T359" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U359" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V359" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W359" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X359" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y359" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z359" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA359" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB359" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC359" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD359" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="360" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A360" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>942</v>
+      </c>
+      <c r="C360" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="D360" s="4">
+        <v>20236204</v>
+      </c>
+      <c r="E360" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="F360" s="4">
+        <v>3</v>
+      </c>
+      <c r="G360" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H360" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I360" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J360" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K360" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L360" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M360" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N360" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O360" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P360" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q360" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R360" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S360" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T360" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="U360" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="V360" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W360" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X360" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y360" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z360" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA360" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB360" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC360" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD360" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="361" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A361" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="D361" s="4">
+        <v>20215249</v>
+      </c>
+      <c r="E361" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="F361" s="4">
+        <v>3</v>
+      </c>
+      <c r="G361" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H361" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I361" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J361" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K361" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L361" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M361" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N361" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O361" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P361" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q361" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R361" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S361" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T361" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U361" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V361" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W361" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X361" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y361" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z361" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA361" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB361" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC361" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD361" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="362" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A362" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D362" s="4">
+        <v>20232362</v>
+      </c>
+      <c r="E362" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="F362" s="4">
+        <v>3</v>
+      </c>
+      <c r="G362" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H362" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I362" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J362" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K362" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L362" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M362" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N362" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O362" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P362" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q362" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R362" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S362" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T362" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U362" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="V362" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="W362" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X362" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y362" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z362" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA362" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB362" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC362" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD362" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="363" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A363" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D363" s="4">
+        <v>20212708</v>
+      </c>
+      <c r="E363" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="F363" s="4">
+        <v>3</v>
+      </c>
+      <c r="G363" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H363" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I363" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J363" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K363" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L363" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M363" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N363" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O363" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="P363" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q363" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R363" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S363" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T363" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U363" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V363" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W363" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X363" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y363" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z363" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA363" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB363" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC363" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD363" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="364" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A364" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="B364" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="C364" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D364" s="4">
+        <v>20233960</v>
+      </c>
+      <c r="E364" s="4" t="s">
+        <v>956</v>
+      </c>
+      <c r="F364" s="4">
+        <v>3</v>
+      </c>
+      <c r="G364" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H364" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I364" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J364" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K364" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L364" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M364" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N364" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O364" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P364" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q364" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R364" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S364" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T364" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U364" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V364" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="W364" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X364" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y364" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z364" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA364" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB364" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC364" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD364" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="365" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A365" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D365" s="4">
+        <v>20233638</v>
+      </c>
+      <c r="E365" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="F365" s="4">
+        <v>3</v>
+      </c>
+      <c r="G365" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H365" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I365" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J365" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K365" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L365" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M365" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N365" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O365" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P365" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q365" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R365" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S365" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T365" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U365" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V365" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W365" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X365" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y365" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z365" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA365" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB365" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC365" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD365" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="366" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A366" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="B366" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="C366" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D366" s="4">
+        <v>20233905</v>
+      </c>
+      <c r="E366" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="F366" s="4">
+        <v>3</v>
+      </c>
+      <c r="G366" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H366" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I366" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J366" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K366" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L366" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M366" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N366" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O366" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P366" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q366" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R366" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S366" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T366" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="U366" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V366" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W366" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X366" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y366" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z366" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA366" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB366" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC366" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD366" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="367" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A367" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="C367" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D367" s="4">
+        <v>20236770</v>
+      </c>
+      <c r="E367" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="F367" s="4">
+        <v>3</v>
+      </c>
+      <c r="G367" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H367" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I367" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J367" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K367" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L367" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M367" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N367" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O367" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P367" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q367" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R367" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S367" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T367" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U367" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V367" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W367" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X367" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y367" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z367" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA367" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB367" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC367" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD367" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="368" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A368" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="B368" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="C368" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="D368" s="4">
+        <v>20182202</v>
+      </c>
+      <c r="E368" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="F368" s="4">
+        <v>3</v>
+      </c>
+      <c r="G368" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H368" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I368" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J368" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K368" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L368" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M368" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N368" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O368" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P368" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q368" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R368" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S368" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T368" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U368" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V368" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W368" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X368" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y368" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z368" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA368" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB368" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC368" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD368" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="369" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A369" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="C369" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D369" s="4">
+        <v>20222432</v>
+      </c>
+      <c r="E369" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="F369" s="4">
+        <v>3</v>
+      </c>
+      <c r="G369" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H369" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I369" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J369" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K369" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L369" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M369" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N369" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O369" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P369" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q369" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R369" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S369" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T369" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U369" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="V369" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W369" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X369" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y369" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z369" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA369" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB369" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC369" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD369" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="370" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A370" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D370" s="4">
+        <v>20232632</v>
+      </c>
+      <c r="E370" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="F370" s="4">
+        <v>3</v>
+      </c>
+      <c r="G370" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H370" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I370" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J370" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K370" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L370" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M370" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N370" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O370" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P370" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q370" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R370" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S370" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T370" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U370" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V370" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W370" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X370" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y370" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z370" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA370" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB370" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC370" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD370" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="371" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A371" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="C371" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="D371" s="4">
+        <v>20213515</v>
+      </c>
+      <c r="E371" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="F371" s="4">
+        <v>3</v>
+      </c>
+      <c r="G371" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H371" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I371" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J371" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K371" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L371" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M371" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N371" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O371" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P371" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q371" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R371" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S371" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T371" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="U371" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V371" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W371" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X371" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y371" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z371" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA371" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB371" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC371" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD371" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="372" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A372" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D372" s="4">
+        <v>20231106</v>
+      </c>
+      <c r="E372" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="F372" s="4">
+        <v>3</v>
+      </c>
+      <c r="G372" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H372" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I372" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J372" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K372" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L372" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M372" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N372" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O372" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P372" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q372" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R372" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S372" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T372" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="U372" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V372" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W372" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X372" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y372" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z372" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA372" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB372" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC372" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD372" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="373" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A373" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="C373" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D373" s="4">
+        <v>20233709</v>
+      </c>
+      <c r="E373" s="4" t="s">
+        <v>983</v>
+      </c>
+      <c r="F373" s="4">
+        <v>3</v>
+      </c>
+      <c r="G373" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H373" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I373" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J373" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K373" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L373" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="M373" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N373" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O373" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="P373" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q373" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R373" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="S373" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="T373" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U373" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="V373" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="W373" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="X373" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y373" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z373" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA373" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB373" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC373" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD373" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="374" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A374" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="C374" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D374" s="4">
+        <v>20236300</v>
+      </c>
+      <c r="E374" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="F374" s="4">
+        <v>3</v>
+      </c>
+      <c r="G374" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H374" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I374" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J374" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K374" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L374" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="M374" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N374" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O374" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="P374" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q374" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R374" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="S374" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="T374" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U374" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="V374" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="W374" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="X374" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y374" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z374" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA374" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB374" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC374" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD374" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="375" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A375" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="C375" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D375" s="4">
+        <v>20235143</v>
+      </c>
+      <c r="E375" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="F375" s="4">
+        <v>3</v>
+      </c>
+      <c r="G375" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H375" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I375" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J375" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K375" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L375" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M375" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N375" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O375" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P375" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q375" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R375" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S375" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T375" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U375" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V375" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="W375" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X375" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y375" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z375" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA375" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB375" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC375" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD375" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="376" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A376" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D376" s="4">
+        <v>20235171</v>
+      </c>
+      <c r="E376" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="F376" s="4">
+        <v>3</v>
+      </c>
+      <c r="G376" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H376" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I376" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J376" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K376" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L376" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M376" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N376" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O376" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P376" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q376" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R376" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S376" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T376" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="U376" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V376" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="W376" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X376" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y376" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z376" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA376" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB376" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC376" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD376" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="377" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A377" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="C377" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D377" s="4">
+        <v>20232909</v>
+      </c>
+      <c r="E377" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="F377" s="4">
+        <v>3</v>
+      </c>
+      <c r="G377" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H377" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I377" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J377" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K377" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L377" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M377" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N377" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O377" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P377" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q377" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R377" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S377" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T377" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U377" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V377" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="W377" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X377" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y377" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z377" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA377" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB377" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC377" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD377" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="378" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A378" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>997</v>
+      </c>
+      <c r="C378" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D378" s="4">
+        <v>20221629</v>
+      </c>
+      <c r="E378" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="F378" s="4">
+        <v>3</v>
+      </c>
+      <c r="G378" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H378" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I378" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J378" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K378" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L378" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M378" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="N378" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O378" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P378" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q378" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R378" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S378" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T378" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="U378" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="V378" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="W378" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="X378" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y378" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z378" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA378" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB378" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC378" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD378" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="379" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A379" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C379" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D379" s="4">
+        <v>20226176</v>
+      </c>
+      <c r="E379" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F379" s="4">
+        <v>1</v>
+      </c>
+      <c r="G379" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H379" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I379" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J379" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K379" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="L379" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="M379" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N379" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O379" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="P379" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q379" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="R379" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="S379" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="T379" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="U379" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="V379" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="W379" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="X379" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y379" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z379" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA379" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB379" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC379" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD379" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_230925.xlsx
+++ b/R/data/literacy_230925.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A443005-D65A-5443-AF02-EDE4D50F44D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51EF724-5621-5B4D-9269-2BA0D2968E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33880" yWindow="580" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10277" uniqueCount="1002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11573" uniqueCount="1100">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3029,6 +3029,300 @@
   </si>
   <si>
     <t>최태웅</t>
+  </si>
+  <si>
+    <t>smiledjwj@naver.com</t>
+  </si>
+  <si>
+    <t>김지우</t>
+  </si>
+  <si>
+    <t>jangho5636@gmail.com</t>
+  </si>
+  <si>
+    <t>이장호</t>
+  </si>
+  <si>
+    <t>chlwnsgur1202@gmail.com</t>
+  </si>
+  <si>
+    <t>최준혁</t>
+  </si>
+  <si>
+    <t>p.pla1226@gmail.com</t>
+  </si>
+  <si>
+    <t>박성곤</t>
+  </si>
+  <si>
+    <t>ksnkty123@naver.com</t>
+  </si>
+  <si>
+    <t>김태윤</t>
+  </si>
+  <si>
+    <t>wjddmsqjqtk@naver.com</t>
+  </si>
+  <si>
+    <t>신정은</t>
+  </si>
+  <si>
+    <t>lin031215@naver.com</t>
+  </si>
+  <si>
+    <t>jinwon4725@naver.vom</t>
+  </si>
+  <si>
+    <t>장진원</t>
+  </si>
+  <si>
+    <t>sjy01041864550@gmail.com</t>
+  </si>
+  <si>
+    <t>서진영</t>
+  </si>
+  <si>
+    <t>canty0917@gmail.com</t>
+  </si>
+  <si>
+    <t>조민주</t>
+  </si>
+  <si>
+    <t>enjoy9675@gmail.com</t>
+  </si>
+  <si>
+    <t>곽아영</t>
+  </si>
+  <si>
+    <t>rkgus8286@naver.com</t>
+  </si>
+  <si>
+    <t>이주영</t>
+  </si>
+  <si>
+    <t>amdo0421@naver.com</t>
+  </si>
+  <si>
+    <t>이은빈</t>
+  </si>
+  <si>
+    <t>rin5920@naver.com</t>
+  </si>
+  <si>
+    <t>djcjfakstp@gmail.com</t>
+  </si>
+  <si>
+    <t>융합인재학부</t>
+  </si>
+  <si>
+    <t>어철</t>
+  </si>
+  <si>
+    <t>cdm990512@gmail.com</t>
+  </si>
+  <si>
+    <t>천동민</t>
+  </si>
+  <si>
+    <t>jsk8070@naver.com</t>
+  </si>
+  <si>
+    <t>김세아</t>
+  </si>
+  <si>
+    <t>leehakyung1207@gmail.com</t>
+  </si>
+  <si>
+    <t>이하경</t>
+  </si>
+  <si>
+    <t>iceflower082@gmail.com</t>
+  </si>
+  <si>
+    <t>한지우</t>
+  </si>
+  <si>
+    <t>t26a1@naver.com</t>
+  </si>
+  <si>
+    <t>반도체</t>
+  </si>
+  <si>
+    <t>신동한</t>
+  </si>
+  <si>
+    <t>mingye990410@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT학과</t>
+  </si>
+  <si>
+    <t>yoogyeonggg@naver.com</t>
+  </si>
+  <si>
+    <t>최유경</t>
+  </si>
+  <si>
+    <t>leetaeyang00@gmail.com</t>
+  </si>
+  <si>
+    <t>이태양</t>
+  </si>
+  <si>
+    <t>yjh110951@gmail.com</t>
+  </si>
+  <si>
+    <t>유정훈</t>
+  </si>
+  <si>
+    <t>gmyeongju515@gmail.com</t>
+  </si>
+  <si>
+    <t>김명주</t>
+  </si>
+  <si>
+    <t>jhyeong234@naver.com</t>
+  </si>
+  <si>
+    <t>김준형</t>
+  </si>
+  <si>
+    <t>minhan3729@gmail.com</t>
+  </si>
+  <si>
+    <t>이민한</t>
+  </si>
+  <si>
+    <t>gilhk031111@naver.com</t>
+  </si>
+  <si>
+    <t>길혜균</t>
+  </si>
+  <si>
+    <t>vlxjvos2514@naver.com</t>
+  </si>
+  <si>
+    <t>홍성은</t>
+  </si>
+  <si>
+    <t>djdodhrghr@naver.com</t>
+  </si>
+  <si>
+    <t>융합신소재공학전공</t>
+  </si>
+  <si>
+    <t>송서현</t>
+  </si>
+  <si>
+    <t>kgy5988@naver.com</t>
+  </si>
+  <si>
+    <t>김진범</t>
+  </si>
+  <si>
+    <t>luis0815@naver.com</t>
+  </si>
+  <si>
+    <t>양지민</t>
+  </si>
+  <si>
+    <t>sang010516@naver.com</t>
+  </si>
+  <si>
+    <t>최상은</t>
+  </si>
+  <si>
+    <t>rhy0787@naver.com</t>
+  </si>
+  <si>
+    <t>유희영</t>
+  </si>
+  <si>
+    <t>kdy3921633@naver.com</t>
+  </si>
+  <si>
+    <t>cozyandrelaxing2@gmail.com</t>
+  </si>
+  <si>
+    <t>이성민</t>
+  </si>
+  <si>
+    <t>mng437@naver.com</t>
+  </si>
+  <si>
+    <t>김민규</t>
+  </si>
+  <si>
+    <t>parksiwoo1214@naver.com</t>
+  </si>
+  <si>
+    <t>박시우</t>
+  </si>
+  <si>
+    <t>srankhanwoo@gmail.com</t>
+  </si>
+  <si>
+    <t>최찬우</t>
+  </si>
+  <si>
+    <t>spb012@naver.com</t>
+  </si>
+  <si>
+    <t>모수빈</t>
+  </si>
+  <si>
+    <t>kdh01270102@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 법학과</t>
+  </si>
+  <si>
+    <t>lhe0209@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경영학과 </t>
+  </si>
+  <si>
+    <t>이하은</t>
+  </si>
+  <si>
+    <t>jinhwanjeong8@gmail.com</t>
+  </si>
+  <si>
+    <t>정진환</t>
+  </si>
+  <si>
+    <t>2003lsa@naver.com</t>
+  </si>
+  <si>
+    <t>이수아</t>
+  </si>
+  <si>
+    <t>seongmo0731@naver.com</t>
+  </si>
+  <si>
+    <t>조성모</t>
+  </si>
+  <si>
+    <t>gys5785@naver.com</t>
+  </si>
+  <si>
+    <t>고형승</t>
+  </si>
+  <si>
+    <t>20233824@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>안지영</t>
+  </si>
+  <si>
+    <t>at79711@naver.com</t>
+  </si>
+  <si>
+    <t>데이터사이언스</t>
+  </si>
+  <si>
+    <t>박재영</t>
   </si>
 </sst>
 </file>
@@ -3311,11 +3605,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD379"/>
+  <dimension ref="A1:AD427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C382" sqref="C382"/>
+      <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C433" sqref="C433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -38191,6 +38485,4422 @@
         <v>91</v>
       </c>
     </row>
+    <row r="380" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A380" s="2">
+        <v>45200.370524432874</v>
+      </c>
+      <c r="B380" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D380" s="1">
+        <v>20231511</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F380" s="1">
+        <v>3</v>
+      </c>
+      <c r="G380" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H380" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I380" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J380" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K380" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L380" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M380" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N380" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O380" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P380" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q380" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R380" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S380" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T380" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U380" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V380" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W380" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X380" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y380" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z380" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA380" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB380" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC380" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD380" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="381" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A381" s="2">
+        <v>45200.403748622688</v>
+      </c>
+      <c r="B381" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C381" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D381" s="1">
+        <v>20161723</v>
+      </c>
+      <c r="E381" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F381" s="1">
+        <v>3</v>
+      </c>
+      <c r="G381" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H381" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I381" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J381" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K381" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L381" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M381" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N381" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O381" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P381" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q381" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R381" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S381" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T381" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U381" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V381" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W381" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X381" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y381" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z381" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA381" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB381" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC381" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD381" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="382" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A382" s="2">
+        <v>45200.424993773151</v>
+      </c>
+      <c r="B382" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C382" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D382" s="1">
+        <v>20236783</v>
+      </c>
+      <c r="E382" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F382" s="1">
+        <v>3</v>
+      </c>
+      <c r="G382" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H382" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I382" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J382" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K382" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L382" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M382" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N382" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O382" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P382" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q382" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R382" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S382" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T382" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U382" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V382" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W382" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X382" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y382" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z382" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA382" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB382" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC382" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD382" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="383" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A383" s="2">
+        <v>45200.439072141206</v>
+      </c>
+      <c r="B383" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D383" s="1">
+        <v>20236127</v>
+      </c>
+      <c r="E383" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F383" s="1">
+        <v>3</v>
+      </c>
+      <c r="G383" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H383" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I383" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J383" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K383" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L383" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M383" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N383" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O383" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P383" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q383" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R383" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S383" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T383" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U383" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V383" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W383" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X383" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y383" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z383" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA383" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB383" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC383" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD383" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="384" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A384" s="2">
+        <v>45200.440122245374</v>
+      </c>
+      <c r="B384" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D384" s="1">
+        <v>20232526</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F384" s="1">
+        <v>3</v>
+      </c>
+      <c r="G384" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H384" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I384" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J384" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K384" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L384" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M384" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N384" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O384" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P384" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q384" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R384" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S384" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T384" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U384" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V384" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W384" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X384" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y384" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z384" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA384" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB384" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC384" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD384" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="385" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A385" s="2">
+        <v>45200.452729907411</v>
+      </c>
+      <c r="B385" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C385" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D385" s="1">
+        <v>20221714</v>
+      </c>
+      <c r="E385" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F385" s="1">
+        <v>3</v>
+      </c>
+      <c r="G385" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H385" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I385" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J385" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K385" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L385" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M385" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N385" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O385" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P385" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q385" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R385" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S385" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T385" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U385" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V385" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W385" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X385" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y385" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z385" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA385" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB385" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC385" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD385" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="386" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A386" s="2">
+        <v>45200.453657615741</v>
+      </c>
+      <c r="B386" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C386" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D386" s="1">
+        <v>20222570</v>
+      </c>
+      <c r="E386" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F386" s="1">
+        <v>3</v>
+      </c>
+      <c r="G386" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H386" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I386" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J386" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K386" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L386" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M386" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N386" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O386" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P386" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q386" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R386" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S386" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T386" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U386" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V386" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W386" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X386" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y386" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z386" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA386" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB386" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC386" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD386" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="387" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A387" s="2">
+        <v>45200.471678043978</v>
+      </c>
+      <c r="B387" s="1" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C387" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D387" s="1">
+        <v>20232355</v>
+      </c>
+      <c r="E387" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F387" s="1">
+        <v>3</v>
+      </c>
+      <c r="G387" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H387" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I387" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J387" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K387" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L387" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M387" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N387" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O387" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P387" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q387" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R387" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S387" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T387" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U387" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V387" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W387" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X387" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y387" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z387" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA387" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB387" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC387" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD387" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="388" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A388" s="2">
+        <v>45200.482950659723</v>
+      </c>
+      <c r="B388" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D388" s="1">
+        <v>20236620</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F388" s="1">
+        <v>3</v>
+      </c>
+      <c r="G388" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H388" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I388" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J388" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="K388" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L388" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M388" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N388" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O388" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P388" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q388" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R388" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S388" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T388" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U388" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V388" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W388" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X388" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y388" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z388" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA388" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB388" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC388" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD388" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="389" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A389" s="2">
+        <v>45200.520382569448</v>
+      </c>
+      <c r="B389" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D389" s="1">
+        <v>20232363</v>
+      </c>
+      <c r="E389" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F389" s="1">
+        <v>3</v>
+      </c>
+      <c r="G389" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H389" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I389" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J389" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K389" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L389" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M389" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N389" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O389" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P389" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q389" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R389" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S389" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T389" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U389" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V389" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W389" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X389" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y389" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z389" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA389" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB389" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC389" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD389" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="390" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A390" s="2">
+        <v>45200.523549872683</v>
+      </c>
+      <c r="B390" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D390" s="1">
+        <v>20213801</v>
+      </c>
+      <c r="E390" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F390" s="1">
+        <v>3</v>
+      </c>
+      <c r="G390" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H390" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I390" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J390" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K390" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L390" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M390" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N390" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O390" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P390" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q390" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R390" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S390" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T390" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U390" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V390" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W390" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X390" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y390" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z390" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA390" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB390" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC390" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD390" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="391" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A391" s="2">
+        <v>45200.537087546298</v>
+      </c>
+      <c r="B391" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C391" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D391" s="1">
+        <v>20233729</v>
+      </c>
+      <c r="E391" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F391" s="1">
+        <v>3</v>
+      </c>
+      <c r="G391" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H391" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I391" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J391" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K391" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L391" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M391" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N391" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O391" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P391" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q391" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R391" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S391" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T391" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U391" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V391" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W391" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X391" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y391" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z391" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA391" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB391" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC391" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD391" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="392" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A392" s="2">
+        <v>45200.554801979168</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D392" s="1">
+        <v>20236278</v>
+      </c>
+      <c r="E392" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F392" s="1">
+        <v>3</v>
+      </c>
+      <c r="G392" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H392" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I392" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J392" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K392" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L392" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M392" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N392" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O392" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P392" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q392" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R392" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S392" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T392" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U392" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V392" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W392" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X392" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y392" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z392" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA392" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB392" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC392" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD392" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="393" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A393" s="2">
+        <v>45200.557146689811</v>
+      </c>
+      <c r="B393" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C393" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D393" s="1">
+        <v>20233425</v>
+      </c>
+      <c r="E393" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="F393" s="1">
+        <v>3</v>
+      </c>
+      <c r="G393" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H393" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I393" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J393" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K393" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L393" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M393" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N393" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O393" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P393" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q393" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R393" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S393" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T393" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U393" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V393" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W393" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X393" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y393" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z393" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA393" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB393" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC393" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD393" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="394" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A394" s="2">
+        <v>45200.562361435186</v>
+      </c>
+      <c r="B394" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D394" s="1">
+        <v>20196515</v>
+      </c>
+      <c r="E394" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F394" s="1">
+        <v>3</v>
+      </c>
+      <c r="G394" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H394" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I394" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J394" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K394" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L394" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M394" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N394" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O394" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P394" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q394" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R394" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S394" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="T394" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U394" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V394" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W394" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X394" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y394" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z394" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA394" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB394" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC394" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD394" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="395" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A395" s="2">
+        <v>45200.568709224535</v>
+      </c>
+      <c r="B395" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="D395" s="1">
+        <v>20185300</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F395" s="1">
+        <v>3</v>
+      </c>
+      <c r="G395" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H395" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I395" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J395" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K395" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L395" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M395" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N395" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O395" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P395" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q395" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R395" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S395" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T395" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U395" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V395" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W395" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X395" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y395" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z395" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA395" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB395" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC395" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD395" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="396" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A396" s="2">
+        <v>45200.569775706019</v>
+      </c>
+      <c r="B396" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C396" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D396" s="1">
+        <v>20207064</v>
+      </c>
+      <c r="E396" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F396" s="1">
+        <v>3</v>
+      </c>
+      <c r="G396" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H396" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I396" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J396" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K396" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L396" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M396" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N396" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O396" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P396" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q396" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R396" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S396" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T396" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U396" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V396" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W396" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X396" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y396" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z396" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA396" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB396" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC396" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD396" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="397" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A397" s="2">
+        <v>45200.570516898151</v>
+      </c>
+      <c r="B397" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D397" s="1">
+        <v>20235245</v>
+      </c>
+      <c r="E397" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F397" s="1">
+        <v>3</v>
+      </c>
+      <c r="G397" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H397" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I397" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J397" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K397" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L397" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M397" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N397" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O397" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P397" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q397" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R397" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="S397" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T397" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U397" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V397" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W397" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X397" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y397" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z397" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA397" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB397" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC397" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD397" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="398" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A398" s="2">
+        <v>45200.571266458333</v>
+      </c>
+      <c r="B398" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D398" s="1">
+        <v>20226647</v>
+      </c>
+      <c r="E398" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F398" s="1">
+        <v>2</v>
+      </c>
+      <c r="G398" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H398" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I398" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J398" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K398" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L398" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M398" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N398" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O398" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P398" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q398" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R398" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S398" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T398" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U398" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V398" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W398" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X398" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y398" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z398" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA398" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB398" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC398" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD398" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="399" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A399" s="2">
+        <v>45200.586571817126</v>
+      </c>
+      <c r="B399" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C399" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D399" s="1">
+        <v>20193331</v>
+      </c>
+      <c r="E399" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F399" s="1">
+        <v>2</v>
+      </c>
+      <c r="G399" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H399" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I399" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J399" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K399" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L399" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M399" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N399" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O399" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P399" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q399" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R399" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S399" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T399" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U399" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V399" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W399" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X399" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y399" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z399" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA399" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB399" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC399" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD399" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="400" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A400" s="2">
+        <v>45200.598379722222</v>
+      </c>
+      <c r="B400" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D400" s="1">
+        <v>20183639</v>
+      </c>
+      <c r="E400" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="F400" s="1">
+        <v>3</v>
+      </c>
+      <c r="G400" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H400" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I400" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J400" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K400" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L400" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M400" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N400" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O400" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P400" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q400" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R400" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S400" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T400" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U400" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V400" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W400" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X400" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y400" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z400" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA400" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB400" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC400" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD400" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="401" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A401" s="2">
+        <v>45200.605743287037</v>
+      </c>
+      <c r="B401" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D401" s="1">
+        <v>20231238</v>
+      </c>
+      <c r="E401" s="1" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F401" s="1">
+        <v>3</v>
+      </c>
+      <c r="G401" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H401" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I401" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J401" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K401" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L401" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M401" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N401" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O401" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P401" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q401" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R401" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S401" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T401" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U401" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V401" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W401" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X401" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y401" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z401" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA401" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB401" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC401" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD401" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="402" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A402" s="2">
+        <v>45200.615215300924</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D402" s="1">
+        <v>20236764</v>
+      </c>
+      <c r="E402" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F402" s="1">
+        <v>3</v>
+      </c>
+      <c r="G402" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H402" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I402" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J402" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K402" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L402" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M402" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N402" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O402" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P402" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q402" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R402" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S402" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T402" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U402" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V402" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W402" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X402" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y402" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z402" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA402" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB402" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC402" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD402" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="403" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A403" s="2">
+        <v>45200.615888333334</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C403" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D403" s="1">
+        <v>20232995</v>
+      </c>
+      <c r="E403" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F403" s="1">
+        <v>3</v>
+      </c>
+      <c r="G403" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H403" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I403" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J403" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K403" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L403" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M403" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N403" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O403" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P403" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q403" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R403" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S403" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T403" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U403" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V403" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W403" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X403" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y403" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z403" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA403" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB403" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC403" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD403" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="404" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A404" s="2">
+        <v>45200.636823553243</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C404" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D404" s="1">
+        <v>20213606</v>
+      </c>
+      <c r="E404" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F404" s="1">
+        <v>3</v>
+      </c>
+      <c r="G404" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H404" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I404" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J404" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K404" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L404" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M404" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N404" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O404" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P404" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q404" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R404" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S404" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T404" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U404" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V404" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W404" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X404" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y404" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z404" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA404" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB404" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC404" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD404" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="405" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A405" s="2">
+        <v>45200.645205451394</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D405" s="1">
+        <v>20232935</v>
+      </c>
+      <c r="E405" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F405" s="1">
+        <v>3</v>
+      </c>
+      <c r="G405" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H405" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I405" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J405" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K405" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L405" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M405" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N405" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O405" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P405" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q405" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R405" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S405" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T405" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U405" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V405" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W405" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X405" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y405" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z405" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA405" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB405" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC405" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD405" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="406" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A406" s="2">
+        <v>45200.645880069445</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D406" s="1">
+        <v>20182556</v>
+      </c>
+      <c r="E406" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F406" s="1">
+        <v>3</v>
+      </c>
+      <c r="G406" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H406" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I406" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J406" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K406" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L406" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M406" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N406" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O406" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P406" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q406" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R406" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S406" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T406" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U406" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V406" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W406" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X406" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y406" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z406" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA406" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB406" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC406" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD406" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="407" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A407" s="2">
+        <v>45200.668389212966</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C407" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D407" s="1">
+        <v>20233204</v>
+      </c>
+      <c r="E407" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F407" s="1">
+        <v>3</v>
+      </c>
+      <c r="G407" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H407" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I407" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J407" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K407" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L407" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M407" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N407" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O407" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P407" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q407" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R407" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S407" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T407" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U407" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V407" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W407" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X407" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y407" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z407" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA407" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB407" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC407" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD407" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="408" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A408" s="2">
+        <v>45200.6738615625</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C408" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D408" s="1">
+        <v>20203739</v>
+      </c>
+      <c r="E408" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F408" s="1">
+        <v>3</v>
+      </c>
+      <c r="G408" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H408" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I408" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J408" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K408" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L408" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M408" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N408" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O408" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P408" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q408" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R408" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S408" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T408" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U408" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V408" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W408" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X408" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y408" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z408" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA408" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB408" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC408" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD408" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="409" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A409" s="2">
+        <v>45200.676431990738</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C409" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D409" s="1">
+        <v>20216618</v>
+      </c>
+      <c r="E409" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F409" s="1">
+        <v>3</v>
+      </c>
+      <c r="G409" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H409" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I409" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J409" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K409" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L409" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M409" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N409" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O409" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P409" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q409" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R409" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S409" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T409" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U409" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V409" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W409" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X409" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y409" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z409" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA409" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB409" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC409" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD409" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="410" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A410" s="2">
+        <v>45200.693341597223</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C410" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D410" s="1">
+        <v>20203214</v>
+      </c>
+      <c r="E410" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F410" s="1">
+        <v>3</v>
+      </c>
+      <c r="G410" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H410" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I410" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J410" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K410" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L410" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M410" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N410" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O410" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P410" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q410" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R410" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S410" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T410" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U410" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V410" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W410" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X410" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y410" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z410" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA410" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB410" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC410" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD410" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="411" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A411" s="2">
+        <v>45200.694757256948</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C411" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D411" s="1">
+        <v>20232336</v>
+      </c>
+      <c r="E411" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F411" s="1">
+        <v>3</v>
+      </c>
+      <c r="G411" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H411" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I411" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J411" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K411" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L411" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M411" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N411" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O411" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P411" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q411" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R411" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S411" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T411" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U411" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V411" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W411" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X411" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y411" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z411" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA411" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB411" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC411" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD411" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="412" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A412" s="2">
+        <v>45200.698147627314</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C412" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D412" s="1">
+        <v>20202851</v>
+      </c>
+      <c r="E412" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F412" s="1">
+        <v>3</v>
+      </c>
+      <c r="G412" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H412" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I412" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J412" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K412" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L412" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M412" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N412" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O412" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P412" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q412" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R412" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S412" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T412" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U412" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V412" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W412" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X412" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y412" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z412" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA412" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB412" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC412" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD412" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="413" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A413" s="2">
+        <v>45200.705038530097</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C413" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D413" s="1">
+        <v>20213827</v>
+      </c>
+      <c r="E413" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="F413" s="1">
+        <v>3</v>
+      </c>
+      <c r="G413" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H413" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I413" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J413" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K413" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L413" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M413" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N413" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O413" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P413" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q413" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R413" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S413" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T413" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U413" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V413" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W413" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X413" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y413" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z413" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA413" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB413" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC413" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD413" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="414" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A414" s="2">
+        <v>45200.713617766203</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D414" s="1">
+        <v>20232604</v>
+      </c>
+      <c r="E414" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F414" s="1">
+        <v>3</v>
+      </c>
+      <c r="G414" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H414" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I414" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J414" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K414" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L414" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M414" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N414" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O414" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P414" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q414" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R414" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S414" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T414" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U414" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V414" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W414" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X414" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y414" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z414" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA414" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB414" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC414" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD414" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="415" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A415" s="2">
+        <v>45200.716969618057</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D415" s="1">
+        <v>20223725</v>
+      </c>
+      <c r="E415" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F415" s="1">
+        <v>3</v>
+      </c>
+      <c r="G415" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H415" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I415" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J415" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K415" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L415" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M415" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N415" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O415" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P415" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q415" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R415" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S415" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T415" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U415" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V415" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W415" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X415" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y415" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z415" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA415" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB415" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC415" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD415" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="416" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A416" s="2">
+        <v>45200.719717858796</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D416" s="1">
+        <v>20232105</v>
+      </c>
+      <c r="E416" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F416" s="1">
+        <v>3</v>
+      </c>
+      <c r="G416" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H416" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I416" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J416" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K416" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L416" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M416" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N416" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O416" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P416" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q416" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R416" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S416" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T416" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U416" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V416" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W416" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X416" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y416" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z416" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA416" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB416" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC416" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD416" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="417" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A417" s="2">
+        <v>45200.722458611112</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C417" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D417" s="1">
+        <v>20193219</v>
+      </c>
+      <c r="E417" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F417" s="1">
+        <v>3</v>
+      </c>
+      <c r="G417" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H417" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I417" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J417" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K417" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L417" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M417" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N417" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O417" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P417" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q417" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R417" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S417" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T417" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U417" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V417" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W417" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X417" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y417" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z417" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA417" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB417" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC417" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD417" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="418" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A418" s="2">
+        <v>45200.740926863422</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D418" s="1">
+        <v>20226175</v>
+      </c>
+      <c r="E418" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F418" s="1">
+        <v>3</v>
+      </c>
+      <c r="G418" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H418" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I418" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J418" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K418" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L418" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M418" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N418" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O418" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P418" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q418" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R418" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S418" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T418" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U418" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V418" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W418" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X418" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y418" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z418" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA418" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB418" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC418" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD418" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="419" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A419" s="2">
+        <v>45200.742400370371</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C419" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D419" s="1">
+        <v>20232530</v>
+      </c>
+      <c r="E419" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F419" s="1">
+        <v>3</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H419" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I419" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J419" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K419" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L419" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M419" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N419" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O419" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P419" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q419" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R419" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S419" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T419" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U419" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V419" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W419" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X419" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y419" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z419" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA419" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB419" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC419" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD419" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="420" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A420" s="2">
+        <v>45200.743360995373</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D420" s="1">
+        <v>20212707</v>
+      </c>
+      <c r="E420" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="F420" s="1">
+        <v>3</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H420" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I420" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J420" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K420" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L420" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M420" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N420" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O420" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P420" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q420" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R420" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S420" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="T420" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U420" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V420" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W420" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X420" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y420" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z420" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA420" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB420" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC420" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD420" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="421" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A421" s="2">
+        <v>45200.74615204861</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C421" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D421" s="1">
+        <v>20213024</v>
+      </c>
+      <c r="E421" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F421" s="1">
+        <v>3</v>
+      </c>
+      <c r="G421" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H421" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I421" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J421" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K421" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L421" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M421" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N421" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O421" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P421" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q421" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R421" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S421" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T421" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U421" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V421" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W421" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X421" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y421" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z421" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA421" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB421" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC421" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD421" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="422" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A422" s="2">
+        <v>45200.751961863425</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D422" s="1">
+        <v>20236776</v>
+      </c>
+      <c r="E422" s="1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F422" s="1">
+        <v>3</v>
+      </c>
+      <c r="G422" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H422" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I422" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J422" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K422" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L422" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M422" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N422" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O422" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P422" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q422" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R422" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S422" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T422" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U422" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V422" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W422" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X422" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y422" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z422" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA422" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB422" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC422" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD422" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="423" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A423" s="2">
+        <v>45200.753916828704</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C423" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D423" s="1">
+        <v>20223000</v>
+      </c>
+      <c r="E423" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F423" s="1">
+        <v>3</v>
+      </c>
+      <c r="G423" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H423" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I423" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J423" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K423" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L423" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M423" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N423" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O423" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P423" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q423" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R423" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S423" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T423" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U423" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V423" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W423" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X423" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y423" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z423" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA423" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB423" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC423" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD423" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="424" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A424" s="2">
+        <v>45200.758232210646</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C424" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D424" s="1">
+        <v>20192988</v>
+      </c>
+      <c r="E424" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F424" s="1">
+        <v>3</v>
+      </c>
+      <c r="G424" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H424" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I424" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J424" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K424" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L424" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M424" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N424" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O424" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P424" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q424" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R424" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S424" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T424" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U424" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V424" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W424" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X424" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y424" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z424" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA424" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB424" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC424" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD424" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="425" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A425" s="2">
+        <v>45200.75969600695</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C425" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D425" s="1">
+        <v>20232402</v>
+      </c>
+      <c r="E425" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F425" s="1">
+        <v>3</v>
+      </c>
+      <c r="G425" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H425" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I425" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J425" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K425" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L425" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M425" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N425" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O425" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P425" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q425" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R425" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S425" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T425" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U425" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V425" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W425" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X425" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y425" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z425" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA425" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB425" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC425" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD425" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="426" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A426" s="2">
+        <v>45200.76239131944</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C426" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D426" s="1">
+        <v>20233824</v>
+      </c>
+      <c r="E426" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F426" s="1">
+        <v>3</v>
+      </c>
+      <c r="G426" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H426" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I426" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J426" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K426" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L426" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M426" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N426" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O426" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P426" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q426" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R426" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S426" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T426" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U426" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V426" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W426" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X426" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y426" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z426" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA426" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB426" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC426" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD426" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="427" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A427" s="2">
+        <v>45200.772507939815</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C427" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D427" s="1">
+        <v>20233220</v>
+      </c>
+      <c r="E427" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F427" s="1">
+        <v>1</v>
+      </c>
+      <c r="G427" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H427" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I427" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J427" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K427" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L427" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M427" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N427" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O427" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P427" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q427" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R427" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S427" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T427" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U427" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V427" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W427" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X427" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y427" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z427" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA427" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB427" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC427" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD427" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_230925.xlsx
+++ b/R/data/literacy_230925.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51EF724-5621-5B4D-9269-2BA0D2968E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D658ED3-C56A-6A49-BC53-6132F0A332FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33880" yWindow="580" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11573" uniqueCount="1100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12221" uniqueCount="1154">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3323,6 +3323,168 @@
   </si>
   <si>
     <t>박재영</t>
+  </si>
+  <si>
+    <t>deo333333@naver.com</t>
+  </si>
+  <si>
+    <t>서대철</t>
+  </si>
+  <si>
+    <t>hanyong0302@naver.com</t>
+  </si>
+  <si>
+    <t>생명과학</t>
+  </si>
+  <si>
+    <t>김한용</t>
+  </si>
+  <si>
+    <t>thsdlstn99@gmail.com</t>
+  </si>
+  <si>
+    <t>이인수</t>
+  </si>
+  <si>
+    <t>kddong99@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터전공</t>
+  </si>
+  <si>
+    <t>김상준</t>
+  </si>
+  <si>
+    <t>leejuns0711@naver.com</t>
+  </si>
+  <si>
+    <t>이준서</t>
+  </si>
+  <si>
+    <t>wlalsdlcjm4@naver.com</t>
+  </si>
+  <si>
+    <t>차지민</t>
+  </si>
+  <si>
+    <t>ksh20637727@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨허학부</t>
+  </si>
+  <si>
+    <t>김성현</t>
+  </si>
+  <si>
+    <t>kimbitna7890@naver.com</t>
+  </si>
+  <si>
+    <t>광고홍보</t>
+  </si>
+  <si>
+    <t>김빛나</t>
+  </si>
+  <si>
+    <t>shdbsgh0305@naver.com</t>
+  </si>
+  <si>
+    <t>노윤호</t>
+  </si>
+  <si>
+    <t>hanhj0223@gmail.com</t>
+  </si>
+  <si>
+    <t>한형준</t>
+  </si>
+  <si>
+    <t>choeeun1502@gmail.com</t>
+  </si>
+  <si>
+    <t>조은서</t>
+  </si>
+  <si>
+    <t>zra9751@naver.com</t>
+  </si>
+  <si>
+    <t>박찬모</t>
+  </si>
+  <si>
+    <t>rlfwldnjs04@naver.com</t>
+  </si>
+  <si>
+    <t>길지원</t>
+  </si>
+  <si>
+    <t>leedongbin01@naver.com</t>
+  </si>
+  <si>
+    <t>이동빈</t>
+  </si>
+  <si>
+    <t>phg1242@naver.com</t>
+  </si>
+  <si>
+    <t>박효근</t>
+  </si>
+  <si>
+    <t>20162715@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김현욱</t>
+  </si>
+  <si>
+    <t>duddndywjd@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">환경생명공학과 </t>
+  </si>
+  <si>
+    <t>송영우</t>
+  </si>
+  <si>
+    <t>ncc11068@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">생명과학과 </t>
+  </si>
+  <si>
+    <t>이규린</t>
+  </si>
+  <si>
+    <t>jinseo860@gmail.com</t>
+  </si>
+  <si>
+    <t>박진서</t>
+  </si>
+  <si>
+    <t>ljh2017@naver.com</t>
+  </si>
+  <si>
+    <t>이정효</t>
+  </si>
+  <si>
+    <t>dldmlcks56@gmail.com</t>
+  </si>
+  <si>
+    <t>이의찬</t>
+  </si>
+  <si>
+    <t>wjstngusa@gmail.com</t>
+  </si>
+  <si>
+    <t>전수현</t>
+  </si>
+  <si>
+    <t>sumin102573@naver.com</t>
+  </si>
+  <si>
+    <t>김수민</t>
+  </si>
+  <si>
+    <t>yjeong2687@naver.com</t>
+  </si>
+  <si>
+    <t>유정현</t>
   </si>
 </sst>
 </file>
@@ -3605,11 +3767,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD427"/>
+  <dimension ref="A1:AD451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A403" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C433" sqref="C433"/>
+      <pane ySplit="1" topLeftCell="A429" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D456" sqref="D456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -42901,6 +43063,2214 @@
         <v>56</v>
       </c>
     </row>
+    <row r="428" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A428" s="2">
+        <v>45200.776274247684</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C428" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D428" s="1">
+        <v>20182889</v>
+      </c>
+      <c r="E428" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F428" s="1">
+        <v>3</v>
+      </c>
+      <c r="G428" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H428" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I428" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J428" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K428" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L428" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M428" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N428" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O428" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P428" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q428" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R428" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S428" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T428" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U428" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V428" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W428" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X428" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y428" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z428" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA428" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB428" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC428" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD428" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="429" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A429" s="2">
+        <v>45200.785457141203</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C429" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D429" s="1">
+        <v>20233513</v>
+      </c>
+      <c r="E429" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="F429" s="1">
+        <v>3</v>
+      </c>
+      <c r="G429" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H429" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I429" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J429" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K429" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L429" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M429" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N429" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O429" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P429" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q429" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R429" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S429" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T429" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U429" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V429" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W429" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X429" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y429" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z429" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA429" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB429" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC429" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD429" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="430" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A430" s="2">
+        <v>45200.787373032406</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D430" s="1">
+        <v>20182749</v>
+      </c>
+      <c r="E430" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F430" s="1">
+        <v>3</v>
+      </c>
+      <c r="G430" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H430" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I430" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J430" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K430" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L430" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M430" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N430" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O430" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P430" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q430" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R430" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S430" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T430" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U430" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V430" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W430" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X430" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y430" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z430" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA430" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB430" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC430" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD430" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="431" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A431" s="2">
+        <v>45200.794957604172</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C431" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D431" s="1">
+        <v>20181205</v>
+      </c>
+      <c r="E431" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F431" s="1">
+        <v>3</v>
+      </c>
+      <c r="G431" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H431" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I431" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J431" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K431" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L431" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M431" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N431" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O431" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P431" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q431" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R431" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S431" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T431" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U431" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V431" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W431" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X431" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y431" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z431" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA431" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB431" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC431" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD431" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="432" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A432" s="2">
+        <v>45200.798558194445</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D432" s="1">
+        <v>20202741</v>
+      </c>
+      <c r="E432" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F432" s="1">
+        <v>3</v>
+      </c>
+      <c r="G432" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H432" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I432" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J432" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K432" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L432" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M432" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N432" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O432" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P432" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q432" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R432" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S432" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T432" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U432" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V432" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W432" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X432" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y432" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z432" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA432" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB432" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC432" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD432" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="433" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A433" s="2">
+        <v>45200.803774502318</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C433" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D433" s="1">
+        <v>20236296</v>
+      </c>
+      <c r="E433" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F433" s="1">
+        <v>3</v>
+      </c>
+      <c r="G433" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H433" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I433" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J433" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K433" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L433" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M433" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N433" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O433" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P433" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q433" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R433" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S433" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T433" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U433" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V433" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W433" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X433" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y433" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z433" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA433" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB433" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC433" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD433" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="434" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A434" s="2">
+        <v>45200.804594930552</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="D434" s="1">
+        <v>20235133</v>
+      </c>
+      <c r="E434" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F434" s="1">
+        <v>3</v>
+      </c>
+      <c r="G434" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H434" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I434" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J434" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K434" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L434" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M434" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N434" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O434" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P434" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q434" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R434" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S434" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T434" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U434" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V434" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W434" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X434" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y434" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z434" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA434" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB434" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC434" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD434" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="435" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A435" s="2">
+        <v>45200.821692442129</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D435" s="1">
+        <v>20222609</v>
+      </c>
+      <c r="E435" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F435" s="1">
+        <v>3</v>
+      </c>
+      <c r="G435" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H435" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I435" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J435" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K435" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L435" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M435" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N435" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O435" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P435" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q435" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R435" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S435" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T435" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U435" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V435" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W435" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X435" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y435" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z435" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA435" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB435" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC435" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD435" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="436" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A436" s="2">
+        <v>45200.822926516208</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D436" s="1">
+        <v>20231710</v>
+      </c>
+      <c r="E436" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F436" s="1">
+        <v>3</v>
+      </c>
+      <c r="G436" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H436" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I436" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J436" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K436" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L436" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M436" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N436" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O436" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P436" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q436" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R436" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S436" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T436" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U436" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V436" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W436" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X436" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y436" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z436" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA436" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB436" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC436" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD436" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="437" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A437" s="2">
+        <v>45200.826963981483</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D437" s="1">
+        <v>20233966</v>
+      </c>
+      <c r="E437" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F437" s="1">
+        <v>3</v>
+      </c>
+      <c r="G437" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H437" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I437" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J437" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K437" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L437" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M437" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N437" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O437" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P437" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q437" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R437" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S437" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T437" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U437" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V437" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W437" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X437" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y437" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z437" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA437" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB437" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC437" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD437" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="438" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A438" s="2">
+        <v>45200.830662395834</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D438" s="1">
+        <v>20233253</v>
+      </c>
+      <c r="E438" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F438" s="1">
+        <v>3</v>
+      </c>
+      <c r="G438" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H438" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I438" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J438" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K438" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L438" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M438" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N438" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O438" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P438" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q438" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R438" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S438" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T438" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U438" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V438" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W438" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X438" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y438" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z438" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA438" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB438" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC438" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD438" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="439" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A439" s="2">
+        <v>45200.83196476852</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C439" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D439" s="1">
+        <v>20202965</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F439" s="1">
+        <v>3</v>
+      </c>
+      <c r="G439" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H439" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I439" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J439" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K439" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L439" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M439" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N439" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O439" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P439" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q439" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R439" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S439" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T439" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U439" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V439" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W439" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X439" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y439" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z439" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA439" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB439" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC439" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD439" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="440" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A440" s="2">
+        <v>45200.83270373843</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D440" s="1">
+        <v>20232703</v>
+      </c>
+      <c r="E440" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F440" s="1">
+        <v>3</v>
+      </c>
+      <c r="G440" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H440" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I440" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="J440" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K440" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L440" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M440" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N440" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O440" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P440" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q440" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R440" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="S440" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T440" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U440" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V440" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W440" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X440" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y440" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z440" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA440" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB440" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC440" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD440" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="441" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A441" s="2">
+        <v>45200.836058564819</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C441" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D441" s="1">
+        <v>20231224</v>
+      </c>
+      <c r="E441" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F441" s="1">
+        <v>3</v>
+      </c>
+      <c r="G441" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H441" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I441" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J441" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K441" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L441" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M441" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N441" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O441" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P441" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q441" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R441" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S441" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T441" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U441" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V441" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W441" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X441" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y441" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z441" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA441" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB441" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC441" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD441" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="442" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A442" s="2">
+        <v>45200.836238425924</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C442" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D442" s="1">
+        <v>20193926</v>
+      </c>
+      <c r="E442" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F442" s="1">
+        <v>3</v>
+      </c>
+      <c r="G442" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H442" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I442" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J442" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K442" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L442" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M442" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N442" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O442" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P442" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q442" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R442" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S442" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T442" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U442" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V442" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W442" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X442" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y442" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z442" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA442" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB442" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC442" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD442" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="443" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A443" s="2">
+        <v>45200.84944450231</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D443" s="1">
+        <v>20162715</v>
+      </c>
+      <c r="E443" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F443" s="1">
+        <v>2</v>
+      </c>
+      <c r="G443" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H443" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I443" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J443" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="K443" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L443" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M443" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N443" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O443" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P443" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q443" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R443" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S443" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T443" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U443" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V443" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W443" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X443" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y443" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z443" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA443" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB443" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC443" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD443" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="444" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A444" s="2">
+        <v>45200.869224780094</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C444" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D444" s="1">
+        <v>20223721</v>
+      </c>
+      <c r="E444" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F444" s="1">
+        <v>3</v>
+      </c>
+      <c r="G444" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H444" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I444" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="J444" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="K444" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L444" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M444" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N444" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O444" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P444" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q444" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R444" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="S444" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T444" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U444" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V444" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W444" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X444" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y444" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z444" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA444" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB444" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC444" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD444" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="445" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A445" s="2">
+        <v>45200.883032372687</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C445" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="D445" s="1">
+        <v>20233529</v>
+      </c>
+      <c r="E445" s="1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F445" s="1">
+        <v>3</v>
+      </c>
+      <c r="G445" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H445" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I445" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J445" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K445" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L445" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M445" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N445" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O445" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P445" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q445" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R445" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S445" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T445" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U445" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V445" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W445" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X445" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y445" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z445" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA445" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB445" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC445" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD445" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="446" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A446" s="2">
+        <v>45200.892581238426</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D446" s="1">
+        <v>20233518</v>
+      </c>
+      <c r="E446" s="1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F446" s="1">
+        <v>3</v>
+      </c>
+      <c r="G446" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H446" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I446" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J446" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K446" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L446" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M446" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N446" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O446" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P446" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q446" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R446" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S446" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T446" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U446" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V446" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W446" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X446" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y446" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z446" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA446" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB446" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC446" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD446" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="447" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A447" s="2">
+        <v>45200.894154710651</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D447" s="1">
+        <v>20181079</v>
+      </c>
+      <c r="E447" s="1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F447" s="1">
+        <v>3</v>
+      </c>
+      <c r="G447" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H447" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I447" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J447" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K447" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L447" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M447" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N447" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O447" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P447" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q447" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R447" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S447" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T447" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U447" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V447" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W447" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X447" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y447" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z447" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA447" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB447" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC447" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD447" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="448" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A448" s="2">
+        <v>45200.898216620371</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D448" s="1">
+        <v>20173144</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F448" s="1">
+        <v>2</v>
+      </c>
+      <c r="G448" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H448" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I448" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J448" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K448" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L448" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M448" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N448" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O448" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P448" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q448" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R448" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S448" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="T448" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U448" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V448" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W448" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X448" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y448" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z448" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA448" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB448" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC448" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD448" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="449" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A449" s="2">
+        <v>45200.915720300924</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C449" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D449" s="1">
+        <v>20226158</v>
+      </c>
+      <c r="E449" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F449" s="1">
+        <v>3</v>
+      </c>
+      <c r="G449" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H449" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I449" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J449" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K449" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L449" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M449" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N449" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O449" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P449" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q449" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R449" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S449" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T449" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U449" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V449" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W449" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X449" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y449" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z449" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA449" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB449" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC449" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD449" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="450" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A450" s="2">
+        <v>45200.916724722221</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C450" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D450" s="1">
+        <v>20212922</v>
+      </c>
+      <c r="E450" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F450" s="1">
+        <v>3</v>
+      </c>
+      <c r="G450" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H450" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I450" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J450" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K450" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L450" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M450" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N450" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O450" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P450" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q450" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R450" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S450" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T450" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U450" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V450" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W450" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X450" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y450" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z450" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA450" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB450" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC450" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD450" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="451" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A451" s="2">
+        <v>45200.923273865745</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D451" s="1">
+        <v>20221525</v>
+      </c>
+      <c r="E451" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F451" s="1">
+        <v>3</v>
+      </c>
+      <c r="G451" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H451" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I451" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J451" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K451" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L451" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M451" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N451" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O451" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P451" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q451" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R451" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S451" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T451" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U451" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V451" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W451" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X451" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y451" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z451" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA451" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB451" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC451" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD451" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_230925.xlsx
+++ b/R/data/literacy_230925.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D658ED3-C56A-6A49-BC53-6132F0A332FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8620BDC5-39A4-7340-8FC5-D46EA11524FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33880" yWindow="580" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12221" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12545" uniqueCount="1179">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3485,6 +3485,81 @@
   </si>
   <si>
     <t>유정현</t>
+  </si>
+  <si>
+    <t>scw0922@naver.com</t>
+  </si>
+  <si>
+    <t>신채원</t>
+  </si>
+  <si>
+    <t>harin3040@naver.com</t>
+  </si>
+  <si>
+    <t>김현진</t>
+  </si>
+  <si>
+    <t>shanesun0923@gmail.com</t>
+  </si>
+  <si>
+    <t>선세인</t>
+  </si>
+  <si>
+    <t>sung93716@gmail.com</t>
+  </si>
+  <si>
+    <t>한예림</t>
+  </si>
+  <si>
+    <t>dksdksqh1018@naver.com</t>
+  </si>
+  <si>
+    <t>안보민</t>
+  </si>
+  <si>
+    <t>gaejisub@gmail.com</t>
+  </si>
+  <si>
+    <t>배승유</t>
+  </si>
+  <si>
+    <t>gustj1654@naver.com</t>
+  </si>
+  <si>
+    <t>조현서</t>
+  </si>
+  <si>
+    <t>yejin4259@naver.com</t>
+  </si>
+  <si>
+    <t>ghys1837@naver.com</t>
+  </si>
+  <si>
+    <t>언어청각학부 청각학 전공</t>
+  </si>
+  <si>
+    <t>안영서</t>
+  </si>
+  <si>
+    <t>tjdus3641@gmail.com</t>
+  </si>
+  <si>
+    <t>장서연</t>
+  </si>
+  <si>
+    <t>rkqls3333@gmail.com</t>
+  </si>
+  <si>
+    <t>권가빈</t>
+  </si>
+  <si>
+    <t>nanadiana222@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터과</t>
+  </si>
+  <si>
+    <t>조희진</t>
   </si>
 </sst>
 </file>
@@ -3767,11 +3842,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD451"/>
+  <dimension ref="A1:AD463"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A429" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D456" sqref="D456"/>
+      <selection pane="bottomLeft" activeCell="AD463" sqref="AD463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -45271,6 +45346,1110 @@
         <v>56</v>
       </c>
     </row>
+    <row r="452" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A452" s="2">
+        <v>45200.940594467596</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D452" s="1">
+        <v>20236256</v>
+      </c>
+      <c r="E452" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F452" s="1">
+        <v>3</v>
+      </c>
+      <c r="G452" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H452" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I452" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J452" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K452" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L452" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M452" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N452" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O452" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P452" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q452" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R452" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S452" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T452" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U452" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V452" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W452" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X452" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y452" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z452" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA452" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB452" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC452" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD452" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="453" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A453" s="2">
+        <v>45200.943949502311</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C453" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D453" s="1">
+        <v>20232113</v>
+      </c>
+      <c r="E453" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F453" s="1">
+        <v>3</v>
+      </c>
+      <c r="G453" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H453" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I453" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J453" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K453" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L453" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M453" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N453" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O453" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P453" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q453" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R453" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S453" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T453" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U453" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V453" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W453" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X453" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y453" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z453" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA453" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB453" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC453" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD453" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="454" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A454" s="2">
+        <v>45200.946542951388</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C454" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D454" s="1">
+        <v>20236253</v>
+      </c>
+      <c r="E454" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="F454" s="1">
+        <v>3</v>
+      </c>
+      <c r="G454" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H454" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I454" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J454" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K454" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L454" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M454" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N454" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O454" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P454" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q454" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R454" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S454" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T454" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U454" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V454" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W454" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X454" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y454" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z454" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA454" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB454" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC454" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD454" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="455" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A455" s="2">
+        <v>45200.95309476852</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D455" s="1">
+        <v>20233261</v>
+      </c>
+      <c r="E455" s="1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F455" s="1">
+        <v>3</v>
+      </c>
+      <c r="G455" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H455" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I455" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J455" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K455" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L455" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M455" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N455" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O455" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P455" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q455" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R455" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S455" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T455" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U455" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V455" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W455" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X455" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y455" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z455" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA455" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB455" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC455" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD455" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="456" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A456" s="2">
+        <v>45200.968275844905</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D456" s="1">
+        <v>20232549</v>
+      </c>
+      <c r="E456" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F456" s="1">
+        <v>3</v>
+      </c>
+      <c r="G456" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H456" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I456" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J456" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K456" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L456" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M456" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N456" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O456" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P456" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q456" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R456" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S456" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T456" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U456" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V456" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W456" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X456" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y456" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z456" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA456" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB456" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC456" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD456" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="457" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A457" s="2">
+        <v>45200.971810937495</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C457" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="D457" s="1">
+        <v>20225169</v>
+      </c>
+      <c r="E457" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F457" s="1">
+        <v>3</v>
+      </c>
+      <c r="G457" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H457" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I457" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J457" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K457" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L457" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M457" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N457" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O457" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P457" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q457" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R457" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S457" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T457" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U457" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V457" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W457" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X457" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y457" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z457" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA457" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB457" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC457" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD457" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="458" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A458" s="2">
+        <v>45200.981516238426</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D458" s="1">
+        <v>20232137</v>
+      </c>
+      <c r="E458" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F458" s="1">
+        <v>3</v>
+      </c>
+      <c r="G458" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H458" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I458" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J458" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K458" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L458" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M458" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N458" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O458" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P458" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q458" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R458" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S458" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T458" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U458" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V458" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W458" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X458" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y458" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z458" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA458" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB458" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC458" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD458" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="459" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A459" s="2">
+        <v>45200.986926377314</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D459" s="1">
+        <v>20233951</v>
+      </c>
+      <c r="E459" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F459" s="1">
+        <v>2</v>
+      </c>
+      <c r="G459" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H459" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I459" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J459" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K459" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L459" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M459" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N459" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O459" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P459" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q459" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R459" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S459" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T459" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U459" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V459" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W459" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X459" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y459" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z459" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA459" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB459" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC459" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD459" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="460" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A460" s="2">
+        <v>45200.990127766199</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C460" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="D460" s="1">
+        <v>20213939</v>
+      </c>
+      <c r="E460" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F460" s="1">
+        <v>3</v>
+      </c>
+      <c r="G460" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H460" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I460" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J460" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K460" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L460" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M460" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N460" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O460" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P460" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q460" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R460" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S460" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T460" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U460" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V460" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W460" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X460" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y460" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z460" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA460" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB460" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC460" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD460" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="461" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A461" s="2">
+        <v>45200.998866030088</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D461" s="1">
+        <v>20226283</v>
+      </c>
+      <c r="E461" s="1" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F461" s="1">
+        <v>3</v>
+      </c>
+      <c r="G461" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H461" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I461" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J461" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K461" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L461" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M461" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N461" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O461" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P461" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q461" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R461" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S461" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T461" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U461" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V461" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W461" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X461" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y461" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z461" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA461" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB461" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC461" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD461" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="462" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A462" s="2">
+        <v>45201.002475104164</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D462" s="1">
+        <v>20236205</v>
+      </c>
+      <c r="E462" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F462" s="1">
+        <v>3</v>
+      </c>
+      <c r="G462" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H462" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I462" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J462" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K462" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L462" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M462" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N462" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O462" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P462" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q462" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R462" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S462" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T462" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U462" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V462" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W462" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X462" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y462" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z462" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA462" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB462" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC462" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD462" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="463" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A463" s="2">
+        <v>45201.009580462967</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D463" s="1">
+        <v>20225261</v>
+      </c>
+      <c r="E463" s="1" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F463" s="1">
+        <v>3</v>
+      </c>
+      <c r="G463" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H463" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I463" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J463" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K463" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L463" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M463" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N463" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O463" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P463" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q463" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R463" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S463" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T463" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U463" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V463" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W463" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X463" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y463" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z463" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA463" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB463" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC463" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD463" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_230925.xlsx
+++ b/R/data/literacy_230925.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8620BDC5-39A4-7340-8FC5-D46EA11524FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0937E5-E0D5-6844-9480-3229D872BA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33880" yWindow="580" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12545" uniqueCount="1179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12950" uniqueCount="1211">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3560,6 +3560,102 @@
   </si>
   <si>
     <t>조희진</t>
+  </si>
+  <si>
+    <t>gumamunu@naver.com</t>
+  </si>
+  <si>
+    <t>김지영</t>
+  </si>
+  <si>
+    <t>lovechan2004@naver.com</t>
+  </si>
+  <si>
+    <t>황예찬</t>
+  </si>
+  <si>
+    <t>hi8964@naver.com</t>
+  </si>
+  <si>
+    <t>윤태규</t>
+  </si>
+  <si>
+    <t>u6221004@naver.com</t>
+  </si>
+  <si>
+    <t>엄서진</t>
+  </si>
+  <si>
+    <t>dhwnsgh740@gmail.com</t>
+  </si>
+  <si>
+    <t>오준호</t>
+  </si>
+  <si>
+    <t>sjm3756@naver.com</t>
+  </si>
+  <si>
+    <t>금융재무</t>
+  </si>
+  <si>
+    <t>서장민</t>
+  </si>
+  <si>
+    <t>kgh15820@naver.com</t>
+  </si>
+  <si>
+    <t>김가현</t>
+  </si>
+  <si>
+    <t>lucky021217@naver.com</t>
+  </si>
+  <si>
+    <t>20226760@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>Ai의료융합</t>
+  </si>
+  <si>
+    <t>이민홍</t>
+  </si>
+  <si>
+    <t>yeon-jin22@naver.com</t>
+  </si>
+  <si>
+    <t>최연진</t>
+  </si>
+  <si>
+    <t>jisung5549@naver.com</t>
+  </si>
+  <si>
+    <t>송지성</t>
+  </si>
+  <si>
+    <t>srhst1130@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어전공</t>
+  </si>
+  <si>
+    <t>윤하은</t>
+  </si>
+  <si>
+    <t>qpfhslzk0323@naver.com</t>
+  </si>
+  <si>
+    <t>김윤설</t>
+  </si>
+  <si>
+    <t>cje03112@naver.com</t>
+  </si>
+  <si>
+    <t>최민석</t>
+  </si>
+  <si>
+    <t>mihyeon728@naver.com</t>
+  </si>
+  <si>
+    <t>박미현</t>
   </si>
 </sst>
 </file>
@@ -3842,11 +3938,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD463"/>
+  <dimension ref="A1:AD478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A429" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD463" sqref="AD463"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D480" sqref="D480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -46450,6 +46546,1386 @@
         <v>56</v>
       </c>
     </row>
+    <row r="464" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A464" s="2">
+        <v>45201.019683877312</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C464" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D464" s="1">
+        <v>20236229</v>
+      </c>
+      <c r="E464" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F464" s="1">
+        <v>3</v>
+      </c>
+      <c r="G464" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H464" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I464" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J464" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K464" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L464" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M464" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N464" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O464" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P464" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q464" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R464" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S464" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T464" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U464" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V464" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W464" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X464" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y464" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z464" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA464" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB464" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC464" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD464" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="465" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A465" s="2">
+        <v>45201.031206608794</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C465" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D465" s="1">
+        <v>20236646</v>
+      </c>
+      <c r="E465" s="1" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F465" s="1">
+        <v>3</v>
+      </c>
+      <c r="G465" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H465" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I465" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J465" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K465" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L465" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M465" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N465" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O465" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P465" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q465" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R465" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S465" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T465" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U465" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V465" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W465" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X465" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y465" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z465" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA465" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB465" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC465" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD465" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="466" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A466" s="2">
+        <v>45201.065741620376</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C466" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D466" s="1">
+        <v>20203420</v>
+      </c>
+      <c r="E466" s="1" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F466" s="1">
+        <v>3</v>
+      </c>
+      <c r="G466" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H466" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I466" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J466" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K466" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L466" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M466" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N466" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O466" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P466" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q466" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R466" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S466" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T466" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U466" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V466" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W466" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X466" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y466" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z466" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA466" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB466" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC466" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD466" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="467" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A467" s="2">
+        <v>45201.152523379627</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C467" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D467" s="1">
+        <v>20211051</v>
+      </c>
+      <c r="E467" s="1" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F467" s="1">
+        <v>3</v>
+      </c>
+      <c r="G467" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H467" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I467" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J467" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K467" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L467" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M467" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N467" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O467" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P467" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q467" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R467" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S467" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T467" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U467" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V467" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W467" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X467" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y467" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z467" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA467" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB467" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC467" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD467" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="468" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A468" s="2">
+        <v>45201.630647233796</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D468" s="1">
+        <v>20216258</v>
+      </c>
+      <c r="E468" s="1" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F468" s="1">
+        <v>3</v>
+      </c>
+      <c r="G468" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H468" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I468" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J468" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K468" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L468" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M468" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N468" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O468" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P468" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q468" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R468" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S468" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T468" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U468" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V468" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W468" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X468" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y468" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z468" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA468" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB468" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC468" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD468" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="469" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A469" s="2">
+        <v>45201.72920829861</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C469" s="1" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D469" s="1">
+        <v>20163118</v>
+      </c>
+      <c r="E469" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F469" s="1">
+        <v>3</v>
+      </c>
+      <c r="G469" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H469" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I469" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J469" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K469" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L469" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M469" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N469" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O469" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P469" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q469" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R469" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S469" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T469" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U469" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V469" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W469" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X469" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y469" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z469" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA469" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB469" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC469" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD469" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="470" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A470" s="2">
+        <v>45201.752071828705</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C470" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D470" s="1">
+        <v>20201503</v>
+      </c>
+      <c r="E470" s="1" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F470" s="1">
+        <v>3</v>
+      </c>
+      <c r="G470" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H470" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I470" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J470" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K470" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L470" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M470" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N470" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O470" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P470" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q470" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R470" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S470" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T470" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U470" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V470" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W470" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X470" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y470" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z470" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA470" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB470" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC470" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD470" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="471" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A471" s="2">
+        <v>45201.780139490744</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C471" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D471" s="1">
+        <v>20212621</v>
+      </c>
+      <c r="E471" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F471" s="1">
+        <v>3</v>
+      </c>
+      <c r="G471" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H471" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I471" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J471" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K471" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L471" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M471" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N471" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O471" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P471" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q471" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R471" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S471" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T471" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U471" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V471" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W471" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X471" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y471" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z471" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA471" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB471" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC471" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD471" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="472" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A472" s="2">
+        <v>45201.780803159723</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D472" s="1">
+        <v>20226760</v>
+      </c>
+      <c r="E472" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F472" s="1">
+        <v>3</v>
+      </c>
+      <c r="G472" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H472" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I472" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J472" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K472" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L472" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M472" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N472" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O472" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P472" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q472" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R472" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S472" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T472" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U472" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V472" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W472" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X472" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y472" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z472" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA472" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB472" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC472" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD472" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="473" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A473" s="2">
+        <v>45201.81728231482</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C473" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D473" s="1">
+        <v>20233256</v>
+      </c>
+      <c r="E473" s="1" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F473" s="1">
+        <v>3</v>
+      </c>
+      <c r="G473" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H473" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I473" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J473" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K473" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L473" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M473" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N473" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O473" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P473" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q473" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R473" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S473" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T473" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U473" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V473" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W473" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X473" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y473" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z473" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA473" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB473" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC473" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD473" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="474" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A474" s="2">
+        <v>45201.831284270833</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C474" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D474" s="1">
+        <v>20222970</v>
+      </c>
+      <c r="E474" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F474" s="1">
+        <v>3</v>
+      </c>
+      <c r="G474" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H474" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I474" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J474" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K474" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L474" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M474" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N474" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O474" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P474" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q474" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R474" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S474" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T474" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U474" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V474" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W474" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X474" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y474" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z474" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA474" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB474" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC474" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD474" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="475" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A475" s="2">
+        <v>45201.8390975</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D475" s="1">
+        <v>20191066</v>
+      </c>
+      <c r="E475" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F475" s="1">
+        <v>3</v>
+      </c>
+      <c r="G475" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H475" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I475" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J475" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K475" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L475" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M475" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N475" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O475" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P475" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q475" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R475" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S475" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T475" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U475" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V475" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W475" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X475" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y475" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z475" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA475" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB475" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC475" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD475" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="476" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A476" s="2">
+        <v>45201.947137384261</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D476" s="1">
+        <v>20232713</v>
+      </c>
+      <c r="E476" s="1" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F476" s="1">
+        <v>3</v>
+      </c>
+      <c r="G476" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H476" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I476" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J476" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="K476" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L476" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M476" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N476" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O476" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P476" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q476" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R476" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S476" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="T476" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U476" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V476" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W476" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X476" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y476" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z476" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA476" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB476" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC476" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD476" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="477" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A477" s="2">
+        <v>45201.982656944441</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="D477" s="1">
+        <v>20182580</v>
+      </c>
+      <c r="E477" s="1" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F477" s="1">
+        <v>3</v>
+      </c>
+      <c r="G477" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H477" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I477" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J477" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K477" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L477" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M477" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N477" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O477" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P477" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q477" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R477" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="S477" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T477" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U477" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V477" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W477" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X477" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y477" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z477" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA477" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB477" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC477" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD477" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="478" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A478" s="2">
+        <v>45202.005405231481</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D478" s="1">
+        <v>20236236</v>
+      </c>
+      <c r="E478" s="1" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F478" s="1">
+        <v>3</v>
+      </c>
+      <c r="G478" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H478" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I478" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J478" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K478" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L478" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M478" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N478" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O478" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P478" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q478" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R478" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S478" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T478" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U478" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V478" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W478" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X478" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y478" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z478" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA478" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB478" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC478" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD478" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_230925.xlsx
+++ b/R/data/literacy_230925.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0937E5-E0D5-6844-9480-3229D872BA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09C2D26-AE01-8C4D-B5A0-CCBB68F92207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33880" yWindow="580" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12950" uniqueCount="1211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13571" uniqueCount="1258">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3656,6 +3656,147 @@
   </si>
   <si>
     <t>박미현</t>
+  </si>
+  <si>
+    <t>h20205265@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>최준영</t>
+  </si>
+  <si>
+    <t>dnjsgmlwjd1020@naver.com</t>
+  </si>
+  <si>
+    <t>원희정</t>
+  </si>
+  <si>
+    <t>giovanni1199@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어융합학부</t>
+  </si>
+  <si>
+    <t>신재현</t>
+  </si>
+  <si>
+    <t>20233814@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>loul0412@naver.com</t>
+  </si>
+  <si>
+    <t>김가령</t>
+  </si>
+  <si>
+    <t>rhdid98@naver.com</t>
+  </si>
+  <si>
+    <t>김소정</t>
+  </si>
+  <si>
+    <t>inhwagil40@gmail.com</t>
+  </si>
+  <si>
+    <t>길인화</t>
+  </si>
+  <si>
+    <t>doctykbw@gmail.com</t>
+  </si>
+  <si>
+    <t>김범우</t>
+  </si>
+  <si>
+    <t>kutae1228@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">반도체디스플레이스쿨/ 반도체 전공 </t>
+  </si>
+  <si>
+    <t>구태환</t>
+  </si>
+  <si>
+    <t>guseons__@naver.com</t>
+  </si>
+  <si>
+    <t>구선화</t>
+  </si>
+  <si>
+    <t>20217134@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>장효경</t>
+  </si>
+  <si>
+    <t>yusoyun03@gmail.com</t>
+  </si>
+  <si>
+    <t>유소연</t>
+  </si>
+  <si>
+    <t>rbtkd0j25@gmail.com</t>
+  </si>
+  <si>
+    <t>김규상</t>
+  </si>
+  <si>
+    <t>dlawlals1669@naver.com</t>
+  </si>
+  <si>
+    <t>임지민</t>
+  </si>
+  <si>
+    <t>wnsaus_0522@naver.com</t>
+  </si>
+  <si>
+    <t>진희원</t>
+  </si>
+  <si>
+    <t>tvkim0122@gmail.com</t>
+  </si>
+  <si>
+    <t>김태빈</t>
+  </si>
+  <si>
+    <t>applegoose007@gmail.com</t>
+  </si>
+  <si>
+    <t>장재훈</t>
+  </si>
+  <si>
+    <t>tyu626@naver.com</t>
+  </si>
+  <si>
+    <t>최서영</t>
+  </si>
+  <si>
+    <t>kangsamy2@gmail.com</t>
+  </si>
+  <si>
+    <t>강새미</t>
+  </si>
+  <si>
+    <t>whtjsals159@naver.com</t>
+  </si>
+  <si>
+    <t>조선민</t>
+  </si>
+  <si>
+    <t>pop8976@naver.com</t>
+  </si>
+  <si>
+    <t>최시현</t>
+  </si>
+  <si>
+    <t>tkdgjs9768@naver.com</t>
+  </si>
+  <si>
+    <t>임상헌</t>
+  </si>
+  <si>
+    <t>godis2002@naver.com</t>
+  </si>
+  <si>
+    <t>김승겸</t>
   </si>
 </sst>
 </file>
@@ -3938,11 +4079,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD478"/>
+  <dimension ref="A1:AD501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D480" sqref="D480"/>
+      <pane ySplit="1" topLeftCell="A478" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C505" sqref="C505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -47926,6 +48067,2122 @@
         <v>56</v>
       </c>
     </row>
+    <row r="479" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A479" s="2">
+        <v>45202.055539247682</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D479" s="1">
+        <v>20205265</v>
+      </c>
+      <c r="E479" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F479" s="1">
+        <v>3</v>
+      </c>
+      <c r="G479" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H479" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I479" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J479" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K479" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L479" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M479" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N479" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O479" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P479" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q479" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R479" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S479" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T479" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U479" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V479" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W479" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X479" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y479" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z479" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA479" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB479" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC479" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD479" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="480" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A480" s="2">
+        <v>45202.12827188657</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C480" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D480" s="1">
+        <v>20231057</v>
+      </c>
+      <c r="E480" s="1" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F480" s="1">
+        <v>3</v>
+      </c>
+      <c r="G480" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H480" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I480" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J480" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K480" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L480" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M480" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N480" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O480" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P480" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q480" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R480" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S480" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T480" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U480" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V480" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W480" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X480" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y480" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z480" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA480" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB480" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC480" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD480" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="481" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A481" s="2">
+        <v>45202.380727812502</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C481" s="1" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D481" s="1">
+        <v>20235200</v>
+      </c>
+      <c r="E481" s="1" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F481" s="1">
+        <v>3</v>
+      </c>
+      <c r="G481" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H481" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I481" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J481" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K481" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L481" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M481" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N481" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O481" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P481" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q481" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R481" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S481" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T481" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U481" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V481" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W481" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X481" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y481" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z481" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA481" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB481" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC481" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD481" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="482" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A482" s="2">
+        <v>45202.427075844906</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D482" s="1">
+        <v>20233814</v>
+      </c>
+      <c r="E482" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F482" s="1">
+        <v>3</v>
+      </c>
+      <c r="G482" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H482" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I482" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J482" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K482" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L482" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M482" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N482" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O482" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P482" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q482" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R482" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S482" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T482" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U482" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V482" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W482" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X482" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y482" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z482" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA482" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB482" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC482" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD482" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="483" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A483" s="2">
+        <v>45202.462583449073</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D483" s="1">
+        <v>20231201</v>
+      </c>
+      <c r="E483" s="1" t="s">
+        <v>1220</v>
+      </c>
+      <c r="F483" s="1">
+        <v>3</v>
+      </c>
+      <c r="G483" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H483" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I483" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J483" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K483" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L483" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M483" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N483" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O483" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P483" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q483" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R483" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S483" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T483" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U483" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V483" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W483" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X483" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y483" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z483" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA483" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB483" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC483" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD483" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="484" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A484" s="2">
+        <v>45202.479530879631</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D484" s="1">
+        <v>20192604</v>
+      </c>
+      <c r="E484" s="1" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F484" s="1">
+        <v>3</v>
+      </c>
+      <c r="G484" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H484" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I484" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J484" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K484" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L484" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M484" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N484" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O484" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P484" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q484" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R484" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S484" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T484" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U484" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V484" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W484" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X484" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y484" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z484" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA484" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB484" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC484" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD484" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="485" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A485" s="2">
+        <v>45202.606864409725</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C485" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D485" s="1">
+        <v>20236210</v>
+      </c>
+      <c r="E485" s="1" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F485" s="1">
+        <v>3</v>
+      </c>
+      <c r="G485" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H485" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I485" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J485" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K485" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L485" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M485" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N485" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O485" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P485" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q485" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R485" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S485" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T485" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U485" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V485" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W485" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X485" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y485" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z485" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA485" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB485" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC485" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD485" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="486" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A486" s="2">
+        <v>45202.633940254629</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D486" s="1">
+        <v>20226111</v>
+      </c>
+      <c r="E486" s="1" t="s">
+        <v>1226</v>
+      </c>
+      <c r="F486" s="1">
+        <v>3</v>
+      </c>
+      <c r="G486" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H486" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I486" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J486" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K486" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L486" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M486" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N486" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O486" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P486" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q486" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R486" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S486" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T486" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U486" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V486" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W486" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X486" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y486" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z486" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA486" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB486" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC486" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD486" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="487" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A487" s="2">
+        <v>45202.677190543982</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C487" s="1" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D487" s="1">
+        <v>20183301</v>
+      </c>
+      <c r="E487" s="1" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F487" s="1">
+        <v>3</v>
+      </c>
+      <c r="G487" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H487" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I487" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J487" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K487" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L487" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M487" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N487" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O487" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P487" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q487" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R487" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S487" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T487" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U487" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V487" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W487" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X487" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y487" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z487" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA487" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB487" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC487" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD487" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="488" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A488" s="2">
+        <v>45202.680502812502</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C488" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="D488" s="1">
+        <v>20203301</v>
+      </c>
+      <c r="E488" s="1" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F488" s="1">
+        <v>3</v>
+      </c>
+      <c r="G488" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H488" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I488" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J488" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="K488" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L488" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M488" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N488" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O488" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P488" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q488" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R488" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S488" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T488" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U488" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V488" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W488" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X488" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y488" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z488" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA488" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB488" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC488" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD488" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="489" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A489" s="2">
+        <v>45202.693874444449</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D489" s="1">
+        <v>20217134</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F489" s="1">
+        <v>3</v>
+      </c>
+      <c r="G489" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H489" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I489" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J489" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K489" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L489" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M489" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N489" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O489" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P489" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q489" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R489" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S489" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T489" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U489" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V489" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W489" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X489" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y489" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z489" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA489" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB489" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC489" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD489" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="490" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A490" s="2">
+        <v>45202.703668229165</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D490" s="1">
+        <v>20236745</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F490" s="1">
+        <v>3</v>
+      </c>
+      <c r="G490" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H490" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I490" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J490" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K490" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L490" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M490" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N490" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O490" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P490" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q490" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R490" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S490" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T490" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U490" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V490" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W490" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X490" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y490" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z490" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA490" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB490" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC490" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD490" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="491" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A491" s="2">
+        <v>45202.703968159723</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D491" s="1">
+        <v>20236212</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F491" s="1">
+        <v>3</v>
+      </c>
+      <c r="G491" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H491" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I491" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J491" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K491" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L491" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M491" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N491" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O491" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P491" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q491" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R491" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S491" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T491" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U491" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V491" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W491" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X491" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y491" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z491" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA491" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB491" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC491" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD491" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="492" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A492" s="2">
+        <v>45202.713485902779</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D492" s="1">
+        <v>20231537</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F492" s="1">
+        <v>3</v>
+      </c>
+      <c r="G492" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H492" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I492" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J492" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K492" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L492" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M492" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N492" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O492" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P492" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q492" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R492" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S492" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T492" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U492" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V492" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W492" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X492" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y492" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z492" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA492" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB492" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC492" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD492" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="493" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A493" s="2">
+        <v>45202.733591018521</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D493" s="1">
+        <v>20231093</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F493" s="1">
+        <v>3</v>
+      </c>
+      <c r="G493" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H493" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I493" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J493" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K493" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L493" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M493" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N493" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O493" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P493" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q493" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R493" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S493" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T493" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U493" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V493" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W493" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X493" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y493" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z493" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA493" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB493" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC493" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD493" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="494" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A494" s="2">
+        <v>45202.73995555556</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D494" s="1">
+        <v>20203314</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F494" s="1">
+        <v>3</v>
+      </c>
+      <c r="G494" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H494" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I494" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J494" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="K494" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L494" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M494" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N494" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O494" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P494" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q494" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R494" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S494" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="T494" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U494" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V494" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W494" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X494" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y494" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z494" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA494" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB494" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC494" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD494" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="495" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A495" s="2">
+        <v>45202.749659456022</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D495" s="1">
+        <v>20225243</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F495" s="1">
+        <v>3</v>
+      </c>
+      <c r="G495" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H495" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I495" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J495" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K495" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L495" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M495" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N495" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O495" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P495" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q495" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R495" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S495" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T495" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U495" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V495" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W495" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X495" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y495" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z495" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA495" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB495" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC495" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD495" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="496" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A496" s="2">
+        <v>45202.835944895836</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D496" s="1">
+        <v>20232636</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F496" s="1">
+        <v>3</v>
+      </c>
+      <c r="G496" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H496" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I496" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J496" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K496" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L496" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M496" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N496" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O496" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P496" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q496" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R496" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S496" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T496" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U496" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V496" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W496" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X496" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y496" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z496" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA496" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB496" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC496" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD496" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="497" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A497" s="2">
+        <v>45202.842724641203</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D497" s="1">
+        <v>20232302</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F497" s="1">
+        <v>3</v>
+      </c>
+      <c r="G497" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H497" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I497" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J497" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K497" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L497" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M497" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N497" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O497" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P497" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q497" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R497" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S497" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T497" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U497" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V497" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W497" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X497" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y497" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z497" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA497" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB497" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC497" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD497" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="498" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A498" s="2">
+        <v>45202.873838333333</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D498" s="1">
+        <v>20236778</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F498" s="1">
+        <v>3</v>
+      </c>
+      <c r="G498" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H498" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I498" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J498" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K498" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L498" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M498" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N498" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O498" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P498" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q498" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R498" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S498" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T498" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U498" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V498" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W498" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X498" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y498" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z498" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA498" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB498" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC498" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD498" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="499" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A499" s="2">
+        <v>45202.888568078706</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D499" s="1">
+        <v>20232756</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F499" s="1">
+        <v>3</v>
+      </c>
+      <c r="G499" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H499" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I499" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J499" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K499" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L499" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M499" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N499" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O499" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P499" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q499" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R499" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S499" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T499" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U499" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V499" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W499" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X499" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y499" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z499" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA499" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB499" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC499" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD499" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="500" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A500" s="2">
+        <v>45202.935001527774</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D500" s="1">
+        <v>20212837</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>1255</v>
+      </c>
+      <c r="F500" s="1">
+        <v>3</v>
+      </c>
+      <c r="G500" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H500" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I500" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J500" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K500" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L500" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M500" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N500" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O500" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P500" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q500" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R500" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S500" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T500" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U500" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V500" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W500" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X500" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y500" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z500" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA500" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB500" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC500" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD500" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="501" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A501" s="2">
+        <v>45202.964252523147</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D501" s="1">
+        <v>20211706</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F501" s="1">
+        <v>3</v>
+      </c>
+      <c r="G501" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H501" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I501" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J501" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K501" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L501" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M501" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N501" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O501" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P501" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q501" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R501" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S501" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T501" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U501" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V501" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W501" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X501" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y501" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z501" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA501" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB501" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC501" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD501" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_230925.xlsx
+++ b/R/data/literacy_230925.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09C2D26-AE01-8C4D-B5A0-CCBB68F92207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A3F71B-2C7F-A248-8A8B-E4E2E11C18D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33880" yWindow="580" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="680" yWindow="800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13571" uniqueCount="1258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15947" uniqueCount="1439">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3797,6 +3797,550 @@
   </si>
   <si>
     <t>김승겸</t>
+  </si>
+  <si>
+    <t>hoverdahee@gmail.com</t>
+  </si>
+  <si>
+    <t>김다희</t>
+  </si>
+  <si>
+    <t>dlgusqqls@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">바이오메디컬학과 </t>
+  </si>
+  <si>
+    <t>이현빈</t>
+  </si>
+  <si>
+    <t>seohyojeong123@gmail.com</t>
+  </si>
+  <si>
+    <t>서효정</t>
+  </si>
+  <si>
+    <t>poliku8630@naver.com</t>
+  </si>
+  <si>
+    <t>컨텐츠IT</t>
+  </si>
+  <si>
+    <t>심지혁</t>
+  </si>
+  <si>
+    <t>b0612river@gmail.com</t>
+  </si>
+  <si>
+    <t>최정원</t>
+  </si>
+  <si>
+    <t>rlaalswl9362@naver.com</t>
+  </si>
+  <si>
+    <t>ai로봇융합</t>
+  </si>
+  <si>
+    <t>uy7249@gmail.com</t>
+  </si>
+  <si>
+    <t>이다인</t>
+  </si>
+  <si>
+    <t>hane37@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 정보법과학</t>
+  </si>
+  <si>
+    <t>김동규</t>
+  </si>
+  <si>
+    <t>julielie@nate.com</t>
+  </si>
+  <si>
+    <t>최윤서</t>
+  </si>
+  <si>
+    <t>b1a46317@naver.com</t>
+  </si>
+  <si>
+    <t>이정수</t>
+  </si>
+  <si>
+    <t>yenaridia@naver.com</t>
+  </si>
+  <si>
+    <t>최예나</t>
+  </si>
+  <si>
+    <t>serf0403@naver.com</t>
+  </si>
+  <si>
+    <t>정예선</t>
+  </si>
+  <si>
+    <t>dbstn5721@naver.com</t>
+  </si>
+  <si>
+    <t>김윤수</t>
+  </si>
+  <si>
+    <t>cuyer7406@gmail.com</t>
+  </si>
+  <si>
+    <t>이혜민</t>
+  </si>
+  <si>
+    <t>sherisim@naver.com</t>
+  </si>
+  <si>
+    <t>심시원</t>
+  </si>
+  <si>
+    <t>fodhzks1@naver.com</t>
+  </si>
+  <si>
+    <t>shni92@naver.com</t>
+  </si>
+  <si>
+    <t>김서현</t>
+  </si>
+  <si>
+    <t>gusdud0627@naver.com</t>
+  </si>
+  <si>
+    <t>정보과학대학 콘텐츠IT학과</t>
+  </si>
+  <si>
+    <t>장현일</t>
+  </si>
+  <si>
+    <t>zmcnvb@naver.com</t>
+  </si>
+  <si>
+    <t>jongbaep17s@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌비즈니스</t>
+  </si>
+  <si>
+    <t>박종배</t>
+  </si>
+  <si>
+    <t>dlekals56@gmail.com</t>
+  </si>
+  <si>
+    <t>이다민</t>
+  </si>
+  <si>
+    <t>was193567@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>권유진</t>
+  </si>
+  <si>
+    <t>gabiekook040907@gmail.com</t>
+  </si>
+  <si>
+    <t>장형욱</t>
+  </si>
+  <si>
+    <t>sojeongy39@gmail.com</t>
+  </si>
+  <si>
+    <t>윤소정</t>
+  </si>
+  <si>
+    <t>xortl0522@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠학과</t>
+  </si>
+  <si>
+    <t>김택민</t>
+  </si>
+  <si>
+    <t>bravemw2@naver.com</t>
+  </si>
+  <si>
+    <t>태민우</t>
+  </si>
+  <si>
+    <t>tjtmdwns3504@gmail.com</t>
+  </si>
+  <si>
+    <t>서승준</t>
+  </si>
+  <si>
+    <t>janghangyeol0304@gmail.com</t>
+  </si>
+  <si>
+    <t>장한결</t>
+  </si>
+  <si>
+    <t>dbwjd_1230@naver.com</t>
+  </si>
+  <si>
+    <t>김유정</t>
+  </si>
+  <si>
+    <t>ssabaljukinsaekki@gmail.com</t>
+  </si>
+  <si>
+    <t>정민석</t>
+  </si>
+  <si>
+    <t>hmw1019@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>한민우</t>
+  </si>
+  <si>
+    <t>daffodil1215@gmail.com</t>
+  </si>
+  <si>
+    <t>인공자능융합학부</t>
+  </si>
+  <si>
+    <t>임원준</t>
+  </si>
+  <si>
+    <t>20217071@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>오선민</t>
+  </si>
+  <si>
+    <t>yeji28667@naver.com</t>
+  </si>
+  <si>
+    <t>신예지</t>
+  </si>
+  <si>
+    <t>tpdls1323@naver.com</t>
+  </si>
+  <si>
+    <t>장세인</t>
+  </si>
+  <si>
+    <t>kmspse0405@naver.com</t>
+  </si>
+  <si>
+    <t>박세은</t>
+  </si>
+  <si>
+    <t>junwon5424@naver.com</t>
+  </si>
+  <si>
+    <t>김준원</t>
+  </si>
+  <si>
+    <t>dosilver1107@naver.com</t>
+  </si>
+  <si>
+    <t>임도은</t>
+  </si>
+  <si>
+    <t>jhs120600@naver.com</t>
+  </si>
+  <si>
+    <t>장현성</t>
+  </si>
+  <si>
+    <t>kongpo7097@gmail.com</t>
+  </si>
+  <si>
+    <t>장예현</t>
+  </si>
+  <si>
+    <t>qndks2129@naver.com</t>
+  </si>
+  <si>
+    <t>박지혜</t>
+  </si>
+  <si>
+    <t>kjh2715c@gmail.com</t>
+  </si>
+  <si>
+    <t>김정후</t>
+  </si>
+  <si>
+    <t>leeyen1215@naver.com</t>
+  </si>
+  <si>
+    <t>이예인</t>
+  </si>
+  <si>
+    <t>kimhongik03@naver.com</t>
+  </si>
+  <si>
+    <t>김홍익</t>
+  </si>
+  <si>
+    <t>chldydnjs123@naver.com</t>
+  </si>
+  <si>
+    <t>러시아</t>
+  </si>
+  <si>
+    <t>최요원</t>
+  </si>
+  <si>
+    <t>20233817@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>박주희</t>
+  </si>
+  <si>
+    <t>theyubin@naver.com</t>
+  </si>
+  <si>
+    <t>이유빈</t>
+  </si>
+  <si>
+    <t>suani3176@gmail.com</t>
+  </si>
+  <si>
+    <t>박수안</t>
+  </si>
+  <si>
+    <t>hankyo777@naver.com</t>
+  </si>
+  <si>
+    <t>장성주</t>
+  </si>
+  <si>
+    <t>aktnftk3520@naver.com</t>
+  </si>
+  <si>
+    <t>어수련</t>
+  </si>
+  <si>
+    <t>tkddnjs8070@naver.com</t>
+  </si>
+  <si>
+    <t>정상원</t>
+  </si>
+  <si>
+    <t>jihongg0531@gmail.com</t>
+  </si>
+  <si>
+    <t>김지홍</t>
+  </si>
+  <si>
+    <t>gimchaemin97@gmail.com</t>
+  </si>
+  <si>
+    <t>김채민</t>
+  </si>
+  <si>
+    <t>jjiwoong0212@gmail.com</t>
+  </si>
+  <si>
+    <t>이지웅</t>
+  </si>
+  <si>
+    <t>sujh7021@naver.com</t>
+  </si>
+  <si>
+    <t>이재현</t>
+  </si>
+  <si>
+    <t>limhyuksang@naver.com</t>
+  </si>
+  <si>
+    <t>임혁상</t>
+  </si>
+  <si>
+    <t>ssw12099@naver.com</t>
+  </si>
+  <si>
+    <t>소선웅</t>
+  </si>
+  <si>
+    <t>abcdefg76500@naver.com</t>
+  </si>
+  <si>
+    <t>노희망</t>
+  </si>
+  <si>
+    <t>coolsw98@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌학부 정보법과학전공</t>
+  </si>
+  <si>
+    <t>sanghyeongim33@naevr.com</t>
+  </si>
+  <si>
+    <t>김상현</t>
+  </si>
+  <si>
+    <t>lma240228@gmail.com</t>
+  </si>
+  <si>
+    <t>김재민</t>
+  </si>
+  <si>
+    <t>kimi9923@naver.com</t>
+  </si>
+  <si>
+    <t>정민우</t>
+  </si>
+  <si>
+    <t>audwlswlghd7@naver.com</t>
+  </si>
+  <si>
+    <t>신명진</t>
+  </si>
+  <si>
+    <t>lian_ycm@naver.com</t>
+  </si>
+  <si>
+    <t>유채민</t>
+  </si>
+  <si>
+    <t>alsgk03@naver.com</t>
+  </si>
+  <si>
+    <t>박민하</t>
+  </si>
+  <si>
+    <t>teslahan21@gmail.com</t>
+  </si>
+  <si>
+    <t>한태웅</t>
+  </si>
+  <si>
+    <t>khjkhj0314@naver.com</t>
+  </si>
+  <si>
+    <t>김현종</t>
+  </si>
+  <si>
+    <t>duhyeon120@naver.com</t>
+  </si>
+  <si>
+    <t>남두현</t>
+  </si>
+  <si>
+    <t>milovany03@gmail.com</t>
+  </si>
+  <si>
+    <t>박진옥</t>
+  </si>
+  <si>
+    <t>사회복지학부</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>seoungho990101@gmail.com</t>
+  </si>
+  <si>
+    <t>이승호</t>
+  </si>
+  <si>
+    <t>zdfxd3611@naver.com</t>
+  </si>
+  <si>
+    <t>이현태</t>
+  </si>
+  <si>
+    <t>youngsoo051400@naver.com</t>
+  </si>
+  <si>
+    <t>최영수</t>
+  </si>
+  <si>
+    <t>wusl0327@naver.com</t>
+  </si>
+  <si>
+    <t>신지연</t>
+  </si>
+  <si>
+    <t>gawon9707@gmail.com</t>
+  </si>
+  <si>
+    <t>이가원</t>
+  </si>
+  <si>
+    <t>jyk9247@naver.com</t>
+  </si>
+  <si>
+    <t>정윤경</t>
+  </si>
+  <si>
+    <t>seo1020102p@naver.com</t>
+  </si>
+  <si>
+    <t>박재연</t>
+  </si>
+  <si>
+    <t>areana1053@naver.com</t>
+  </si>
+  <si>
+    <t>jangyc3972@gmail.com</t>
+  </si>
+  <si>
+    <t>장윤채</t>
+  </si>
+  <si>
+    <t>year0309@naver.com</t>
+  </si>
+  <si>
+    <t>ans1929@gmail.com</t>
+  </si>
+  <si>
+    <t>조유진</t>
+  </si>
+  <si>
+    <t>dennis121691@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터테크전공</t>
+  </si>
+  <si>
+    <t>freenix1001@naver.com</t>
+  </si>
+  <si>
+    <t>강서연</t>
+  </si>
+  <si>
+    <t>homework0810@naver.com</t>
+  </si>
+  <si>
+    <t>지승현</t>
+  </si>
+  <si>
+    <t>chaeseungwoo99@gmail.com</t>
+  </si>
+  <si>
+    <t>채승우</t>
+  </si>
+  <si>
+    <t>a01035025756@gmail.com</t>
+  </si>
+  <si>
+    <t>이건희</t>
+  </si>
+  <si>
+    <t>xhaexeon@naver.com</t>
+  </si>
+  <si>
+    <t>tjdbs6201305@naver.com</t>
+  </si>
+  <si>
+    <t>송서윤</t>
+  </si>
+  <si>
+    <t>sdw0820@gmail.com</t>
+  </si>
+  <si>
+    <t>성동휘</t>
   </si>
 </sst>
 </file>
@@ -3806,7 +4350,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3834,6 +4378,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Batang"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3855,12 +4405,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -4079,11 +4630,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD501"/>
+  <dimension ref="A1:AD589"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A478" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C505" sqref="C505"/>
+      <pane ySplit="1" topLeftCell="A571" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C592" sqref="C592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -50183,6 +50734,8102 @@
         <v>91</v>
       </c>
     </row>
+    <row r="502" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A502" s="2">
+        <v>45202.991692187497</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D502" s="1">
+        <v>20233912</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F502" s="1">
+        <v>3</v>
+      </c>
+      <c r="G502" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H502" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I502" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J502" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K502" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L502" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M502" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N502" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O502" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P502" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q502" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R502" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S502" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T502" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U502" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V502" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W502" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X502" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y502" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z502" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA502" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB502" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC502" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD502" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="503" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A503" s="2">
+        <v>45202.996481296301</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D503" s="1">
+        <v>20233635</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F503" s="1">
+        <v>3</v>
+      </c>
+      <c r="G503" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H503" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I503" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J503" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K503" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L503" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M503" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N503" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O503" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P503" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q503" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R503" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S503" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T503" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U503" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V503" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W503" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X503" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y503" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z503" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA503" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB503" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC503" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD503" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="504" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A504" s="2">
+        <v>45203.030038611112</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D504" s="1">
+        <v>20226622</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F504" s="1">
+        <v>3</v>
+      </c>
+      <c r="G504" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H504" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I504" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J504" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K504" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L504" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M504" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N504" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O504" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P504" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q504" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R504" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S504" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T504" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U504" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V504" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W504" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X504" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y504" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z504" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA504" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB504" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC504" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD504" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="505" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A505" s="2">
+        <v>45203.056887581013</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D505" s="1">
+        <v>20205197</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F505" s="1">
+        <v>3</v>
+      </c>
+      <c r="G505" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H505" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I505" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J505" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K505" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L505" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M505" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N505" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O505" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P505" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q505" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R505" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S505" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T505" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U505" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V505" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W505" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X505" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y505" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z505" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA505" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB505" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC505" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD505" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="506" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A506" s="2">
+        <v>45203.080636099534</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D506" s="1">
+        <v>20232638</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F506" s="1">
+        <v>3</v>
+      </c>
+      <c r="G506" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H506" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I506" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J506" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K506" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L506" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M506" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N506" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O506" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P506" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q506" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R506" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S506" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T506" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U506" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V506" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W506" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X506" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y506" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z506" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA506" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB506" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC506" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD506" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="507" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A507" s="2">
+        <v>45203.380036030096</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C507" s="1" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D507" s="1">
+        <v>20226712</v>
+      </c>
+      <c r="E507" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F507" s="1">
+        <v>3</v>
+      </c>
+      <c r="G507" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H507" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I507" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J507" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K507" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L507" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M507" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N507" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O507" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P507" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q507" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R507" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="S507" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T507" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U507" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V507" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W507" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X507" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y507" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z507" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA507" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB507" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC507" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD507" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="508" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A508" s="2">
+        <v>45203.38501607639</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C508" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D508" s="1">
+        <v>20207091</v>
+      </c>
+      <c r="E508" s="1" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F508" s="1">
+        <v>3</v>
+      </c>
+      <c r="G508" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H508" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I508" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J508" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K508" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L508" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M508" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N508" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O508" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P508" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q508" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R508" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S508" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T508" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U508" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V508" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W508" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X508" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y508" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z508" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA508" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB508" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC508" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD508" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="509" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A509" s="2">
+        <v>45203.462963252314</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C509" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D509" s="1">
+        <v>20226405</v>
+      </c>
+      <c r="E509" s="1" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F509" s="1">
+        <v>4</v>
+      </c>
+      <c r="G509" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H509" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I509" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J509" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="K509" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L509" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M509" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N509" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O509" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P509" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q509" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R509" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S509" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T509" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U509" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V509" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W509" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X509" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y509" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z509" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA509" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB509" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC509" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD509" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="510" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A510" s="2">
+        <v>45203.480635972221</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C510" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D510" s="1">
+        <v>20233964</v>
+      </c>
+      <c r="E510" s="1" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F510" s="1">
+        <v>2</v>
+      </c>
+      <c r="G510" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H510" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I510" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J510" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K510" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L510" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M510" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N510" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O510" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P510" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q510" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R510" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S510" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T510" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U510" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V510" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W510" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X510" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y510" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z510" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA510" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB510" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC510" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD510" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="511" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A511" s="2">
+        <v>45203.545941018514</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C511" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D511" s="1">
+        <v>20203020</v>
+      </c>
+      <c r="E511" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F511" s="1">
+        <v>3</v>
+      </c>
+      <c r="G511" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H511" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I511" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J511" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K511" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L511" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M511" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N511" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O511" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P511" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q511" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R511" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S511" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="T511" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U511" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V511" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W511" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X511" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y511" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z511" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA511" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB511" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC511" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD511" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="512" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A512" s="2">
+        <v>45203.563609699078</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C512" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D512" s="1">
+        <v>20201634</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F512" s="1">
+        <v>3</v>
+      </c>
+      <c r="G512" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H512" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I512" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J512" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K512" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L512" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M512" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N512" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O512" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P512" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q512" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R512" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S512" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T512" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U512" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V512" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W512" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X512" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y512" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z512" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA512" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB512" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC512" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD512" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="513" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A513" s="2">
+        <v>45203.567888912032</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D513" s="1">
+        <v>20193646</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F513" s="1">
+        <v>3</v>
+      </c>
+      <c r="G513" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H513" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I513" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J513" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K513" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L513" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M513" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N513" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O513" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P513" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q513" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R513" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S513" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T513" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U513" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V513" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W513" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X513" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y513" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z513" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA513" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB513" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC513" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD513" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="514" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A514" s="2">
+        <v>45203.594169050921</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C514" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D514" s="1">
+        <v>20183212</v>
+      </c>
+      <c r="E514" s="1" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F514" s="1">
+        <v>3</v>
+      </c>
+      <c r="G514" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H514" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I514" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J514" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="K514" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L514" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M514" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N514" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O514" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P514" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q514" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R514" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S514" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T514" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U514" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V514" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W514" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X514" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y514" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z514" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA514" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB514" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC514" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD514" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="515" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A515" s="2">
+        <v>45203.595409907408</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C515" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D515" s="1">
+        <v>20236767</v>
+      </c>
+      <c r="E515" s="1" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F515" s="1">
+        <v>3</v>
+      </c>
+      <c r="G515" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H515" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I515" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J515" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K515" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L515" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M515" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N515" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O515" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P515" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q515" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R515" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S515" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T515" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U515" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V515" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W515" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X515" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y515" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z515" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA515" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB515" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC515" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD515" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="516" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A516" s="2">
+        <v>45203.626058090274</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D516" s="1">
+        <v>20236741</v>
+      </c>
+      <c r="E516" s="1" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F516" s="1">
+        <v>3</v>
+      </c>
+      <c r="G516" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H516" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I516" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J516" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K516" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L516" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M516" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N516" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O516" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P516" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q516" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R516" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S516" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T516" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U516" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V516" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W516" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X516" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y516" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z516" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA516" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB516" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC516" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD516" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="517" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A517" s="2">
+        <v>45203.636801782406</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D517" s="1">
+        <v>20233728</v>
+      </c>
+      <c r="E517" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F517" s="1">
+        <v>3</v>
+      </c>
+      <c r="G517" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H517" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I517" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J517" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K517" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L517" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M517" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N517" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O517" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P517" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q517" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R517" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S517" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T517" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U517" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V517" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W517" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X517" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y517" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z517" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA517" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB517" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC517" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD517" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="518" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A518" s="2">
+        <v>45203.648145694446</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D518" s="1">
+        <v>20236606</v>
+      </c>
+      <c r="E518" s="1" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F518" s="1">
+        <v>3</v>
+      </c>
+      <c r="G518" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H518" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I518" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J518" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K518" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L518" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M518" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N518" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O518" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P518" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q518" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R518" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S518" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T518" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U518" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V518" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W518" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X518" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y518" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z518" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA518" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB518" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC518" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD518" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="519" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A519" s="2">
+        <v>45203.691806712959</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D519" s="1">
+        <v>20205246</v>
+      </c>
+      <c r="E519" s="1" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F519" s="1">
+        <v>3</v>
+      </c>
+      <c r="G519" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H519" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I519" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J519" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K519" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L519" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M519" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N519" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O519" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P519" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q519" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R519" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S519" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T519" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U519" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V519" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W519" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X519" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y519" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z519" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA519" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB519" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC519" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD519" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="520" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A520" s="2">
+        <v>45203.694219988422</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C520" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D520" s="1">
+        <v>20213014</v>
+      </c>
+      <c r="E520" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F520" s="1">
+        <v>3</v>
+      </c>
+      <c r="G520" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H520" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I520" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J520" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K520" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L520" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M520" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N520" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O520" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P520" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q520" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R520" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S520" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T520" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U520" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V520" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W520" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X520" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y520" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z520" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA520" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB520" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC520" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD520" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="521" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A521" s="2">
+        <v>45203.752680219906</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D521" s="1">
+        <v>20226410</v>
+      </c>
+      <c r="E521" s="1" t="s">
+        <v>1300</v>
+      </c>
+      <c r="F521" s="1">
+        <v>3</v>
+      </c>
+      <c r="G521" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H521" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I521" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J521" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K521" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L521" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M521" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N521" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O521" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P521" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q521" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R521" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S521" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T521" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U521" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V521" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W521" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X521" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y521" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z521" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA521" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB521" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC521" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD521" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="522" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A522" s="2">
+        <v>45203.831201469904</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D522" s="1">
+        <v>20211526</v>
+      </c>
+      <c r="E522" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F522" s="1">
+        <v>3</v>
+      </c>
+      <c r="G522" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H522" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I522" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J522" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K522" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L522" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M522" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N522" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O522" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P522" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q522" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R522" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S522" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T522" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U522" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V522" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W522" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X522" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y522" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z522" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA522" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB522" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC522" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD522" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="523" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A523" s="2">
+        <v>45203.863190381948</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D523" s="1">
+        <v>20233303</v>
+      </c>
+      <c r="E523" s="1" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F523" s="1">
+        <v>3</v>
+      </c>
+      <c r="G523" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H523" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I523" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J523" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K523" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L523" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M523" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N523" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O523" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P523" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q523" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R523" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S523" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T523" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U523" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V523" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W523" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X523" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y523" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z523" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA523" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB523" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC523" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD523" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="524" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A524" s="2">
+        <v>45203.866556493056</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D524" s="1">
+        <v>20232356</v>
+      </c>
+      <c r="E524" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F524" s="1">
+        <v>3</v>
+      </c>
+      <c r="G524" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H524" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I524" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J524" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K524" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L524" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M524" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N524" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O524" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P524" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q524" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R524" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S524" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T524" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U524" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V524" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W524" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X524" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y524" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z524" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA524" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB524" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC524" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD524" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="525" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A525" s="2">
+        <v>45203.903495868057</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D525" s="1">
+        <v>20222987</v>
+      </c>
+      <c r="E525" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F525" s="1">
+        <v>3</v>
+      </c>
+      <c r="G525" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H525" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I525" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J525" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K525" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L525" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M525" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N525" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O525" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P525" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q525" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R525" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S525" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T525" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U525" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V525" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W525" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X525" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y525" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z525" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA525" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB525" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC525" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD525" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="526" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A526" s="2">
+        <v>45203.940259756942</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D526" s="1">
+        <v>20172522</v>
+      </c>
+      <c r="E526" s="1" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F526" s="1">
+        <v>3</v>
+      </c>
+      <c r="G526" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H526" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I526" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J526" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K526" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L526" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M526" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N526" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O526" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P526" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q526" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R526" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S526" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T526" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U526" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V526" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W526" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X526" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y526" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z526" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA526" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB526" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC526" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD526" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="527" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A527" s="2">
+        <v>45203.945901608793</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D527" s="1">
+        <v>20203257</v>
+      </c>
+      <c r="E527" s="1" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F527" s="1">
+        <v>3</v>
+      </c>
+      <c r="G527" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H527" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I527" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J527" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K527" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L527" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M527" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N527" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O527" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P527" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q527" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R527" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S527" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T527" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U527" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V527" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W527" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X527" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y527" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z527" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA527" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB527" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC527" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD527" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="528" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A528" s="2">
+        <v>45203.9646358912</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D528" s="1">
+        <v>20202331</v>
+      </c>
+      <c r="E528" s="1" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F528" s="1">
+        <v>3</v>
+      </c>
+      <c r="G528" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H528" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I528" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J528" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K528" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L528" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M528" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N528" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O528" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P528" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q528" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R528" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S528" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T528" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U528" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V528" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W528" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X528" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y528" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z528" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA528" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB528" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC528" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD528" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="529" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A529" s="2">
+        <v>45203.977120393523</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D529" s="1">
+        <v>20222838</v>
+      </c>
+      <c r="E529" s="1" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F529" s="1">
+        <v>3</v>
+      </c>
+      <c r="G529" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H529" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I529" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J529" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K529" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L529" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M529" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N529" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O529" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P529" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q529" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R529" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S529" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T529" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U529" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V529" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W529" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X529" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y529" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z529" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA529" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB529" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC529" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD529" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="530" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A530" s="2">
+        <v>45204.045658460644</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D530" s="1">
+        <v>20232712</v>
+      </c>
+      <c r="E530" s="1" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F530" s="1">
+        <v>3</v>
+      </c>
+      <c r="G530" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H530" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I530" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J530" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K530" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L530" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M530" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N530" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O530" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P530" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q530" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R530" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S530" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T530" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U530" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V530" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W530" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X530" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y530" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z530" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA530" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB530" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC530" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD530" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="531" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A531" s="2">
+        <v>45204.446020046293</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D531" s="1">
+        <v>20235252</v>
+      </c>
+      <c r="E531" s="1" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F531" s="1">
+        <v>3</v>
+      </c>
+      <c r="G531" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H531" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I531" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J531" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K531" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L531" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M531" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N531" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O531" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P531" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q531" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R531" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S531" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T531" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U531" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V531" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W531" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X531" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y531" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z531" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA531" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB531" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC531" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD531" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="532" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A532" s="2">
+        <v>45204.511441921291</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D532" s="1">
+        <v>20236785</v>
+      </c>
+      <c r="E532" s="1" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F532" s="1">
+        <v>3</v>
+      </c>
+      <c r="G532" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H532" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I532" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J532" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K532" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L532" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M532" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N532" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O532" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P532" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q532" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R532" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S532" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T532" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U532" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V532" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W532" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X532" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y532" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z532" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA532" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB532" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC532" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD532" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="533" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A533" s="2">
+        <v>45204.511610057874</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D533" s="1">
+        <v>20236768</v>
+      </c>
+      <c r="E533" s="1" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F533" s="1">
+        <v>3</v>
+      </c>
+      <c r="G533" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H533" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I533" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J533" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K533" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L533" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M533" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N533" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O533" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P533" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q533" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R533" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S533" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T533" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U533" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V533" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W533" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X533" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y533" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z533" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA533" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB533" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC533" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD533" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="534" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A534" s="2">
+        <v>45204.537156886574</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D534" s="1">
+        <v>20217071</v>
+      </c>
+      <c r="E534" s="1" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F534" s="1">
+        <v>3</v>
+      </c>
+      <c r="G534" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H534" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I534" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J534" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K534" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L534" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M534" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N534" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O534" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P534" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q534" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R534" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S534" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T534" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U534" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V534" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W534" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X534" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y534" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z534" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA534" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB534" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC534" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD534" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="535" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A535" s="2">
+        <v>45204.611574745373</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D535" s="1">
+        <v>20236623</v>
+      </c>
+      <c r="E535" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F535" s="1">
+        <v>3</v>
+      </c>
+      <c r="G535" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H535" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I535" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J535" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K535" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L535" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M535" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N535" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O535" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P535" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q535" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R535" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S535" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T535" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U535" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V535" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W535" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X535" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y535" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z535" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA535" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB535" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC535" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD535" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="536" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A536" s="2">
+        <v>45204.626458726852</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D536" s="1">
+        <v>20233245</v>
+      </c>
+      <c r="E536" s="1" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F536" s="1">
+        <v>2</v>
+      </c>
+      <c r="G536" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H536" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I536" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J536" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K536" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L536" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M536" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N536" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O536" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P536" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q536" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R536" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S536" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T536" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U536" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V536" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W536" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X536" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y536" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z536" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA536" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB536" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC536" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD536" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="537" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A537" s="2">
+        <v>45204.626636157409</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1334</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D537" s="1">
+        <v>20203515</v>
+      </c>
+      <c r="E537" s="1" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F537" s="1">
+        <v>3</v>
+      </c>
+      <c r="G537" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H537" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I537" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J537" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="K537" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L537" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M537" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N537" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O537" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P537" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q537" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R537" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S537" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="T537" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U537" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V537" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W537" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X537" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y537" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z537" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA537" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB537" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC537" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD537" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="538" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A538" s="2">
+        <v>45204.660948657409</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D538" s="1">
+        <v>20226613</v>
+      </c>
+      <c r="E538" s="1" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F538" s="1">
+        <v>3</v>
+      </c>
+      <c r="G538" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H538" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I538" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J538" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K538" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L538" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M538" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N538" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O538" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P538" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q538" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R538" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S538" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T538" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U538" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V538" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W538" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X538" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y538" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z538" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA538" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB538" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC538" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD538" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="539" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A539" s="2">
+        <v>45204.720790162042</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C539" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D539" s="1">
+        <v>20212233</v>
+      </c>
+      <c r="E539" s="1" t="s">
+        <v>1339</v>
+      </c>
+      <c r="F539" s="1">
+        <v>3</v>
+      </c>
+      <c r="G539" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H539" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I539" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J539" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K539" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L539" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M539" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N539" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O539" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P539" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q539" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R539" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S539" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T539" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U539" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V539" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W539" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X539" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y539" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z539" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA539" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB539" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC539" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD539" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="540" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A540" s="2">
+        <v>45204.736908784718</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D540" s="1">
+        <v>20233344</v>
+      </c>
+      <c r="E540" s="1" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F540" s="1">
+        <v>3</v>
+      </c>
+      <c r="G540" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H540" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I540" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J540" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K540" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L540" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M540" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N540" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O540" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P540" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q540" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R540" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S540" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T540" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U540" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V540" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W540" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X540" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y540" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z540" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA540" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB540" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC540" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD540" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="541" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A541" s="2">
+        <v>45204.784240196765</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C541" s="5" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D541" s="1">
+        <v>20232354</v>
+      </c>
+      <c r="E541" s="1" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F541" s="1">
+        <v>3</v>
+      </c>
+      <c r="G541" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H541" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I541" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J541" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K541" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L541" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M541" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N541" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O541" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P541" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q541" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R541" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S541" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T541" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U541" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V541" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W541" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X541" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y541" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z541" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA541" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB541" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC541" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD541" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="542" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A542" s="2">
+        <v>45204.817996168982</v>
+      </c>
+      <c r="B542" s="1" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C542" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D542" s="1">
+        <v>20232617</v>
+      </c>
+      <c r="E542" s="1" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F542" s="1">
+        <v>3</v>
+      </c>
+      <c r="G542" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H542" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I542" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J542" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K542" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L542" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M542" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N542" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O542" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P542" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q542" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R542" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S542" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T542" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U542" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V542" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W542" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X542" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y542" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z542" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA542" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB542" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC542" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD542" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="543" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A543" s="2">
+        <v>45204.845043958332</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D543" s="1">
+        <v>20182517</v>
+      </c>
+      <c r="E543" s="1" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F543" s="1">
+        <v>3</v>
+      </c>
+      <c r="G543" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H543" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I543" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J543" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K543" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L543" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M543" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N543" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O543" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P543" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q543" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R543" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S543" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T543" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U543" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V543" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W543" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X543" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y543" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z543" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA543" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB543" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC543" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD543" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="544" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A544" s="2">
+        <v>45204.890783958333</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D544" s="1">
+        <v>20222561</v>
+      </c>
+      <c r="E544" s="1" t="s">
+        <v>1349</v>
+      </c>
+      <c r="F544" s="1">
+        <v>3</v>
+      </c>
+      <c r="G544" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H544" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I544" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J544" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="K544" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L544" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M544" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N544" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O544" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P544" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q544" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R544" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S544" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T544" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U544" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V544" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W544" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X544" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y544" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z544" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA544" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB544" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC544" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD544" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="545" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A545" s="2">
+        <v>45204.914051851854</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D545" s="1">
+        <v>20232114</v>
+      </c>
+      <c r="E545" s="1" t="s">
+        <v>1351</v>
+      </c>
+      <c r="F545" s="1">
+        <v>3</v>
+      </c>
+      <c r="G545" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H545" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I545" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J545" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K545" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L545" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M545" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N545" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O545" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P545" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q545" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R545" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S545" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T545" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U545" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V545" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W545" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X545" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y545" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z545" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA545" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB545" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC545" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD545" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="546" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A546" s="2">
+        <v>45204.931552337963</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D546" s="1">
+        <v>20221730</v>
+      </c>
+      <c r="E546" s="1" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F546" s="1">
+        <v>3</v>
+      </c>
+      <c r="G546" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H546" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I546" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J546" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K546" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L546" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M546" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N546" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O546" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P546" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q546" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R546" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S546" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T546" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U546" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V546" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W546" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X546" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y546" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z546" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA546" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB546" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC546" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD546" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="547" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A547" s="2">
+        <v>45204.937306840278</v>
+      </c>
+      <c r="B547" s="1" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D547" s="1">
+        <v>20233817</v>
+      </c>
+      <c r="E547" s="1" t="s">
+        <v>1356</v>
+      </c>
+      <c r="F547" s="1">
+        <v>3</v>
+      </c>
+      <c r="G547" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H547" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I547" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J547" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K547" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L547" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M547" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N547" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O547" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P547" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q547" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R547" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S547" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T547" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U547" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V547" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W547" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X547" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y547" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z547" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA547" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB547" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC547" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD547" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="548" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A548" s="2">
+        <v>45204.951525358796</v>
+      </c>
+      <c r="B548" s="1" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D548" s="1">
+        <v>20236760</v>
+      </c>
+      <c r="E548" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F548" s="1">
+        <v>3</v>
+      </c>
+      <c r="G548" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H548" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I548" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J548" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K548" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L548" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M548" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N548" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O548" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P548" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q548" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R548" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S548" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T548" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U548" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V548" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W548" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X548" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y548" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z548" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA548" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB548" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC548" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD548" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="549" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A549" s="2">
+        <v>45205.062998680558</v>
+      </c>
+      <c r="B549" s="1" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C549" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D549" s="1">
+        <v>20232328</v>
+      </c>
+      <c r="E549" s="1" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F549" s="1">
+        <v>3</v>
+      </c>
+      <c r="G549" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H549" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I549" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J549" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K549" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L549" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M549" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N549" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O549" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P549" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q549" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R549" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S549" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T549" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U549" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V549" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W549" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X549" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y549" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z549" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA549" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB549" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC549" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD549" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="550" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A550" s="2">
+        <v>45205.090644560187</v>
+      </c>
+      <c r="B550" s="1" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C550" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D550" s="1">
+        <v>20233244</v>
+      </c>
+      <c r="E550" s="1" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F550" s="1">
+        <v>3</v>
+      </c>
+      <c r="G550" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H550" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I550" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J550" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K550" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L550" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M550" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N550" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O550" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P550" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q550" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R550" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S550" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T550" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U550" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V550" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W550" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X550" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y550" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z550" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA550" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB550" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC550" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD550" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="551" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A551" s="2">
+        <v>45205.140295266203</v>
+      </c>
+      <c r="B551" s="1" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D551" s="1">
+        <v>20236628</v>
+      </c>
+      <c r="E551" s="1" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F551" s="1">
+        <v>3</v>
+      </c>
+      <c r="G551" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H551" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I551" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J551" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K551" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L551" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M551" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N551" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O551" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P551" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q551" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R551" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S551" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T551" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U551" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V551" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W551" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X551" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y551" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z551" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA551" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB551" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC551" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD551" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="552" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A552" s="2">
+        <v>45205.38275300926</v>
+      </c>
+      <c r="B552" s="1" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C552" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D552" s="1">
+        <v>20191536</v>
+      </c>
+      <c r="E552" s="1" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F552" s="1">
+        <v>3</v>
+      </c>
+      <c r="G552" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H552" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I552" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J552" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K552" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L552" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M552" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N552" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O552" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P552" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q552" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R552" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S552" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T552" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U552" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V552" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W552" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X552" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y552" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z552" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA552" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB552" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC552" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD552" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="553" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A553" s="2">
+        <v>45205.477357222218</v>
+      </c>
+      <c r="B553" s="1" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C553" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D553" s="1">
+        <v>20233610</v>
+      </c>
+      <c r="E553" s="1" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F553" s="1">
+        <v>3</v>
+      </c>
+      <c r="G553" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H553" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I553" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J553" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K553" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L553" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M553" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N553" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O553" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P553" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q553" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R553" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S553" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T553" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U553" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V553" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W553" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X553" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y553" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z553" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA553" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB553" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC553" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD553" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="554" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A554" s="2">
+        <v>45205.559349293981</v>
+      </c>
+      <c r="B554" s="1" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D554" s="1">
+        <v>20236231</v>
+      </c>
+      <c r="E554" s="1" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F554" s="1">
+        <v>1</v>
+      </c>
+      <c r="G554" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="H554" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I554" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="J554" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="K554" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L554" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M554" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N554" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O554" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P554" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q554" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R554" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="S554" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T554" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U554" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V554" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W554" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X554" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y554" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z554" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA554" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB554" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC554" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD554" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="555" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A555" s="2">
+        <v>45205.597220902782</v>
+      </c>
+      <c r="B555" s="1" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D555" s="1">
+        <v>20233634</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F555" s="1">
+        <v>3</v>
+      </c>
+      <c r="G555" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H555" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I555" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J555" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K555" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L555" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M555" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N555" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O555" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P555" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q555" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R555" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S555" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T555" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U555" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V555" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W555" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X555" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y555" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z555" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA555" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB555" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC555" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD555" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="556" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A556" s="2">
+        <v>45205.602208391203</v>
+      </c>
+      <c r="B556" s="1" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C556" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D556" s="1">
+        <v>20232629</v>
+      </c>
+      <c r="E556" s="1" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F556" s="1">
+        <v>3</v>
+      </c>
+      <c r="G556" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H556" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I556" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J556" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K556" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L556" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M556" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N556" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O556" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P556" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q556" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R556" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S556" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T556" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U556" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V556" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W556" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X556" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y556" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z556" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA556" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB556" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC556" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD556" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="557" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A557" s="2">
+        <v>45205.625809745368</v>
+      </c>
+      <c r="B557" s="1" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C557" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D557" s="1">
+        <v>20222429</v>
+      </c>
+      <c r="E557" s="1" t="s">
+        <v>1376</v>
+      </c>
+      <c r="F557" s="1">
+        <v>3</v>
+      </c>
+      <c r="G557" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H557" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I557" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J557" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K557" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L557" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M557" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N557" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O557" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P557" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q557" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R557" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S557" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T557" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U557" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V557" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W557" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X557" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y557" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z557" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA557" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB557" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC557" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD557" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="558" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A558" s="2">
+        <v>45205.627152453701</v>
+      </c>
+      <c r="B558" s="1" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C558" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D558" s="1">
+        <v>20235190</v>
+      </c>
+      <c r="E558" s="1" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F558" s="1">
+        <v>3</v>
+      </c>
+      <c r="G558" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H558" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I558" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J558" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K558" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L558" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M558" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N558" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O558" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P558" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q558" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R558" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S558" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T558" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U558" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V558" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W558" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X558" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y558" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z558" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA558" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB558" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC558" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD558" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="559" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A559" s="2">
+        <v>45205.632403449075</v>
+      </c>
+      <c r="B559" s="1" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C559" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D559" s="1">
+        <v>20232946</v>
+      </c>
+      <c r="E559" s="1" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F559" s="1">
+        <v>3</v>
+      </c>
+      <c r="G559" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H559" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I559" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J559" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K559" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L559" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M559" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N559" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O559" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P559" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q559" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R559" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S559" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T559" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U559" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V559" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W559" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X559" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y559" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z559" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA559" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB559" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC559" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD559" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="560" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A560" s="2">
+        <v>45205.653642789352</v>
+      </c>
+      <c r="B560" s="1" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C560" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D560" s="1">
+        <v>20206410</v>
+      </c>
+      <c r="E560" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F560" s="1">
+        <v>3</v>
+      </c>
+      <c r="G560" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H560" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I560" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J560" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K560" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L560" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M560" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N560" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O560" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P560" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q560" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R560" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S560" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T560" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U560" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V560" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W560" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X560" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y560" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z560" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA560" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB560" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC560" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD560" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="561" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A561" s="2">
+        <v>45205.666100613424</v>
+      </c>
+      <c r="B561" s="1" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C561" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D561" s="1">
+        <v>20222804</v>
+      </c>
+      <c r="E561" s="1" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F561" s="1">
+        <v>3</v>
+      </c>
+      <c r="G561" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H561" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I561" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J561" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K561" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L561" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M561" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N561" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O561" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P561" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q561" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R561" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S561" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T561" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U561" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V561" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W561" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X561" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y561" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z561" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA561" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB561" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC561" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD561" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="562" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A562" s="2">
+        <v>45205.670719062502</v>
+      </c>
+      <c r="B562" s="1" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C562" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D562" s="1">
+        <v>20236608</v>
+      </c>
+      <c r="E562" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F562" s="1">
+        <v>3</v>
+      </c>
+      <c r="G562" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H562" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I562" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J562" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K562" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L562" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M562" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N562" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O562" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P562" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q562" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R562" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S562" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T562" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U562" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V562" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W562" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X562" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y562" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z562" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA562" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB562" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC562" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD562" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="563" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A563" s="2">
+        <v>45205.692903854171</v>
+      </c>
+      <c r="B563" s="1" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C563" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D563" s="1">
+        <v>20234147</v>
+      </c>
+      <c r="E563" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F563" s="1">
+        <v>3</v>
+      </c>
+      <c r="G563" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H563" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I563" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J563" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K563" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L563" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M563" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N563" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O563" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P563" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q563" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R563" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S563" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T563" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U563" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V563" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W563" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X563" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y563" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z563" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA563" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB563" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC563" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD563" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="564" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A564" s="2">
+        <v>45205.699581365741</v>
+      </c>
+      <c r="B564" s="1" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C564" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D564" s="1">
+        <v>20192902</v>
+      </c>
+      <c r="E564" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F564" s="1">
+        <v>3</v>
+      </c>
+      <c r="G564" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H564" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I564" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J564" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K564" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L564" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M564" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N564" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O564" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P564" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q564" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R564" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S564" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T564" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U564" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V564" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W564" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X564" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y564" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z564" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA564" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB564" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC564" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD564" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="565" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A565" s="2">
+        <v>45205.72491957176</v>
+      </c>
+      <c r="B565" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D565" s="1">
+        <v>20202622</v>
+      </c>
+      <c r="E565" s="1" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F565" s="1">
+        <v>3</v>
+      </c>
+      <c r="G565" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H565" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I565" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J565" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K565" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L565" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M565" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N565" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O565" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P565" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q565" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R565" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S565" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T565" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U565" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V565" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W565" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X565" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y565" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z565" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA565" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB565" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC565" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD565" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="566" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A566" s="2">
+        <v>45205.762297858797</v>
+      </c>
+      <c r="B566" s="1" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C566" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D566" s="1">
+        <v>20222213</v>
+      </c>
+      <c r="E566" s="1" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F566" s="1">
+        <v>3</v>
+      </c>
+      <c r="G566" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H566" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I566" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J566" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K566" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L566" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M566" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N566" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O566" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P566" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q566" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R566" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S566" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T566" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U566" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V566" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W566" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X566" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y566" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z566" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA566" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB566" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC566" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD566" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="567" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A567" s="2">
+        <v>45205.794123634259</v>
+      </c>
+      <c r="B567" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C567" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D567" s="1">
+        <v>20235276</v>
+      </c>
+      <c r="E567" s="1" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F567" s="1">
+        <v>3</v>
+      </c>
+      <c r="G567" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H567" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I567" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J567" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K567" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L567" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M567" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N567" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O567" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P567" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q567" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R567" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S567" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T567" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U567" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V567" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W567" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X567" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y567" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z567" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA567" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB567" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC567" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD567" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="568" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A568" s="2">
+        <v>45205.824018229163</v>
+      </c>
+      <c r="B568" s="1" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C568" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D568" s="1">
+        <v>20235155</v>
+      </c>
+      <c r="E568" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F568" s="1">
+        <v>3</v>
+      </c>
+      <c r="G568" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H568" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I568" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J568" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K568" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L568" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M568" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N568" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O568" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P568" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q568" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R568" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S568" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T568" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U568" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V568" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W568" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X568" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y568" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z568" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA568" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB568" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC568" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD568" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="569" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A569" s="2">
+        <v>45205.826698344907</v>
+      </c>
+      <c r="B569" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C569" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D569" s="1">
+        <v>20232612</v>
+      </c>
+      <c r="E569" s="1" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F569" s="1">
+        <v>3</v>
+      </c>
+      <c r="G569" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H569" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I569" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J569" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K569" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L569" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M569" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N569" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O569" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P569" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q569" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R569" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S569" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T569" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U569" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V569" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W569" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X569" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y569" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z569" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA569" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB569" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC569" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD569" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="570" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A570" s="2">
+        <v>45205.833845983798</v>
+      </c>
+      <c r="B570" s="1" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C570" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D570" s="1">
+        <v>20202223</v>
+      </c>
+      <c r="E570" s="1" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F570" s="1">
+        <v>3</v>
+      </c>
+      <c r="G570" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H570" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I570" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J570" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K570" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L570" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M570" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N570" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O570" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P570" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q570" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R570" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S570" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T570" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U570" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V570" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W570" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X570" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y570" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z570" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA570" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB570" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC570" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD570" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="571" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A571" s="2">
+        <v>45205.874687962962</v>
+      </c>
+      <c r="B571" s="1" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C571" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D571" s="1">
+        <v>20234136</v>
+      </c>
+      <c r="E571" s="1" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F571" s="1">
+        <v>3</v>
+      </c>
+      <c r="G571" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H571" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I571" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J571" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K571" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L571" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M571" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N571" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O571" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P571" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q571" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R571" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S571" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T571" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U571" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V571" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W571" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X571" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y571" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z571" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA571" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB571" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC571" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD571" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="572" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A572" s="2">
+        <v>45205.918614861112</v>
+      </c>
+      <c r="B572" s="1" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C572" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D572" s="1">
+        <v>20205239</v>
+      </c>
+      <c r="E572" s="1" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F572" s="1">
+        <v>3</v>
+      </c>
+      <c r="G572" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H572" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I572" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J572" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K572" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L572" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M572" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N572" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O572" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P572" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q572" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R572" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S572" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T572" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U572" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V572" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W572" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X572" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y572" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z572" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA572" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB572" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC572" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD572" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="573" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A573" s="2">
+        <v>45205.986545520835</v>
+      </c>
+      <c r="B573" s="1" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C573" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D573" s="1">
+        <v>20233052</v>
+      </c>
+      <c r="E573" s="1" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F573" s="1">
+        <v>3</v>
+      </c>
+      <c r="G573" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H573" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I573" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J573" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K573" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L573" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M573" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N573" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O573" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P573" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q573" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R573" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S573" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T573" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U573" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V573" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W573" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X573" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y573" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z573" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA573" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB573" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC573" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD573" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="574" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A574" s="2">
+        <v>45205.993203113423</v>
+      </c>
+      <c r="B574" s="1" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C574" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D574" s="1">
+        <v>20193934</v>
+      </c>
+      <c r="E574" s="1" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F574" s="1">
+        <v>3</v>
+      </c>
+      <c r="G574" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H574" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I574" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J574" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K574" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L574" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M574" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N574" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O574" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P574" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q574" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R574" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S574" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T574" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U574" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V574" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W574" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X574" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y574" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z574" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA574" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB574" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC574" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD574" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="575" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A575" s="2">
+        <v>45206.002024976857</v>
+      </c>
+      <c r="B575" s="1" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C575" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D575" s="1">
+        <v>20225207</v>
+      </c>
+      <c r="E575" s="1" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F575" s="1">
+        <v>3</v>
+      </c>
+      <c r="G575" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H575" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I575" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J575" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K575" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L575" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M575" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N575" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O575" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P575" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q575" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R575" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S575" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T575" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U575" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V575" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W575" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X575" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y575" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z575" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA575" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB575" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC575" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD575" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="576" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A576" s="2">
+        <v>45206.050350937498</v>
+      </c>
+      <c r="B576" s="1" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C576" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D576" s="1">
+        <v>20192136</v>
+      </c>
+      <c r="E576" s="1" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F576" s="1">
+        <v>3</v>
+      </c>
+      <c r="G576" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H576" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I576" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J576" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K576" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L576" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M576" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N576" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O576" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P576" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q576" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R576" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S576" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T576" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U576" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V576" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W576" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X576" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y576" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z576" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA576" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB576" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC576" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD576" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="577" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A577" s="2">
+        <v>45206.050625601856</v>
+      </c>
+      <c r="B577" s="1" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C577" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D577" s="1">
+        <v>20232537</v>
+      </c>
+      <c r="E577" s="1" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F577" s="1">
+        <v>3</v>
+      </c>
+      <c r="G577" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H577" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I577" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J577" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K577" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L577" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M577" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N577" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O577" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P577" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q577" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R577" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S577" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T577" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U577" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V577" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W577" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X577" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y577" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z577" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA577" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB577" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC577" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD577" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="578" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A578" s="2">
+        <v>45206.060264502317</v>
+      </c>
+      <c r="B578" s="1" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C578" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D578" s="1">
+        <v>20231502</v>
+      </c>
+      <c r="E578" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F578" s="1">
+        <v>3</v>
+      </c>
+      <c r="G578" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H578" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I578" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J578" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K578" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L578" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M578" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N578" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O578" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P578" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q578" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R578" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S578" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T578" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U578" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V578" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W578" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X578" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y578" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z578" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA578" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB578" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC578" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD578" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="579" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A579" s="2">
+        <v>45206.074670983799</v>
+      </c>
+      <c r="B579" s="1" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C579" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D579" s="1">
+        <v>20236771</v>
+      </c>
+      <c r="E579" s="1" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F579" s="1">
+        <v>3</v>
+      </c>
+      <c r="G579" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H579" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I579" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J579" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K579" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L579" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M579" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N579" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O579" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P579" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q579" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R579" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S579" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T579" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U579" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V579" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W579" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X579" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y579" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z579" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA579" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB579" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC579" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD579" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="580" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A580" s="2">
+        <v>45206.099836770838</v>
+      </c>
+      <c r="B580" s="1" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C580" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D580" s="1">
+        <v>20222950</v>
+      </c>
+      <c r="E580" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F580" s="1">
+        <v>3</v>
+      </c>
+      <c r="G580" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H580" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I580" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J580" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K580" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L580" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M580" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N580" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O580" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P580" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q580" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R580" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S580" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T580" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U580" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V580" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W580" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X580" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y580" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z580" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA580" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB580" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC580" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD580" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="581" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A581" s="2">
+        <v>45206.17062863426</v>
+      </c>
+      <c r="B581" s="1" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C581" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D581" s="1">
+        <v>20202750</v>
+      </c>
+      <c r="E581" s="1" t="s">
+        <v>1423</v>
+      </c>
+      <c r="F581" s="1">
+        <v>3</v>
+      </c>
+      <c r="G581" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H581" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I581" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J581" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K581" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L581" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M581" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N581" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O581" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P581" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q581" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R581" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S581" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T581" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U581" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V581" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W581" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X581" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y581" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z581" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA581" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB581" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC581" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD581" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="582" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A582" s="2">
+        <v>45206.352014050921</v>
+      </c>
+      <c r="B582" s="1" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D582" s="1">
+        <v>20203224</v>
+      </c>
+      <c r="E582" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="F582" s="1">
+        <v>3</v>
+      </c>
+      <c r="G582" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H582" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I582" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J582" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K582" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L582" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M582" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N582" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O582" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P582" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q582" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R582" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S582" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T582" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U582" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V582" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W582" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X582" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y582" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z582" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA582" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB582" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC582" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD582" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="583" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A583" s="2">
+        <v>45206.50571232639</v>
+      </c>
+      <c r="B583" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C583" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D583" s="1">
+        <v>20233903</v>
+      </c>
+      <c r="E583" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="F583" s="1">
+        <v>3</v>
+      </c>
+      <c r="G583" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H583" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I583" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J583" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K583" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L583" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M583" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N583" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O583" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P583" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q583" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R583" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S583" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T583" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U583" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V583" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W583" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X583" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y583" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z583" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA583" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB583" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC583" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD583" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="584" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A584" s="2">
+        <v>45206.518155219906</v>
+      </c>
+      <c r="B584" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C584" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D584" s="1">
+        <v>20223259</v>
+      </c>
+      <c r="E584" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="F584" s="1">
+        <v>3</v>
+      </c>
+      <c r="G584" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H584" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I584" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J584" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K584" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L584" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M584" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N584" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O584" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P584" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q584" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R584" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S584" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T584" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U584" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V584" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W584" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X584" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y584" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z584" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA584" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB584" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC584" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD584" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="585" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A585" s="2">
+        <v>45206.539318159717</v>
+      </c>
+      <c r="B585" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C585" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D585" s="1">
+        <v>20183845</v>
+      </c>
+      <c r="E585" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F585" s="1">
+        <v>3</v>
+      </c>
+      <c r="G585" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H585" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I585" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J585" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K585" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L585" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M585" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N585" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O585" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P585" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q585" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R585" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S585" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T585" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U585" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V585" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W585" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X585" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y585" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z585" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA585" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB585" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC585" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD585" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="586" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A586" s="2">
+        <v>45206.557116087963</v>
+      </c>
+      <c r="B586" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C586" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D586" s="1">
+        <v>20232342</v>
+      </c>
+      <c r="E586" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F586" s="1">
+        <v>3</v>
+      </c>
+      <c r="G586" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H586" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I586" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J586" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K586" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L586" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M586" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N586" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O586" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P586" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q586" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R586" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S586" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T586" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U586" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V586" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W586" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X586" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y586" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z586" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA586" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB586" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC586" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD586" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="587" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A587" s="2">
+        <v>45206.571051747684</v>
+      </c>
+      <c r="B587" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C587" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D587" s="1">
+        <v>20212210</v>
+      </c>
+      <c r="E587" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="F587" s="1">
+        <v>3</v>
+      </c>
+      <c r="G587" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H587" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I587" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J587" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K587" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L587" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M587" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N587" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O587" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P587" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q587" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R587" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S587" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T587" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U587" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V587" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W587" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X587" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y587" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z587" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA587" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB587" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC587" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD587" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="588" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A588" s="2">
+        <v>45206.593830347221</v>
+      </c>
+      <c r="B588" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C588" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D588" s="1">
+        <v>20232545</v>
+      </c>
+      <c r="E588" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F588" s="1">
+        <v>3</v>
+      </c>
+      <c r="G588" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H588" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I588" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J588" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K588" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L588" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M588" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N588" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O588" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P588" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q588" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R588" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S588" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T588" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U588" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V588" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W588" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X588" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y588" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z588" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA588" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB588" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC588" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD588" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="589" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A589" s="2">
+        <v>45206.607369351856</v>
+      </c>
+      <c r="B589" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C589" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D589" s="1">
+        <v>20233819</v>
+      </c>
+      <c r="E589" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F589" s="1">
+        <v>3</v>
+      </c>
+      <c r="G589" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H589" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I589" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J589" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K589" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L589" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M589" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N589" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O589" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P589" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q589" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R589" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S589" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T589" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U589" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V589" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W589" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X589" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y589" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z589" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA589" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB589" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC589" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD589" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_230925.xlsx
+++ b/R/data/literacy_230925.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A3F71B-2C7F-A248-8A8B-E4E2E11C18D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077732B8-A7A4-3D42-A9D5-D84CD262D4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="800" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33140" yWindow="640" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15947" uniqueCount="1439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16703" uniqueCount="1496">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -4341,6 +4341,177 @@
   </si>
   <si>
     <t>성동휘</t>
+  </si>
+  <si>
+    <t>pmr0093@naver.com</t>
+  </si>
+  <si>
+    <t>박미래</t>
+  </si>
+  <si>
+    <t>osy2858@gmail.com</t>
+  </si>
+  <si>
+    <t>오수연</t>
+  </si>
+  <si>
+    <t>pks5176275@naver.com</t>
+  </si>
+  <si>
+    <t>박광성</t>
+  </si>
+  <si>
+    <t>young960403@gmail.com</t>
+  </si>
+  <si>
+    <t>장영준</t>
+  </si>
+  <si>
+    <t>pyjun0607@gmail.com</t>
+  </si>
+  <si>
+    <t>박연준</t>
+  </si>
+  <si>
+    <t>qwertyuiop8437@gmail.com</t>
+  </si>
+  <si>
+    <t>정수환</t>
+  </si>
+  <si>
+    <t>ryuthgud@naver.com</t>
+  </si>
+  <si>
+    <t>류소형</t>
+  </si>
+  <si>
+    <t>hyj4213@naver.com</t>
+  </si>
+  <si>
+    <t>함영준</t>
+  </si>
+  <si>
+    <t>chm040305@naver.com</t>
+  </si>
+  <si>
+    <t>최현민</t>
+  </si>
+  <si>
+    <t>chominseo1029@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">언어청각학부 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">조민서 </t>
+  </si>
+  <si>
+    <t>bsb012345@naver.com</t>
+  </si>
+  <si>
+    <t>박준혁</t>
+  </si>
+  <si>
+    <t>gaddong0507@gmail.com</t>
+  </si>
+  <si>
+    <t>김민균</t>
+  </si>
+  <si>
+    <t>dlstn3085@naver.com</t>
+  </si>
+  <si>
+    <t>한인수</t>
+  </si>
+  <si>
+    <t>tjwls7140@naver.com</t>
+  </si>
+  <si>
+    <t>황서진</t>
+  </si>
+  <si>
+    <t>psm4155@gmail.com</t>
+  </si>
+  <si>
+    <t>박진주</t>
+  </si>
+  <si>
+    <t>h20203411@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>반초원</t>
+  </si>
+  <si>
+    <t>jamesjm0612@gmail.com</t>
+  </si>
+  <si>
+    <t>정재민</t>
+  </si>
+  <si>
+    <t>dlwjdgh0808@naver.com</t>
+  </si>
+  <si>
+    <t>이정호</t>
+  </si>
+  <si>
+    <t>cupholderr100@gmail.com</t>
+  </si>
+  <si>
+    <t>홍민지</t>
+  </si>
+  <si>
+    <t>skysun0510@naver.com</t>
+  </si>
+  <si>
+    <t>유중선</t>
+  </si>
+  <si>
+    <t>jjyyjj5463@gmail.com</t>
+  </si>
+  <si>
+    <t>정예진</t>
+  </si>
+  <si>
+    <t>gwkang0330@gmail.com</t>
+  </si>
+  <si>
+    <t>강건우</t>
+  </si>
+  <si>
+    <t>ind_b3@naver.com</t>
+  </si>
+  <si>
+    <t>김지안</t>
+  </si>
+  <si>
+    <t>umseoy2@gmail.com</t>
+  </si>
+  <si>
+    <t>엄서영</t>
+  </si>
+  <si>
+    <t>rladbqls1728@naver.com</t>
+  </si>
+  <si>
+    <t>김유빈</t>
+  </si>
+  <si>
+    <t>tjr5457@naver.com</t>
+  </si>
+  <si>
+    <t>정현석</t>
+  </si>
+  <si>
+    <t>smile001118@naver.com</t>
+  </si>
+  <si>
+    <t>홍성준</t>
+  </si>
+  <si>
+    <t>namyh995@gmail.com</t>
+  </si>
+  <si>
+    <t>남윤혁</t>
   </si>
 </sst>
 </file>
@@ -4630,11 +4801,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD589"/>
+  <dimension ref="A1:AD617"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A571" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C592" sqref="C592"/>
+      <pane ySplit="1" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D622" sqref="D622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -58830,6 +59001,2582 @@
         <v>207</v>
       </c>
     </row>
+    <row r="590" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A590" s="2">
+        <v>45206.6506725</v>
+      </c>
+      <c r="B590" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C590" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D590" s="1">
+        <v>20192319</v>
+      </c>
+      <c r="E590" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F590" s="1">
+        <v>3</v>
+      </c>
+      <c r="G590" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H590" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I590" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J590" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K590" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L590" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M590" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N590" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O590" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P590" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q590" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R590" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S590" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T590" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U590" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V590" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W590" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X590" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y590" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z590" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA590" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB590" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC590" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD590" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="591" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A591" s="2">
+        <v>45206.667497650458</v>
+      </c>
+      <c r="B591" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C591" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D591" s="1">
+        <v>20233826</v>
+      </c>
+      <c r="E591" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F591" s="1">
+        <v>3</v>
+      </c>
+      <c r="G591" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H591" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I591" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J591" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K591" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L591" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M591" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N591" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O591" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P591" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q591" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R591" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S591" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T591" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U591" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V591" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W591" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X591" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y591" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z591" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA591" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB591" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC591" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD591" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="592" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A592" s="2">
+        <v>45206.670101747688</v>
+      </c>
+      <c r="B592" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C592" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D592" s="1">
+        <v>20235161</v>
+      </c>
+      <c r="E592" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F592" s="1">
+        <v>3</v>
+      </c>
+      <c r="G592" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H592" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I592" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J592" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K592" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L592" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M592" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N592" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O592" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P592" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q592" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R592" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S592" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T592" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U592" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V592" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W592" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X592" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y592" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z592" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA592" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB592" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC592" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD592" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="593" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A593" s="2">
+        <v>45206.672317928242</v>
+      </c>
+      <c r="B593" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C593" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D593" s="1">
+        <v>20232748</v>
+      </c>
+      <c r="E593" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F593" s="1">
+        <v>3</v>
+      </c>
+      <c r="G593" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H593" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I593" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J593" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K593" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L593" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M593" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N593" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O593" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P593" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q593" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R593" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S593" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T593" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U593" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V593" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W593" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X593" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y593" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z593" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA593" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB593" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC593" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD593" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="594" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A594" s="2">
+        <v>45206.679223310188</v>
+      </c>
+      <c r="B594" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C594" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D594" s="1">
+        <v>20235168</v>
+      </c>
+      <c r="E594" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F594" s="1">
+        <v>3</v>
+      </c>
+      <c r="G594" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H594" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I594" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J594" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K594" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L594" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M594" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N594" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O594" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P594" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q594" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R594" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S594" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="T594" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U594" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V594" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W594" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X594" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y594" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z594" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA594" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB594" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC594" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD594" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="595" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A595" s="2">
+        <v>45206.686827708334</v>
+      </c>
+      <c r="B595" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C595" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D595" s="1">
+        <v>20231083</v>
+      </c>
+      <c r="E595" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F595" s="1">
+        <v>3</v>
+      </c>
+      <c r="G595" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H595" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I595" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J595" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K595" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L595" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M595" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N595" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O595" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P595" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q595" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R595" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S595" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T595" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U595" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V595" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W595" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X595" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y595" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z595" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA595" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB595" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC595" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD595" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="596" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A596" s="2">
+        <v>45206.692141712963</v>
+      </c>
+      <c r="B596" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C596" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D596" s="1">
+        <v>20232947</v>
+      </c>
+      <c r="E596" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F596" s="1">
+        <v>3</v>
+      </c>
+      <c r="G596" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H596" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I596" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J596" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K596" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L596" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M596" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N596" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O596" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P596" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q596" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R596" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S596" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T596" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U596" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V596" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W596" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X596" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y596" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z596" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA596" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB596" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC596" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD596" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="597" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A597" s="2">
+        <v>45206.697915543977</v>
+      </c>
+      <c r="B597" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C597" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D597" s="1">
+        <v>20232590</v>
+      </c>
+      <c r="E597" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="F597" s="1">
+        <v>3</v>
+      </c>
+      <c r="G597" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H597" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I597" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J597" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K597" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L597" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M597" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N597" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O597" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P597" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q597" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R597" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S597" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T597" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U597" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V597" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W597" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X597" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y597" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z597" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA597" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB597" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC597" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD597" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="598" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A598" s="2">
+        <v>45206.726892881939</v>
+      </c>
+      <c r="B598" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C598" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D598" s="1">
+        <v>20235273</v>
+      </c>
+      <c r="E598" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F598" s="1">
+        <v>3</v>
+      </c>
+      <c r="G598" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H598" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I598" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J598" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K598" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L598" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M598" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N598" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O598" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P598" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q598" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R598" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S598" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T598" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U598" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V598" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W598" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X598" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y598" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z598" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA598" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB598" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC598" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD598" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="599" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A599" s="2">
+        <v>45206.741481435187</v>
+      </c>
+      <c r="B599" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C599" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D599" s="1">
+        <v>20233959</v>
+      </c>
+      <c r="E599" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F599" s="1">
+        <v>3</v>
+      </c>
+      <c r="G599" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H599" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I599" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J599" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K599" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L599" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M599" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N599" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O599" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P599" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q599" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R599" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S599" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T599" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U599" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V599" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W599" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X599" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y599" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z599" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA599" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB599" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC599" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD599" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="600" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A600" s="2">
+        <v>45206.745014166663</v>
+      </c>
+      <c r="B600" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C600" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="D600" s="1">
+        <v>20183515</v>
+      </c>
+      <c r="E600" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F600" s="1">
+        <v>3</v>
+      </c>
+      <c r="G600" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H600" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I600" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J600" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K600" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L600" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M600" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N600" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O600" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P600" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q600" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R600" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S600" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T600" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U600" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V600" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W600" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X600" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y600" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z600" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA600" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB600" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC600" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD600" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="601" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A601" s="2">
+        <v>45206.760615659718</v>
+      </c>
+      <c r="B601" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C601" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D601" s="1">
+        <v>20232106</v>
+      </c>
+      <c r="E601" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F601" s="1">
+        <v>3</v>
+      </c>
+      <c r="G601" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H601" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I601" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J601" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K601" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L601" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M601" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N601" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O601" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P601" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q601" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R601" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="S601" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="T601" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U601" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V601" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W601" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X601" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y601" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z601" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA601" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB601" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC601" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD601" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="602" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A602" s="2">
+        <v>45206.76672782407</v>
+      </c>
+      <c r="B602" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C602" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D602" s="1">
+        <v>20192145</v>
+      </c>
+      <c r="E602" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F602" s="1">
+        <v>3</v>
+      </c>
+      <c r="G602" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H602" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I602" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J602" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K602" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L602" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M602" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N602" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O602" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P602" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q602" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R602" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S602" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T602" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U602" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V602" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W602" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X602" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y602" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z602" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA602" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB602" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC602" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD602" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="603" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A603" s="2">
+        <v>45206.773296655098</v>
+      </c>
+      <c r="B603" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C603" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D603" s="1">
+        <v>20233353</v>
+      </c>
+      <c r="E603" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F603" s="1">
+        <v>3</v>
+      </c>
+      <c r="G603" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H603" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I603" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J603" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K603" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L603" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M603" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N603" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O603" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P603" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q603" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R603" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S603" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T603" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U603" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V603" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W603" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X603" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y603" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z603" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA603" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB603" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC603" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD603" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="604" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A604" s="2">
+        <v>45206.776595555551</v>
+      </c>
+      <c r="B604" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C604" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D604" s="1">
+        <v>20231518</v>
+      </c>
+      <c r="E604" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F604" s="1">
+        <v>3</v>
+      </c>
+      <c r="G604" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H604" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I604" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J604" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K604" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L604" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M604" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N604" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O604" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P604" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q604" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R604" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S604" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T604" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U604" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V604" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W604" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X604" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y604" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z604" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA604" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB604" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC604" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD604" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="605" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A605" s="2">
+        <v>45206.783486793982</v>
+      </c>
+      <c r="B605" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D605" s="1">
+        <v>20203411</v>
+      </c>
+      <c r="E605" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F605" s="1">
+        <v>3</v>
+      </c>
+      <c r="G605" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H605" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I605" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J605" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K605" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L605" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M605" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N605" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O605" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P605" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q605" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R605" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S605" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T605" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U605" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V605" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W605" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X605" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y605" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z605" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA605" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB605" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC605" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD605" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="606" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A606" s="2">
+        <v>45206.806012800924</v>
+      </c>
+      <c r="B606" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C606" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D606" s="1">
+        <v>20231231</v>
+      </c>
+      <c r="E606" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F606" s="1">
+        <v>3</v>
+      </c>
+      <c r="G606" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H606" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I606" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J606" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K606" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L606" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M606" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N606" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O606" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P606" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q606" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R606" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S606" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T606" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U606" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V606" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W606" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X606" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y606" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z606" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA606" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB606" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC606" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD606" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="607" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A607" s="2">
+        <v>45206.808856365737</v>
+      </c>
+      <c r="B607" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C607" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="D607" s="1">
+        <v>20201083</v>
+      </c>
+      <c r="E607" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F607" s="1">
+        <v>3</v>
+      </c>
+      <c r="G607" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H607" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I607" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J607" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K607" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L607" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M607" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N607" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O607" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P607" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q607" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R607" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S607" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T607" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U607" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V607" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W607" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X607" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y607" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z607" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA607" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB607" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC607" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD607" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="608" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A608" s="2">
+        <v>45206.832824687503</v>
+      </c>
+      <c r="B608" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C608" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D608" s="1">
+        <v>20232592</v>
+      </c>
+      <c r="E608" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F608" s="1">
+        <v>3</v>
+      </c>
+      <c r="G608" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H608" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I608" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J608" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K608" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L608" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M608" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N608" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O608" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P608" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q608" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R608" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S608" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T608" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U608" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V608" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W608" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X608" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y608" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z608" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA608" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB608" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC608" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD608" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="609" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A609" s="2">
+        <v>45206.84171252315</v>
+      </c>
+      <c r="B609" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C609" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D609" s="1">
+        <v>20236268</v>
+      </c>
+      <c r="E609" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F609" s="1">
+        <v>3</v>
+      </c>
+      <c r="G609" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H609" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I609" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J609" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K609" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L609" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M609" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N609" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O609" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P609" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q609" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R609" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S609" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T609" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U609" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V609" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W609" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X609" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y609" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z609" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA609" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB609" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC609" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD609" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="610" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A610" s="2">
+        <v>45206.870217974538</v>
+      </c>
+      <c r="B610" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C610" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D610" s="1">
+        <v>20233034</v>
+      </c>
+      <c r="E610" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F610" s="1">
+        <v>3</v>
+      </c>
+      <c r="G610" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H610" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I610" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J610" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K610" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L610" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M610" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N610" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O610" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P610" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q610" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R610" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S610" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T610" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U610" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V610" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W610" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X610" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y610" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z610" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA610" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB610" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC610" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD610" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="611" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A611" s="2">
+        <v>45206.895919189818</v>
+      </c>
+      <c r="B611" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C611" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D611" s="1">
+        <v>20235101</v>
+      </c>
+      <c r="E611" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F611" s="1">
+        <v>3</v>
+      </c>
+      <c r="G611" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H611" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I611" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J611" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K611" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L611" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M611" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N611" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O611" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P611" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q611" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R611" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S611" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T611" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U611" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V611" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W611" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X611" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y611" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z611" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA611" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB611" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC611" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD611" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="612" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A612" s="2">
+        <v>45206.920861493054</v>
+      </c>
+      <c r="B612" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C612" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D612" s="1">
+        <v>20232523</v>
+      </c>
+      <c r="E612" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F612" s="1">
+        <v>3</v>
+      </c>
+      <c r="G612" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H612" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I612" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J612" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K612" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L612" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M612" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N612" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O612" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P612" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q612" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R612" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S612" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="T612" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U612" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V612" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W612" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X612" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y612" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z612" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA612" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB612" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC612" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD612" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="613" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A613" s="2">
+        <v>45206.940592997686</v>
+      </c>
+      <c r="B613" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C613" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D613" s="1">
+        <v>20233939</v>
+      </c>
+      <c r="E613" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F613" s="1">
+        <v>3</v>
+      </c>
+      <c r="G613" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H613" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I613" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J613" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K613" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L613" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M613" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N613" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O613" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P613" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q613" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R613" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S613" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T613" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U613" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V613" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W613" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X613" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y613" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z613" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA613" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB613" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC613" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD613" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="614" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A614" s="2">
+        <v>45206.949572928235</v>
+      </c>
+      <c r="B614" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C614" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D614" s="1">
+        <v>20232412</v>
+      </c>
+      <c r="E614" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F614" s="1">
+        <v>3</v>
+      </c>
+      <c r="G614" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H614" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I614" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J614" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K614" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L614" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M614" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N614" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O614" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P614" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q614" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R614" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S614" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T614" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U614" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V614" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W614" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X614" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y614" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z614" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA614" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB614" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC614" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD614" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="615" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A615" s="2">
+        <v>45206.961355601852</v>
+      </c>
+      <c r="B615" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C615" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D615" s="1">
+        <v>20193344</v>
+      </c>
+      <c r="E615" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F615" s="1">
+        <v>3</v>
+      </c>
+      <c r="G615" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H615" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I615" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J615" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K615" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L615" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M615" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N615" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O615" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P615" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q615" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R615" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S615" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T615" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U615" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V615" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W615" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X615" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y615" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z615" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA615" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB615" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC615" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD615" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="616" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A616" s="2">
+        <v>45206.964371932874</v>
+      </c>
+      <c r="B616" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D616" s="1">
+        <v>20222240</v>
+      </c>
+      <c r="E616" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F616" s="1">
+        <v>3</v>
+      </c>
+      <c r="G616" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H616" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I616" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J616" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K616" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L616" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M616" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N616" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O616" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P616" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q616" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R616" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S616" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T616" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U616" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V616" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W616" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X616" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y616" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z616" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA616" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB616" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC616" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD616" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="617" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A617" s="2">
+        <v>45206.966534351857</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D617" s="1">
+        <v>20233217</v>
+      </c>
+      <c r="E617" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F617" s="1">
+        <v>3</v>
+      </c>
+      <c r="G617" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H617" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I617" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J617" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K617" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L617" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M617" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N617" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O617" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P617" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q617" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R617" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S617" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T617" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U617" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V617" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W617" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X617" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y617" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z617" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA617" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB617" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC617" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD617" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/R/data/literacy_230925.xlsx
+++ b/R/data/literacy_230925.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/R/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{077732B8-A7A4-3D42-A9D5-D84CD262D4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2907AED5-2C3E-7947-86B4-2F0454F1F8A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33140" yWindow="640" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15560" yWindow="540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16703" uniqueCount="1496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17864" uniqueCount="1577">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -4512,6 +4512,249 @@
   </si>
   <si>
     <t>남윤혁</t>
+  </si>
+  <si>
+    <t>bldrlsld@gmail.com</t>
+  </si>
+  <si>
+    <t>김규빈</t>
+  </si>
+  <si>
+    <t>ryan.kang04@gmail.com</t>
+  </si>
+  <si>
+    <t>강우석</t>
+  </si>
+  <si>
+    <t>daysyad@naver.com</t>
+  </si>
+  <si>
+    <t>최소연</t>
+  </si>
+  <si>
+    <t>minky1501@gmail.com</t>
+  </si>
+  <si>
+    <t>최민경</t>
+  </si>
+  <si>
+    <t>eunku7188@naver.com</t>
+  </si>
+  <si>
+    <t>곽은규</t>
+  </si>
+  <si>
+    <t>leah0820@naver.com</t>
+  </si>
+  <si>
+    <t>심채린</t>
+  </si>
+  <si>
+    <t>jeongyeon256@gmail.com</t>
+  </si>
+  <si>
+    <t>이정연</t>
+  </si>
+  <si>
+    <t>hakyung060411@naver.com</t>
+  </si>
+  <si>
+    <t>박하경</t>
+  </si>
+  <si>
+    <t>richhjin@naver.com</t>
+  </si>
+  <si>
+    <t>donguk3121@gmail.com</t>
+  </si>
+  <si>
+    <t>신동욱</t>
+  </si>
+  <si>
+    <t>changyw6729@naver.com</t>
+  </si>
+  <si>
+    <t>장연욱</t>
+  </si>
+  <si>
+    <t>chi9605@naver.com</t>
+  </si>
+  <si>
+    <t>이채연</t>
+  </si>
+  <si>
+    <t>sjh8358000@naver.com</t>
+  </si>
+  <si>
+    <t>손지후</t>
+  </si>
+  <si>
+    <t>lsyun5050@naver.com</t>
+  </si>
+  <si>
+    <t>이서연</t>
+  </si>
+  <si>
+    <t>plzmxn@naver.com</t>
+  </si>
+  <si>
+    <t>현상희</t>
+  </si>
+  <si>
+    <t>seizekim@naver.com</t>
+  </si>
+  <si>
+    <t>김종학</t>
+  </si>
+  <si>
+    <t>hwangyejin2000@gmail.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠 전공</t>
+  </si>
+  <si>
+    <t>황예진</t>
+  </si>
+  <si>
+    <t>kwb905@naver.com</t>
+  </si>
+  <si>
+    <t>김우빈</t>
+  </si>
+  <si>
+    <t>chant1238762@gmail.com</t>
+  </si>
+  <si>
+    <t>심재민</t>
+  </si>
+  <si>
+    <t>dufud7004@naver.com</t>
+  </si>
+  <si>
+    <t>윤여령</t>
+  </si>
+  <si>
+    <t>chagaeun0906@gmail.com</t>
+  </si>
+  <si>
+    <t>최가은</t>
+  </si>
+  <si>
+    <t>hkmcosmos1@gmail.com</t>
+  </si>
+  <si>
+    <t>한기민</t>
+  </si>
+  <si>
+    <t>khw6583@gmail.com</t>
+  </si>
+  <si>
+    <t>김현우</t>
+  </si>
+  <si>
+    <t>jimin4729@naver.com</t>
+  </si>
+  <si>
+    <t>rlagkdud114@naver.com</t>
+  </si>
+  <si>
+    <t>김하영</t>
+  </si>
+  <si>
+    <t>ohr3876@gmail.com</t>
+  </si>
+  <si>
+    <t>정철</t>
+  </si>
+  <si>
+    <t>mosumin345@gmail.com</t>
+  </si>
+  <si>
+    <t>모수민</t>
+  </si>
+  <si>
+    <t>jsubin0424@gmail.com</t>
+  </si>
+  <si>
+    <t>정수빈</t>
+  </si>
+  <si>
+    <t>jhkang050107@gmail.com</t>
+  </si>
+  <si>
+    <t>강지희</t>
+  </si>
+  <si>
+    <t>rdc9118@naver.com</t>
+  </si>
+  <si>
+    <t>김예찬</t>
+  </si>
+  <si>
+    <t>h20192607@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>cho2scho2s@gmail.com</t>
+  </si>
+  <si>
+    <t>조은해</t>
+  </si>
+  <si>
+    <t>noble2755@naver.com</t>
+  </si>
+  <si>
+    <t>김정기</t>
+  </si>
+  <si>
+    <t>gahyun030405@gmail.com</t>
+  </si>
+  <si>
+    <t>윤가현</t>
+  </si>
+  <si>
+    <t>bbko323@naver.com</t>
+  </si>
+  <si>
+    <t>방수연</t>
+  </si>
+  <si>
+    <t>whddlf0504@icloud.com</t>
+  </si>
+  <si>
+    <t>김종일</t>
+  </si>
+  <si>
+    <t>a01093819049@gmail.com</t>
+  </si>
+  <si>
+    <t>김서영</t>
+  </si>
+  <si>
+    <t>zzolle424@naver.com</t>
+  </si>
+  <si>
+    <t>전지호</t>
+  </si>
+  <si>
+    <t>leejisu0909@naver.com</t>
+  </si>
+  <si>
+    <t>rbdms0619@gmail.com</t>
+  </si>
+  <si>
+    <t>김규은</t>
+  </si>
+  <si>
+    <t>mkdaniel2020@gmail.com</t>
+  </si>
+  <si>
+    <t>권다넬</t>
+  </si>
+  <si>
+    <t>bom031417@naver.com</t>
+  </si>
+  <si>
+    <t>원유영</t>
   </si>
 </sst>
 </file>
@@ -4801,11 +5044,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AD617"/>
+  <dimension ref="A1:AD660"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A595" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D622" sqref="D622"/>
+      <pane ySplit="1" topLeftCell="A629" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D666" sqref="D666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -61577,6 +61820,3962 @@
         <v>56</v>
       </c>
     </row>
+    <row r="618" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A618" s="2">
+        <v>45206.977182476854</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C618" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D618" s="1">
+        <v>20221603</v>
+      </c>
+      <c r="E618" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F618" s="1">
+        <v>3</v>
+      </c>
+      <c r="G618" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H618" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I618" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J618" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K618" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L618" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M618" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N618" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O618" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P618" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q618" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R618" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S618" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T618" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U618" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V618" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W618" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X618" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y618" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z618" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA618" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB618" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC618" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD618" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="619" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A619" s="2">
+        <v>45206.98420929398</v>
+      </c>
+      <c r="B619" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C619" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D619" s="1">
+        <v>20235105</v>
+      </c>
+      <c r="E619" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F619" s="1">
+        <v>3</v>
+      </c>
+      <c r="G619" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H619" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I619" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J619" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K619" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L619" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M619" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N619" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O619" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P619" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q619" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R619" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S619" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T619" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U619" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V619" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W619" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X619" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y619" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z619" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA619" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB619" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC619" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD619" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="620" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A620" s="2">
+        <v>45206.995135081015</v>
+      </c>
+      <c r="B620" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C620" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D620" s="1">
+        <v>20232586</v>
+      </c>
+      <c r="E620" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F620" s="1">
+        <v>3</v>
+      </c>
+      <c r="G620" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H620" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I620" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J620" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K620" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L620" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M620" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N620" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O620" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P620" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q620" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R620" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S620" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T620" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U620" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V620" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W620" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X620" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y620" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z620" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA620" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB620" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC620" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD620" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="621" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A621" s="2">
+        <v>45206.996221828704</v>
+      </c>
+      <c r="B621" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C621" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D621" s="1">
+        <v>20233644</v>
+      </c>
+      <c r="E621" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F621" s="1">
+        <v>3</v>
+      </c>
+      <c r="G621" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H621" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I621" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J621" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K621" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L621" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M621" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N621" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O621" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P621" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q621" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R621" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S621" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T621" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U621" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V621" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W621" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X621" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y621" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z621" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA621" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB621" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC621" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD621" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="622" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A622" s="2">
+        <v>45207.004012129633</v>
+      </c>
+      <c r="B622" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C622" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D622" s="1">
+        <v>20212601</v>
+      </c>
+      <c r="E622" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F622" s="1">
+        <v>3</v>
+      </c>
+      <c r="G622" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H622" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I622" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J622" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K622" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L622" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M622" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N622" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O622" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P622" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q622" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R622" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S622" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T622" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U622" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V622" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W622" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X622" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y622" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z622" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA622" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB622" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC622" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD622" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="623" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A623" s="2">
+        <v>45207.008677835649</v>
+      </c>
+      <c r="B623" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C623" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D623" s="1">
+        <v>20232981</v>
+      </c>
+      <c r="E623" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F623" s="1">
+        <v>3</v>
+      </c>
+      <c r="G623" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H623" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I623" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J623" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K623" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L623" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M623" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N623" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O623" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P623" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q623" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R623" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S623" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T623" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U623" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V623" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W623" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X623" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y623" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z623" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA623" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB623" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC623" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD623" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="624" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A624" s="2">
+        <v>45207.01202461806</v>
+      </c>
+      <c r="B624" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C624" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D624" s="1">
+        <v>20232232</v>
+      </c>
+      <c r="E624" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F624" s="1">
+        <v>3</v>
+      </c>
+      <c r="G624" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H624" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I624" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J624" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K624" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L624" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M624" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N624" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O624" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P624" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q624" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R624" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S624" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T624" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U624" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V624" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W624" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X624" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y624" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z624" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA624" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB624" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC624" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD624" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="625" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A625" s="2">
+        <v>45207.02549378472</v>
+      </c>
+      <c r="B625" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D625" s="1">
+        <v>20233929</v>
+      </c>
+      <c r="E625" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F625" s="1">
+        <v>3</v>
+      </c>
+      <c r="G625" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H625" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I625" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J625" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K625" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L625" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M625" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N625" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O625" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P625" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q625" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R625" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S625" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T625" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U625" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V625" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W625" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X625" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y625" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z625" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA625" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB625" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC625" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD625" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="626" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A626" s="2">
+        <v>45207.040162488425</v>
+      </c>
+      <c r="B626" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C626" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D626" s="1">
+        <v>20233732</v>
+      </c>
+      <c r="E626" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F626" s="1">
+        <v>3</v>
+      </c>
+      <c r="G626" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H626" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I626" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J626" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K626" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L626" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M626" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N626" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O626" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P626" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q626" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R626" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S626" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T626" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U626" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V626" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W626" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X626" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y626" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z626" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA626" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB626" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC626" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD626" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="627" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A627" s="2">
+        <v>45207.088916678244</v>
+      </c>
+      <c r="B627" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C627" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D627" s="1">
+        <v>20226129</v>
+      </c>
+      <c r="E627" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F627" s="1">
+        <v>3</v>
+      </c>
+      <c r="G627" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H627" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I627" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J627" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K627" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L627" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M627" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N627" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O627" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P627" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q627" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R627" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S627" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T627" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U627" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V627" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W627" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X627" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y627" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z627" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA627" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB627" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC627" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD627" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="628" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A628" s="2">
+        <v>45207.090588379629</v>
+      </c>
+      <c r="B628" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C628" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D628" s="1">
+        <v>20232573</v>
+      </c>
+      <c r="E628" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F628" s="1">
+        <v>3</v>
+      </c>
+      <c r="G628" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H628" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I628" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J628" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K628" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L628" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M628" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N628" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O628" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P628" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q628" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R628" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S628" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T628" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U628" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V628" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W628" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X628" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y628" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="Z628" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA628" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB628" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC628" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD628" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="629" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A629" s="2">
+        <v>45207.09359290509</v>
+      </c>
+      <c r="B629" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C629" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D629" s="1">
+        <v>20202633</v>
+      </c>
+      <c r="E629" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F629" s="1">
+        <v>3</v>
+      </c>
+      <c r="G629" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H629" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I629" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J629" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K629" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L629" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M629" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N629" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O629" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P629" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q629" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R629" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S629" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T629" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U629" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V629" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W629" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X629" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y629" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z629" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA629" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB629" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC629" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD629" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="630" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A630" s="2">
+        <v>45207.098713865736</v>
+      </c>
+      <c r="B630" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C630" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D630" s="1">
+        <v>20233934</v>
+      </c>
+      <c r="E630" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F630" s="1">
+        <v>2</v>
+      </c>
+      <c r="G630" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H630" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I630" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J630" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K630" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L630" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M630" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N630" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O630" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P630" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q630" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R630" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S630" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T630" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U630" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V630" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W630" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X630" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y630" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z630" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA630" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB630" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC630" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD630" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="631" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A631" s="2">
+        <v>45207.120129814815</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C631" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D631" s="1">
+        <v>20232561</v>
+      </c>
+      <c r="E631" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F631" s="1">
+        <v>3</v>
+      </c>
+      <c r="G631" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H631" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I631" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J631" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K631" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L631" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M631" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N631" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O631" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P631" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q631" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R631" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S631" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T631" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U631" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V631" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W631" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X631" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y631" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z631" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA631" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB631" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC631" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD631" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="632" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A632" s="2">
+        <v>45207.121923854167</v>
+      </c>
+      <c r="B632" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C632" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D632" s="1">
+        <v>20232642</v>
+      </c>
+      <c r="E632" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="F632" s="1">
+        <v>3</v>
+      </c>
+      <c r="G632" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H632" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I632" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J632" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K632" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L632" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M632" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N632" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O632" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P632" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q632" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R632" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S632" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T632" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U632" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V632" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W632" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X632" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y632" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z632" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA632" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB632" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC632" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD632" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="633" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A633" s="2">
+        <v>45207.132513368051</v>
+      </c>
+      <c r="B633" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C633" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D633" s="1">
+        <v>20203406</v>
+      </c>
+      <c r="E633" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F633" s="1">
+        <v>3</v>
+      </c>
+      <c r="G633" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H633" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I633" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J633" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K633" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L633" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M633" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N633" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O633" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P633" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q633" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R633" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S633" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T633" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U633" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V633" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W633" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X633" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y633" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z633" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA633" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB633" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC633" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD633" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="634" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A634" s="2">
+        <v>45207.147463530091</v>
+      </c>
+      <c r="B634" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C634" s="1" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D634" s="1">
+        <v>20192241</v>
+      </c>
+      <c r="E634" s="1" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F634" s="1">
+        <v>3</v>
+      </c>
+      <c r="G634" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H634" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I634" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J634" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K634" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L634" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M634" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N634" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O634" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P634" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q634" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R634" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S634" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T634" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U634" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V634" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W634" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X634" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y634" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z634" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA634" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB634" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC634" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD634" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="635" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A635" s="2">
+        <v>45207.155309907408</v>
+      </c>
+      <c r="B635" s="1" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C635" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D635" s="1">
+        <v>20232607</v>
+      </c>
+      <c r="E635" s="1" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F635" s="1">
+        <v>3</v>
+      </c>
+      <c r="G635" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H635" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I635" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J635" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K635" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L635" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M635" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N635" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O635" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P635" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q635" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R635" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S635" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="T635" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U635" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V635" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W635" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X635" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y635" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z635" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA635" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB635" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC635" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD635" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="636" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A636" s="2">
+        <v>45207.163080636572</v>
+      </c>
+      <c r="B636" s="1" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C636" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D636" s="1">
+        <v>20225186</v>
+      </c>
+      <c r="E636" s="1" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F636" s="1">
+        <v>3</v>
+      </c>
+      <c r="G636" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H636" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I636" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J636" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K636" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L636" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M636" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N636" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O636" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P636" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q636" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R636" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S636" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T636" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U636" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V636" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W636" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X636" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y636" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z636" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA636" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB636" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC636" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD636" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="637" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A637" s="2">
+        <v>45207.355149305557</v>
+      </c>
+      <c r="B637" s="1" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C637" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D637" s="1">
+        <v>20236269</v>
+      </c>
+      <c r="E637" s="1" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F637" s="1">
+        <v>3</v>
+      </c>
+      <c r="G637" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H637" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I637" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="J637" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K637" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L637" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M637" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N637" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O637" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P637" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q637" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="R637" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S637" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T637" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U637" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V637" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W637" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="X637" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y637" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z637" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA637" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB637" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="AC637" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD637" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="638" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A638" s="2">
+        <v>45207.358088078705</v>
+      </c>
+      <c r="B638" s="1" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D638" s="1">
+        <v>20233736</v>
+      </c>
+      <c r="E638" s="1" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F638" s="1">
+        <v>3</v>
+      </c>
+      <c r="G638" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H638" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I638" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J638" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K638" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L638" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M638" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N638" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O638" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P638" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q638" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R638" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S638" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="T638" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U638" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V638" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W638" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X638" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y638" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z638" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA638" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB638" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC638" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD638" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="639" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A639" s="2">
+        <v>45207.365101585645</v>
+      </c>
+      <c r="B639" s="1" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C639" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D639" s="1">
+        <v>20226429</v>
+      </c>
+      <c r="E639" s="1" t="s">
+        <v>1539</v>
+      </c>
+      <c r="F639" s="1">
+        <v>2</v>
+      </c>
+      <c r="G639" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H639" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I639" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J639" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K639" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L639" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M639" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N639" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O639" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P639" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q639" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R639" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S639" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="T639" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U639" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="V639" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="W639" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X639" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y639" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z639" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA639" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB639" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC639" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="AD639" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="640" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A640" s="2">
+        <v>45207.385672164353</v>
+      </c>
+      <c r="B640" s="1" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C640" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D640" s="1">
+        <v>20235154</v>
+      </c>
+      <c r="E640" s="1" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F640" s="1">
+        <v>3</v>
+      </c>
+      <c r="G640" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H640" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I640" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J640" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K640" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L640" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M640" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N640" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O640" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="P640" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q640" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="R640" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="S640" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T640" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U640" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V640" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="W640" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="X640" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y640" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z640" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA640" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB640" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="AC640" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD640" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="641" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A641" s="2">
+        <v>45207.391933981482</v>
+      </c>
+      <c r="B641" s="1" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C641" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D641" s="1">
+        <v>20232747</v>
+      </c>
+      <c r="E641" s="1" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F641" s="1">
+        <v>3</v>
+      </c>
+      <c r="G641" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H641" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I641" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J641" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K641" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L641" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M641" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N641" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O641" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P641" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q641" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R641" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S641" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T641" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U641" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V641" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W641" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X641" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y641" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z641" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA641" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB641" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC641" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD641" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="642" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A642" s="2">
+        <v>45207.396472384258</v>
+      </c>
+      <c r="B642" s="1" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C642" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D642" s="1">
+        <v>20221026</v>
+      </c>
+      <c r="E642" s="1" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F642" s="1">
+        <v>3</v>
+      </c>
+      <c r="G642" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H642" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I642" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J642" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K642" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L642" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M642" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N642" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O642" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P642" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q642" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R642" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S642" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T642" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U642" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V642" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W642" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X642" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y642" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z642" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA642" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB642" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC642" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD642" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="643" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A643" s="2">
+        <v>45207.403661585646</v>
+      </c>
+      <c r="B643" s="1" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C643" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D643" s="1">
+        <v>20233035</v>
+      </c>
+      <c r="E643" s="1" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F643" s="1">
+        <v>3</v>
+      </c>
+      <c r="G643" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H643" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I643" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J643" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K643" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L643" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M643" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N643" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O643" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P643" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q643" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R643" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S643" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T643" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U643" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V643" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W643" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X643" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y643" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z643" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA643" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB643" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC643" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD643" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="644" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A644" s="2">
+        <v>45207.42464297454</v>
+      </c>
+      <c r="B644" s="1" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C644" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D644" s="1">
+        <v>20226235</v>
+      </c>
+      <c r="E644" s="1" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F644" s="1">
+        <v>3</v>
+      </c>
+      <c r="G644" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H644" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I644" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J644" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K644" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L644" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="M644" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N644" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O644" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="P644" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q644" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R644" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="S644" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="T644" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U644" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V644" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W644" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X644" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y644" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z644" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA644" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB644" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC644" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD644" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="645" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A645" s="2">
+        <v>45207.427890393519</v>
+      </c>
+      <c r="B645" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C645" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D645" s="1">
+        <v>20236609</v>
+      </c>
+      <c r="E645" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F645" s="1">
+        <v>3</v>
+      </c>
+      <c r="G645" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H645" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I645" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J645" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K645" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L645" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M645" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N645" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O645" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P645" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q645" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R645" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S645" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T645" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U645" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="V645" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W645" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X645" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y645" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z645" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA645" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB645" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC645" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD645" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="646" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A646" s="2">
+        <v>45207.439067500003</v>
+      </c>
+      <c r="B646" s="1" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C646" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D646" s="1">
+        <v>20222355</v>
+      </c>
+      <c r="E646" s="1" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F646" s="1">
+        <v>3</v>
+      </c>
+      <c r="G646" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H646" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I646" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J646" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K646" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L646" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M646" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N646" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O646" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P646" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q646" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R646" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S646" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T646" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U646" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V646" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W646" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X646" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y646" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z646" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA646" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB646" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC646" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD646" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="647" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A647" s="2">
+        <v>45207.462887638889</v>
+      </c>
+      <c r="B647" s="1" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C647" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D647" s="1">
+        <v>20236203</v>
+      </c>
+      <c r="E647" s="1" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F647" s="1">
+        <v>3</v>
+      </c>
+      <c r="G647" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H647" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I647" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J647" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K647" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L647" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M647" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N647" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O647" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P647" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q647" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R647" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S647" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T647" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U647" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V647" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W647" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X647" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y647" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z647" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA647" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB647" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC647" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD647" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="648" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A648" s="2">
+        <v>45207.475021180551</v>
+      </c>
+      <c r="B648" s="1" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C648" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D648" s="1">
+        <v>20173608</v>
+      </c>
+      <c r="E648" s="1" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F648" s="1">
+        <v>3</v>
+      </c>
+      <c r="G648" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H648" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I648" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J648" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K648" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L648" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M648" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N648" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O648" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P648" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q648" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R648" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S648" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T648" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U648" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V648" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W648" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X648" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y648" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z648" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA648" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB648" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC648" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD648" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="649" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A649" s="2">
+        <v>45207.481735370369</v>
+      </c>
+      <c r="B649" s="1" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C649" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D649" s="1">
+        <v>20192607</v>
+      </c>
+      <c r="E649" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F649" s="1">
+        <v>3</v>
+      </c>
+      <c r="G649" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H649" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I649" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J649" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K649" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L649" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M649" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N649" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O649" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P649" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q649" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R649" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S649" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T649" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U649" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V649" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W649" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X649" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y649" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z649" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA649" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB649" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC649" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD649" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="650" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A650" s="2">
+        <v>45207.481737326394</v>
+      </c>
+      <c r="B650" s="1" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C650" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D650" s="1">
+        <v>20232364</v>
+      </c>
+      <c r="E650" s="1" t="s">
+        <v>1557</v>
+      </c>
+      <c r="F650" s="1">
+        <v>3</v>
+      </c>
+      <c r="G650" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H650" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I650" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J650" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K650" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L650" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M650" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N650" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O650" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P650" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q650" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R650" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S650" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T650" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U650" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V650" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="W650" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X650" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y650" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z650" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA650" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB650" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC650" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD650" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="651" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A651" s="2">
+        <v>45207.488684421296</v>
+      </c>
+      <c r="B651" s="1" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C651" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D651" s="1">
+        <v>20233211</v>
+      </c>
+      <c r="E651" s="1" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F651" s="1">
+        <v>3</v>
+      </c>
+      <c r="G651" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H651" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I651" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J651" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K651" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L651" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M651" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N651" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O651" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P651" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q651" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R651" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S651" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T651" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U651" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V651" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W651" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X651" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y651" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z651" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA651" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB651" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC651" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD651" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="652" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A652" s="2">
+        <v>45207.495291909727</v>
+      </c>
+      <c r="B652" s="1" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C652" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D652" s="1">
+        <v>20236419</v>
+      </c>
+      <c r="E652" s="1" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F652" s="1">
+        <v>3</v>
+      </c>
+      <c r="G652" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H652" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I652" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J652" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K652" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L652" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M652" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N652" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O652" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P652" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q652" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R652" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S652" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T652" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U652" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V652" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W652" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X652" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y652" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z652" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA652" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB652" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC652" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD652" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="653" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A653" s="2">
+        <v>45207.501648645833</v>
+      </c>
+      <c r="B653" s="1" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C653" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D653" s="1">
+        <v>20203412</v>
+      </c>
+      <c r="E653" s="1" t="s">
+        <v>1563</v>
+      </c>
+      <c r="F653" s="1">
+        <v>3</v>
+      </c>
+      <c r="G653" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H653" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I653" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J653" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K653" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L653" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M653" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N653" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O653" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P653" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q653" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R653" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S653" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T653" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U653" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V653" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W653" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X653" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y653" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z653" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA653" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB653" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC653" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD653" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="654" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A654" s="2">
+        <v>45207.503706145828</v>
+      </c>
+      <c r="B654" s="1" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C654" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="D654" s="1">
+        <v>20185121</v>
+      </c>
+      <c r="E654" s="1" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F654" s="1">
+        <v>3</v>
+      </c>
+      <c r="G654" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H654" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I654" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J654" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K654" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L654" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M654" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N654" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O654" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P654" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q654" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R654" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="S654" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T654" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U654" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V654" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W654" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X654" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y654" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z654" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA654" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB654" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC654" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD654" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="655" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A655" s="2">
+        <v>45207.504742789351</v>
+      </c>
+      <c r="B655" s="1" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C655" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D655" s="1">
+        <v>20212608</v>
+      </c>
+      <c r="E655" s="1" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F655" s="1">
+        <v>3</v>
+      </c>
+      <c r="G655" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H655" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I655" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J655" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K655" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L655" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M655" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N655" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O655" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P655" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q655" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R655" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S655" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T655" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U655" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V655" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W655" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X655" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y655" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z655" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA655" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB655" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC655" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD655" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="656" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A656" s="2">
+        <v>45207.515690347223</v>
+      </c>
+      <c r="B656" s="1" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D656" s="1">
+        <v>20233030</v>
+      </c>
+      <c r="E656" s="1" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F656" s="1">
+        <v>3</v>
+      </c>
+      <c r="G656" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H656" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I656" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J656" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K656" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L656" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M656" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N656" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="O656" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P656" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q656" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R656" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S656" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T656" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U656" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V656" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W656" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X656" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y656" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z656" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA656" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB656" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC656" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD656" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="657" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A657" s="2">
+        <v>45207.518733935183</v>
+      </c>
+      <c r="B657" s="1" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C657" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D657" s="1">
+        <v>20203340</v>
+      </c>
+      <c r="E657" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="F657" s="1">
+        <v>3</v>
+      </c>
+      <c r="G657" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H657" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I657" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J657" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K657" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L657" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M657" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N657" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="O657" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P657" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q657" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R657" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S657" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T657" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U657" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V657" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W657" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X657" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y657" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z657" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA657" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB657" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC657" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD657" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="658" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A658" s="2">
+        <v>45207.537691759258</v>
+      </c>
+      <c r="B658" s="1" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C658" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D658" s="1">
+        <v>20213803</v>
+      </c>
+      <c r="E658" s="1" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F658" s="1">
+        <v>3</v>
+      </c>
+      <c r="G658" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H658" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I658" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J658" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K658" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L658" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M658" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N658" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O658" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P658" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q658" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="R658" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S658" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T658" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U658" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V658" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W658" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X658" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y658" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z658" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA658" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB658" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC658" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD658" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="659" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A659" s="2">
+        <v>45207.545937199073</v>
+      </c>
+      <c r="B659" s="1" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C659" s="1" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D659" s="1">
+        <v>20226403</v>
+      </c>
+      <c r="E659" s="1" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F659" s="1">
+        <v>3</v>
+      </c>
+      <c r="G659" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H659" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I659" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J659" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K659" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L659" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M659" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N659" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O659" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P659" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q659" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R659" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S659" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T659" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U659" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V659" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W659" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X659" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y659" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z659" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA659" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB659" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC659" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD659" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="660" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A660" s="2">
+        <v>45207.547539421299</v>
+      </c>
+      <c r="B660" s="1" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C660" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D660" s="1">
+        <v>20207089</v>
+      </c>
+      <c r="E660" s="1" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F660" s="1">
+        <v>3</v>
+      </c>
+      <c r="G660" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H660" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I660" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J660" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K660" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L660" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M660" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N660" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O660" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P660" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q660" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R660" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S660" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T660" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U660" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V660" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W660" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X660" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y660" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z660" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA660" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB660" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC660" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD660" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
